--- a/TP 2/TP2.xlsx
+++ b/TP 2/TP2.xlsx
@@ -1,36 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\SIMULACION\TpsSimulacion\TP 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E51B49-E00E-4D62-8822-E06AF370E501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15DCFF7-CBAA-4935-9415-5C91638A505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A119819B-661A-4379-8377-58A3C6C30C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="635" activeTab="1" xr2:uid="{A119819B-661A-4379-8377-58A3C6C30C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Experiencia 2 - Punto f" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_alfa" localSheetId="1">'Experiencia 2 - Punto f'!$Y$7</definedName>
     <definedName name="_alfa" localSheetId="0">Hoja1!$Y$7</definedName>
+    <definedName name="_DistrExpLambda" localSheetId="1">'Experiencia 2 - Punto f'!$H$20</definedName>
     <definedName name="_DistrExpLambda" localSheetId="0">Hoja1!$H$20</definedName>
+    <definedName name="_DistrNomrS" localSheetId="1">'Experiencia 2 - Punto f'!$H$24</definedName>
     <definedName name="_DistrNomrS" localSheetId="0">Hoja1!$H$24</definedName>
+    <definedName name="_DistrNormU" localSheetId="1">'Experiencia 2 - Punto f'!$H$23</definedName>
     <definedName name="_DistrNormU" localSheetId="0">Hoja1!$H$23</definedName>
+    <definedName name="_DistrUnifA" localSheetId="1">'Experiencia 2 - Punto f'!$H$17</definedName>
     <definedName name="_DistrUnifA" localSheetId="0">Hoja1!$H$17</definedName>
     <definedName name="_DistrUnifB" localSheetId="0">Hoja1!$H$18</definedName>
+    <definedName name="_gradoDeLibertad" localSheetId="1">'Experiencia 2 - Punto f'!$Y$8</definedName>
     <definedName name="_gradoDeLibertad" localSheetId="0">Hoja1!$Y$8</definedName>
+    <definedName name="_intervalos" localSheetId="1">'Experiencia 2 - Punto f'!$O$7</definedName>
     <definedName name="_intervalos" localSheetId="0">Hoja1!$O$7</definedName>
+    <definedName name="_limSup" localSheetId="1">'Experiencia 2 - Punto f'!$P$12:$P$23</definedName>
     <definedName name="_limSup" localSheetId="0">Hoja1!$P$12:$P$23</definedName>
+    <definedName name="_media" localSheetId="1">'Experiencia 2 - Punto f'!$G$9</definedName>
     <definedName name="_media" localSheetId="0">Hoja1!$G$9</definedName>
+    <definedName name="_muestra" localSheetId="1">'Experiencia 2 - Punto f'!$C$8:$C$207</definedName>
     <definedName name="_muestra" localSheetId="0">Hoja1!$C$8:$C$207</definedName>
+    <definedName name="_pasos" localSheetId="1">'Experiencia 2 - Punto f'!$O$8</definedName>
     <definedName name="_pasos" localSheetId="0">Hoja1!$O$8</definedName>
+    <definedName name="_tamañoMuestra" localSheetId="1">'Experiencia 2 - Punto f'!$G$6</definedName>
     <definedName name="_tamañoMuestra" localSheetId="0">Hoja1!$G$6</definedName>
+    <definedName name="_Valor_Max" localSheetId="1">'Experiencia 2 - Punto f'!$G$7</definedName>
     <definedName name="_Valor_Max" localSheetId="0">Hoja1!$G$7</definedName>
+    <definedName name="_Valor_Min" localSheetId="1">'Experiencia 2 - Punto f'!$G$8</definedName>
     <definedName name="_Valor_Min" localSheetId="0">Hoja1!$G$8</definedName>
+    <definedName name="_varianza" localSheetId="1">'Experiencia 2 - Punto f'!$G$10</definedName>
     <definedName name="_varianza" localSheetId="0">Hoja1!$G$10</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -43,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
   <si>
     <t>DATOS</t>
   </si>
@@ -215,14 +231,20 @@
   <si>
     <t>Se puede confirmar la hipótesis con una probabilidad del 95%</t>
   </si>
+  <si>
+    <t>X:Tiempo que demora (en segundos) los vehículos en circular una rotonda</t>
+  </si>
+  <si>
+    <t>T: Tiempo entre los vehículos que ciruculan por la rotonda</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000"/>
-    <numFmt numFmtId="173" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -241,7 +263,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +279,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -405,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,10 +465,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -461,7 +489,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
@@ -473,15 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -491,16 +510,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -524,16 +543,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1051,6 +1086,710 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000008-1A07-49BE-B678-BE1BDB2AED4C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="312335487"/>
+        <c:axId val="312332991"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="312335487"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312332991"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="312332991"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-AR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="312335487"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln w="25400">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-AR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-AR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$Q$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Observadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$M$12:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.6404166666664718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10441249999999824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17242083333333175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24042916666666528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30843749999999881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37644583333333226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44445416666666582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51246249999999938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58047083333333283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6484791666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71648749999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78449583333333361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$Q$12:$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-06D4-43FF-8EFB-A626385F0755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$R$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D. Uniforme</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$M$12:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.6404166666664718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10441249999999824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17242083333333175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24042916666666528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30843749999999881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37644583333333226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44445416666666582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51246249999999938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58047083333333283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6484791666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71648749999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78449583333333361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$R$12:$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16.666666666666668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-06D4-43FF-8EFB-A626385F0755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$S$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D.Exp Neg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$M$12:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.6404166666664718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10441249999999824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17242083333333175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24042916666666528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30843749999999881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37644583333333226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44445416666666582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51246249999999938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58047083333333283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6484791666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71648749999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78449583333333361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$S$12:$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>70.264485230055485</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>45.191499207753239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>29.065488688313735</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.693839494166497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>12.023181126631656</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7328621789494401</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.9734888669500821</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1987627526858242</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0573250331300752</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3231948159924789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.85102961023399981</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.54735054032977182</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-06D4-43FF-8EFB-A626385F0755}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$T$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>D. Normal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Hoja1!$M$12:$M$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.6404166666664718E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10441249999999824</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17242083333333175</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24042916666666528</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.30843749999999881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37644583333333226</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.44445416666666582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.51246249999999938</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.58047083333333283</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.6484791666666665</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71648749999999994</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78449583333333361</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$T$12:$T$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>26.81427424066511</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.933607117611473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.707775005172273</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.1108449248676</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.266618067717147</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.724753902410434</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.2132177343753527</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8692861164967489</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54047782294854851</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12600004497127504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.3681419625742883E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.5878828876123592E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-06D4-43FF-8EFB-A626385F0755}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1297,7 +2036,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1841,6 +3123,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEDC492-4144-4F40-8D1C-D023248CD974}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -2140,8 +3465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7766BCD-B30A-44BC-AE45-E615C022085C}">
   <dimension ref="A2:AB209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2189,11 +3514,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2315,24 +3640,24 @@
         <f>_xlfn.VAR.S(C8:C207)</f>
         <v>2.1125656461306559E-2</v>
       </c>
-      <c r="N10" s="23" t="s">
+      <c r="N10" s="43" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="33" t="s">
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="R10" s="37"/>
-      <c r="S10" s="38" t="s">
+      <c r="R10" s="34"/>
+      <c r="S10" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="T10" s="39"/>
-      <c r="U10" s="23" t="s">
+      <c r="T10" s="36"/>
+      <c r="U10" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="W10" s="25"/>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -2351,34 +3676,34 @@
       <c r="M11" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N11" s="26" t="s">
+      <c r="N11" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="27" t="s">
+      <c r="O11" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="P11" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="Q11" s="34" t="s">
+      <c r="Q11" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="R11" s="26" t="s">
+      <c r="R11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="27" t="s">
+      <c r="S11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="28" t="s">
+      <c r="T11" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="26" t="s">
+      <c r="U11" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="27" t="s">
+      <c r="V11" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="W11" s="28" t="s">
+      <c r="W11" s="25" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2404,27 +3729,27 @@
         <f>_Valor_Min</f>
         <v>2.3999999999979593E-3</v>
       </c>
-      <c r="P12" s="29">
-        <f>O12+_pasos</f>
+      <c r="P12" s="26">
+        <f t="shared" ref="P12:P23" si="1">O12+_pasos</f>
         <v>7.0408333333331477E-2</v>
       </c>
-      <c r="Q12" s="35">
+      <c r="Q12" s="32">
         <f t="array" ref="Q12:Q23">FREQUENCY(_muestra,_limSup)</f>
         <v>71</v>
       </c>
-      <c r="R12" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R12" s="37">
+        <f t="shared" ref="R12:R23" si="2">_tamañoMuestra/_intervalos</f>
         <v>16.666666666666668</v>
       </c>
       <c r="S12" s="19">
-        <f>(_xlfn.EXPON.DIST(P12,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O12,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" ref="S12:S23" si="3">(_xlfn.EXPON.DIST(P12,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O12,_DistrExpLambda,1))*_tamañoMuestra</f>
         <v>70.264485230055485</v>
       </c>
-      <c r="T12" s="29">
-        <f>(_xlfn.NORM.DIST(P12,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O12,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T12" s="26">
+        <f t="shared" ref="T12:T23" si="4">(_xlfn.NORM.DIST(P12,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O12,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
         <v>26.81427424066511</v>
       </c>
-      <c r="U12" s="40">
+      <c r="U12" s="37">
         <f>(R12-Q12)^2/R12</f>
         <v>177.12666666666661</v>
       </c>
@@ -2432,7 +3757,7 @@
         <f>(S12-Q12)^2/S12</f>
         <v>7.6992235129209998E-3</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="26">
         <f>(T12-Q12)^2/T12</f>
         <v>72.811158092739902</v>
       </c>
@@ -2449,7 +3774,7 @@
         <v>0.10769999999999991</v>
       </c>
       <c r="M13" s="12">
-        <f t="shared" ref="M13:M23" si="1">(P13+O13)/2</f>
+        <f t="shared" ref="M13:M23" si="5">(P13+O13)/2</f>
         <v>0.10441249999999824</v>
       </c>
       <c r="N13" s="16">
@@ -2459,35 +3784,35 @@
         <f>P12</f>
         <v>7.0408333333331477E-2</v>
       </c>
-      <c r="P13" s="29">
-        <f>O13+_pasos</f>
+      <c r="P13" s="26">
+        <f t="shared" si="1"/>
         <v>0.13841666666666499</v>
       </c>
-      <c r="Q13" s="35">
+      <c r="Q13" s="32">
         <v>42</v>
       </c>
-      <c r="R13" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R13" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S13" s="19">
-        <f>(_xlfn.EXPON.DIST(P13,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O13,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>45.191499207753239</v>
       </c>
-      <c r="T13" s="29">
-        <f>(_xlfn.NORM.DIST(P13,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O13,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T13" s="26">
+        <f t="shared" si="4"/>
         <v>34.933607117611473</v>
       </c>
-      <c r="U13" s="40">
-        <f t="shared" ref="U13:U23" si="2">(R13-Q13)^2/R13</f>
+      <c r="U13" s="37">
+        <f t="shared" ref="U13:U23" si="6">(R13-Q13)^2/R13</f>
         <v>38.506666666666661</v>
       </c>
       <c r="V13" s="19">
-        <f t="shared" ref="V13:V23" si="3">(S13-Q13)^2/S13</f>
+        <f t="shared" ref="V13:V23" si="7">(S13-Q13)^2/S13</f>
         <v>0.22538900836779624</v>
       </c>
-      <c r="W13" s="29">
-        <f t="shared" ref="W13:W23" si="4">(T13-Q13)^2/T13</f>
+      <c r="W13" s="26">
+        <f t="shared" ref="W13:W23" si="8">(T13-Q13)^2/T13</f>
         <v>1.429394571255068</v>
       </c>
     </row>
@@ -2512,51 +3837,51 @@
       <c r="K14" s="14"/>
       <c r="L14" s="15"/>
       <c r="M14" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.17242083333333175</v>
       </c>
       <c r="N14" s="16">
         <v>3</v>
       </c>
       <c r="O14" s="19">
-        <f t="shared" ref="O14:O23" si="5">P13</f>
+        <f t="shared" ref="O14:O23" si="9">P13</f>
         <v>0.13841666666666499</v>
       </c>
-      <c r="P14" s="29">
-        <f>O14+_pasos</f>
+      <c r="P14" s="26">
+        <f t="shared" si="1"/>
         <v>0.20642499999999853</v>
       </c>
-      <c r="Q14" s="35">
+      <c r="Q14" s="32">
         <v>35</v>
       </c>
-      <c r="R14" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R14" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S14" s="19">
-        <f>(_xlfn.EXPON.DIST(P14,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O14,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>29.065488688313735</v>
       </c>
-      <c r="T14" s="29">
-        <f>(_xlfn.NORM.DIST(P14,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O14,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T14" s="26">
+        <f t="shared" si="4"/>
         <v>36.707775005172273</v>
       </c>
-      <c r="U14" s="40">
-        <f t="shared" si="2"/>
+      <c r="U14" s="37">
+        <f t="shared" si="6"/>
         <v>20.166666666666664</v>
       </c>
       <c r="V14" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.2116921509973575</v>
       </c>
-      <c r="W14" s="29">
-        <f t="shared" si="4"/>
+      <c r="W14" s="26">
+        <f t="shared" si="8"/>
         <v>7.945170928720717E-2</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="42">
+      <c r="Z14" s="39">
         <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
         <v>19.675137572682498</v>
       </c>
@@ -2582,45 +3907,45 @@
       <c r="K15" s="2"/>
       <c r="L15" s="17"/>
       <c r="M15" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.24042916666666528</v>
       </c>
       <c r="N15" s="16">
         <v>4</v>
       </c>
       <c r="O15" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.20642499999999853</v>
       </c>
-      <c r="P15" s="29">
-        <f>O15+_pasos</f>
+      <c r="P15" s="26">
+        <f t="shared" si="1"/>
         <v>0.27443333333333203</v>
       </c>
-      <c r="Q15" s="35">
+      <c r="Q15" s="32">
         <v>23</v>
       </c>
-      <c r="R15" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R15" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S15" s="19">
-        <f>(_xlfn.EXPON.DIST(P15,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O15,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>18.693839494166497</v>
       </c>
-      <c r="T15" s="29">
-        <f>(_xlfn.NORM.DIST(P15,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O15,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T15" s="26">
+        <f t="shared" si="4"/>
         <v>31.1108449248676</v>
       </c>
-      <c r="U15" s="40">
-        <f t="shared" si="2"/>
+      <c r="U15" s="37">
+        <f t="shared" si="6"/>
         <v>2.4066666666666654</v>
       </c>
       <c r="V15" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.99193203770614868</v>
       </c>
-      <c r="W15" s="29">
-        <f t="shared" si="4"/>
+      <c r="W15" s="26">
+        <f t="shared" si="8"/>
         <v>2.1145618370096537</v>
       </c>
     </row>
@@ -2645,45 +3970,45 @@
       <c r="K16" s="2"/>
       <c r="L16" s="17"/>
       <c r="M16" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.30843749999999881</v>
       </c>
       <c r="N16" s="16">
         <v>5</v>
       </c>
       <c r="O16" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.27443333333333203</v>
       </c>
-      <c r="P16" s="29">
-        <f>O16+_pasos</f>
+      <c r="P16" s="26">
+        <f t="shared" si="1"/>
         <v>0.34244166666666553</v>
       </c>
-      <c r="Q16" s="35">
+      <c r="Q16" s="32">
         <v>11</v>
       </c>
-      <c r="R16" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R16" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S16" s="19">
-        <f>(_xlfn.EXPON.DIST(P16,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O16,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>12.023181126631656</v>
       </c>
-      <c r="T16" s="29">
-        <f>(_xlfn.NORM.DIST(P16,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O16,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T16" s="26">
+        <f t="shared" si="4"/>
         <v>21.266618067717147</v>
       </c>
-      <c r="U16" s="40">
-        <f t="shared" si="2"/>
+      <c r="U16" s="37">
+        <f t="shared" si="6"/>
         <v>1.9266666666666672</v>
       </c>
       <c r="V16" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.7073429807716554E-2</v>
       </c>
-      <c r="W16" s="29">
-        <f t="shared" si="4"/>
+      <c r="W16" s="26">
+        <f t="shared" si="8"/>
         <v>4.9562862422577298</v>
       </c>
     </row>
@@ -2711,45 +4036,45 @@
       <c r="K17" s="2"/>
       <c r="L17" s="17"/>
       <c r="M17" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.37644583333333226</v>
       </c>
       <c r="N17" s="16">
         <v>6</v>
       </c>
       <c r="O17" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.34244166666666553</v>
       </c>
-      <c r="P17" s="29">
-        <f>O17+_pasos</f>
+      <c r="P17" s="26">
+        <f t="shared" si="1"/>
         <v>0.41044999999999904</v>
       </c>
-      <c r="Q17" s="35">
+      <c r="Q17" s="32">
         <v>3</v>
       </c>
-      <c r="R17" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R17" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S17" s="19">
-        <f>(_xlfn.EXPON.DIST(P17,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O17,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>7.7328621789494401</v>
       </c>
-      <c r="T17" s="29">
-        <f>(_xlfn.NORM.DIST(P17,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O17,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T17" s="26">
+        <f t="shared" si="4"/>
         <v>11.724753902410434</v>
       </c>
-      <c r="U17" s="40">
-        <f t="shared" si="2"/>
+      <c r="U17" s="37">
+        <f t="shared" si="6"/>
         <v>11.206666666666667</v>
       </c>
       <c r="V17" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>2.8967261909707571</v>
       </c>
-      <c r="W17" s="29">
-        <f t="shared" si="4"/>
+      <c r="W17" s="26">
+        <f t="shared" si="8"/>
         <v>6.4923606321473999</v>
       </c>
     </row>
@@ -2777,45 +4102,45 @@
       <c r="K18" s="2"/>
       <c r="L18" s="17"/>
       <c r="M18" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.44445416666666582</v>
       </c>
       <c r="N18" s="16">
         <v>7</v>
       </c>
       <c r="O18" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.41044999999999904</v>
       </c>
-      <c r="P18" s="29">
-        <f>O18+_pasos</f>
+      <c r="P18" s="26">
+        <f t="shared" si="1"/>
         <v>0.47845833333333254</v>
       </c>
-      <c r="Q18" s="35">
+      <c r="Q18" s="32">
         <v>5</v>
       </c>
-      <c r="R18" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R18" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S18" s="19">
-        <f>(_xlfn.EXPON.DIST(P18,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O18,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>4.9734888669500821</v>
       </c>
-      <c r="T18" s="29">
-        <f>(_xlfn.NORM.DIST(P18,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O18,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T18" s="26">
+        <f t="shared" si="4"/>
         <v>5.2132177343753527</v>
       </c>
-      <c r="U18" s="40">
-        <f t="shared" si="2"/>
+      <c r="U18" s="37">
+        <f t="shared" si="6"/>
         <v>8.1666666666666679</v>
       </c>
       <c r="V18" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>1.4131733163433354E-4</v>
       </c>
-      <c r="W18" s="29">
-        <f t="shared" si="4"/>
+      <c r="W18" s="26">
+        <f t="shared" si="8"/>
         <v>8.7204879152444816E-3</v>
       </c>
     </row>
@@ -2840,45 +4165,45 @@
       <c r="K19" s="2"/>
       <c r="L19" s="17"/>
       <c r="M19" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.51246249999999938</v>
       </c>
       <c r="N19" s="16">
         <v>8</v>
       </c>
       <c r="O19" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.47845833333333254</v>
       </c>
-      <c r="P19" s="29">
-        <f>O19+_pasos</f>
+      <c r="P19" s="26">
+        <f t="shared" si="1"/>
         <v>0.5464666666666661</v>
       </c>
-      <c r="Q19" s="35">
+      <c r="Q19" s="32">
         <v>4</v>
       </c>
-      <c r="R19" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R19" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S19" s="19">
-        <f>(_xlfn.EXPON.DIST(P19,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O19,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>3.1987627526858242</v>
       </c>
-      <c r="T19" s="29">
-        <f>(_xlfn.NORM.DIST(P19,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O19,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T19" s="26">
+        <f t="shared" si="4"/>
         <v>1.8692861164967489</v>
       </c>
-      <c r="U19" s="40">
-        <f t="shared" si="2"/>
+      <c r="U19" s="37">
+        <f t="shared" si="6"/>
         <v>9.6266666666666687</v>
       </c>
       <c r="V19" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.20069669935494955</v>
       </c>
-      <c r="W19" s="29">
-        <f t="shared" si="4"/>
+      <c r="W19" s="26">
+        <f t="shared" si="8"/>
         <v>2.4287034570512214</v>
       </c>
     </row>
@@ -2906,45 +4231,45 @@
       <c r="K20" s="2"/>
       <c r="L20" s="17"/>
       <c r="M20" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.58047083333333283</v>
       </c>
       <c r="N20" s="16">
         <v>9</v>
       </c>
       <c r="O20" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.5464666666666661</v>
       </c>
-      <c r="P20" s="29">
-        <f>O20+_pasos</f>
+      <c r="P20" s="26">
+        <f t="shared" si="1"/>
         <v>0.61447499999999966</v>
       </c>
-      <c r="Q20" s="35">
+      <c r="Q20" s="32">
         <v>3</v>
       </c>
-      <c r="R20" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R20" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S20" s="19">
-        <f>(_xlfn.EXPON.DIST(P20,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O20,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>2.0573250331300752</v>
       </c>
-      <c r="T20" s="29">
-        <f>(_xlfn.NORM.DIST(P20,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O20,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T20" s="26">
+        <f t="shared" si="4"/>
         <v>0.54047782294854851</v>
       </c>
-      <c r="U20" s="40">
-        <f t="shared" si="2"/>
+      <c r="U20" s="37">
+        <f t="shared" si="6"/>
         <v>11.206666666666667</v>
       </c>
       <c r="V20" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43193762718728823</v>
       </c>
-      <c r="W20" s="29">
-        <f t="shared" si="4"/>
+      <c r="W20" s="26">
+        <f t="shared" si="8"/>
         <v>11.192409905750708</v>
       </c>
       <c r="Y20" s="8" t="s">
@@ -2975,45 +4300,45 @@
       <c r="K21" s="2"/>
       <c r="L21" s="17"/>
       <c r="M21" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.6484791666666665</v>
       </c>
       <c r="N21" s="16">
         <v>10</v>
       </c>
       <c r="O21" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.61447499999999966</v>
       </c>
-      <c r="P21" s="29">
-        <f>O21+_pasos</f>
+      <c r="P21" s="26">
+        <f t="shared" si="1"/>
         <v>0.68248333333333322</v>
       </c>
-      <c r="Q21" s="35">
+      <c r="Q21" s="32">
         <v>1</v>
       </c>
-      <c r="R21" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R21" s="37">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
       <c r="S21" s="19">
-        <f>(_xlfn.EXPON.DIST(P21,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O21,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <f t="shared" si="3"/>
         <v>1.3231948159924789</v>
       </c>
-      <c r="T21" s="29">
-        <f>(_xlfn.NORM.DIST(P21,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O21,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T21" s="26">
+        <f t="shared" si="4"/>
         <v>0.12600004497127504</v>
       </c>
-      <c r="U21" s="40">
-        <f t="shared" si="2"/>
+      <c r="U21" s="37">
+        <f t="shared" si="6"/>
         <v>14.726666666666668</v>
       </c>
       <c r="V21" s="19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.894142859535358E-2</v>
       </c>
-      <c r="W21" s="29">
-        <f t="shared" si="4"/>
+      <c r="W21" s="26">
+        <f t="shared" si="8"/>
         <v>6.0625051488224342</v>
       </c>
       <c r="Y21" s="10" t="s">
@@ -3041,45 +4366,45 @@
       <c r="K22" s="2"/>
       <c r="L22" s="17"/>
       <c r="M22" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.71648749999999994</v>
       </c>
       <c r="N22" s="16">
         <v>11</v>
       </c>
       <c r="O22" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.68248333333333322</v>
       </c>
-      <c r="P22" s="29">
-        <f>O22+_pasos</f>
+      <c r="P22" s="26">
+        <f t="shared" si="1"/>
         <v>0.75049166666666678</v>
       </c>
-      <c r="Q22" s="35">
+      <c r="Q22" s="32">
         <v>0</v>
       </c>
-      <c r="R22" s="40">
-        <f>_tamañoMuestra/_intervalos</f>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="S22" s="19">
-        <f>(_xlfn.EXPON.DIST(P22,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O22,_DistrExpLambda,1))*_tamañoMuestra</f>
-        <v>0.85102961023399981</v>
-      </c>
-      <c r="T22" s="29">
-        <f>(_xlfn.NORM.DIST(P22,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O22,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
-        <v>2.3681419625742883E-2</v>
-      </c>
-      <c r="U22" s="40">
+      <c r="R22" s="37">
         <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="V22" s="19">
+      <c r="S22" s="19">
         <f t="shared" si="3"/>
         <v>0.85102961023399981</v>
       </c>
-      <c r="W22" s="29">
+      <c r="T22" s="26">
         <f t="shared" si="4"/>
+        <v>2.3681419625742883E-2</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="6"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="7"/>
+        <v>0.85102961023399981</v>
+      </c>
+      <c r="W22" s="26">
+        <f t="shared" si="8"/>
         <v>2.3681419625742883E-2</v>
       </c>
       <c r="Y22" s="10" t="s">
@@ -3110,45 +4435,45 @@
       <c r="K23" s="2"/>
       <c r="L23" s="17"/>
       <c r="M23" s="12">
+        <f t="shared" si="5"/>
+        <v>0.78449583333333361</v>
+      </c>
+      <c r="N23" s="27">
+        <v>12</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="9"/>
+        <v>0.75049166666666678</v>
+      </c>
+      <c r="P23" s="29">
         <f t="shared" si="1"/>
-        <v>0.78449583333333361</v>
-      </c>
-      <c r="N23" s="30">
-        <v>12</v>
-      </c>
-      <c r="O23" s="31">
-        <f t="shared" si="5"/>
-        <v>0.75049166666666678</v>
-      </c>
-      <c r="P23" s="32">
-        <f>O23+_pasos</f>
         <v>0.81850000000000034</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="33">
         <v>2</v>
       </c>
-      <c r="R23" s="41">
-        <f>_tamañoMuestra/_intervalos</f>
+      <c r="R23" s="38">
+        <f t="shared" si="2"/>
         <v>16.666666666666668</v>
       </c>
-      <c r="S23" s="31">
-        <f>(_xlfn.EXPON.DIST(P23,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O23,_DistrExpLambda,1))*_tamañoMuestra</f>
+      <c r="S23" s="28">
+        <f t="shared" si="3"/>
         <v>0.54735054032977182</v>
       </c>
-      <c r="T23" s="32">
-        <f>(_xlfn.NORM.DIST(P23,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O23,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+      <c r="T23" s="29">
+        <f t="shared" si="4"/>
         <v>3.5878828876123592E-3</v>
       </c>
-      <c r="U23" s="41">
-        <f t="shared" si="2"/>
+      <c r="U23" s="38">
+        <f t="shared" si="6"/>
         <v>12.906666666666668</v>
       </c>
-      <c r="V23" s="31">
-        <f t="shared" si="3"/>
+      <c r="V23" s="28">
+        <f t="shared" si="7"/>
         <v>3.8552815740509598</v>
       </c>
-      <c r="W23" s="32">
-        <f t="shared" si="4"/>
+      <c r="W23" s="29">
+        <f t="shared" si="8"/>
         <v>1110.8671788352372</v>
       </c>
       <c r="Y23" s="8"/>
@@ -3177,31 +4502,31 @@
       <c r="K24" s="2"/>
       <c r="L24" s="17"/>
       <c r="Q24" s="1">
-        <f>SUM(Q12:Q23)</f>
+        <f t="shared" ref="Q24:W24" si="10">SUM(Q12:Q23)</f>
         <v>200</v>
       </c>
       <c r="R24" s="12">
-        <f>SUM(R12:R23)</f>
+        <f t="shared" si="10"/>
         <v>199.99999999999997</v>
       </c>
       <c r="S24" s="12">
-        <f>SUM(S12:S23)</f>
+        <f t="shared" si="10"/>
         <v>195.92250754519227</v>
       </c>
       <c r="T24" s="12">
-        <f>SUM(T12:T23)</f>
+        <f t="shared" si="10"/>
         <v>170.33412427974932</v>
       </c>
       <c r="U24" s="12">
-        <f>SUM(U12:U23)</f>
+        <f t="shared" si="10"/>
         <v>324.64</v>
       </c>
-      <c r="V24" s="43">
-        <f>SUM(V12:V23)</f>
+      <c r="V24" s="40">
+        <f t="shared" si="10"/>
         <v>10.838540298116882</v>
       </c>
       <c r="W24" s="12">
-        <f>SUM(W12:W23)</f>
+        <f t="shared" si="10"/>
         <v>1218.4664123390994</v>
       </c>
       <c r="Y24" s="10" t="s">
@@ -3839,7 +5164,7 @@
         <v>12.8712</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" ref="C73:C136" si="6">B73-B72</f>
+        <f t="shared" ref="C73:C136" si="11">B73-B72</f>
         <v>0.5237999999999996</v>
       </c>
     </row>
@@ -3851,7 +5176,7 @@
         <v>13.0892</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.21799999999999997</v>
       </c>
     </row>
@@ -3863,7 +5188,7 @@
         <v>13.3156</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.22639999999999993</v>
       </c>
     </row>
@@ -3875,7 +5200,7 @@
         <v>13.3592</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.3599999999999639E-2</v>
       </c>
     </row>
@@ -3887,7 +5212,7 @@
         <v>13.3995</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.0300000000000225E-2</v>
       </c>
     </row>
@@ -3899,7 +5224,7 @@
         <v>13.5243</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.12480000000000047</v>
       </c>
     </row>
@@ -3911,7 +5236,7 @@
         <v>13.6431</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.11880000000000024</v>
       </c>
     </row>
@@ -3923,7 +5248,7 @@
         <v>13.7277</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.4600000000000009E-2</v>
       </c>
     </row>
@@ -3935,7 +5260,7 @@
         <v>13.7567</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8999999999999915E-2</v>
       </c>
     </row>
@@ -3947,7 +5272,7 @@
         <v>13.8344</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.7700000000000102E-2</v>
       </c>
     </row>
@@ -3959,7 +5284,7 @@
         <v>14.1579</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.32349999999999923</v>
       </c>
     </row>
@@ -3971,7 +5296,7 @@
         <v>14.2773</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.11940000000000062</v>
       </c>
     </row>
@@ -3983,7 +5308,7 @@
         <v>14.4572</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.17989999999999995</v>
       </c>
     </row>
@@ -3995,7 +5320,7 @@
         <v>14.7019</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.24469999999999992</v>
       </c>
     </row>
@@ -4007,7 +5332,7 @@
         <v>14.8863</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18440000000000012</v>
       </c>
     </row>
@@ -4019,7 +5344,7 @@
         <v>14.895099999999999</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.7999999999990308E-3</v>
       </c>
     </row>
@@ -4031,7 +5356,7 @@
         <v>14.9346</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.9500000000000313E-2</v>
       </c>
     </row>
@@ -4043,7 +5368,7 @@
         <v>14.976800000000001</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.2200000000001125E-2</v>
       </c>
     </row>
@@ -4055,7 +5380,7 @@
         <v>15.200900000000001</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.22409999999999997</v>
       </c>
     </row>
@@ -4067,7 +5392,7 @@
         <v>15.3408</v>
       </c>
       <c r="C92" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.13989999999999903</v>
       </c>
     </row>
@@ -4079,7 +5404,7 @@
         <v>15.3446</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.8000000000000256E-3</v>
       </c>
     </row>
@@ -4091,7 +5416,7 @@
         <v>15.4138</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.9200000000000372E-2</v>
       </c>
     </row>
@@ -4103,7 +5428,7 @@
         <v>15.9086</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.49479999999999968</v>
       </c>
     </row>
@@ -4115,7 +5440,7 @@
         <v>15.911799999999999</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>3.1999999999996476E-3</v>
       </c>
     </row>
@@ -4127,7 +5452,7 @@
         <v>15.932600000000001</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.0800000000001262E-2</v>
       </c>
     </row>
@@ -4139,7 +5464,7 @@
         <v>15.95</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.7399999999998528E-2</v>
       </c>
     </row>
@@ -4151,7 +5476,7 @@
         <v>16.0871</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.13710000000000022</v>
       </c>
     </row>
@@ -4163,7 +5488,7 @@
         <v>16.1433</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.6200000000000472E-2</v>
       </c>
     </row>
@@ -4175,7 +5500,7 @@
         <v>16.351099999999999</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.20779999999999887</v>
       </c>
     </row>
@@ -4187,7 +5512,7 @@
         <v>16.3612</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.010000000000133E-2</v>
       </c>
     </row>
@@ -4199,7 +5524,7 @@
         <v>16.541399999999999</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18019999999999925</v>
       </c>
     </row>
@@ -4211,7 +5536,7 @@
         <v>16.730499999999999</v>
       </c>
       <c r="C104" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.18909999999999982</v>
       </c>
     </row>
@@ -4223,7 +5548,7 @@
         <v>16.869199999999999</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.13870000000000005</v>
       </c>
     </row>
@@ -4235,7 +5560,7 @@
         <v>16.9467</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.7500000000000568E-2</v>
       </c>
     </row>
@@ -4247,7 +5572,7 @@
         <v>17.0535</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.10679999999999978</v>
       </c>
     </row>
@@ -4259,7 +5584,7 @@
         <v>17.109300000000001</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.5800000000001404E-2</v>
       </c>
     </row>
@@ -4271,7 +5596,7 @@
         <v>17.1557</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.6399999999998442E-2</v>
       </c>
     </row>
@@ -4283,7 +5608,7 @@
         <v>17.2776</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.12190000000000012</v>
       </c>
     </row>
@@ -4295,7 +5620,7 @@
         <v>18.0961</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.81850000000000023</v>
       </c>
     </row>
@@ -4307,7 +5632,7 @@
         <v>18.297599999999999</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.20149999999999935</v>
       </c>
     </row>
@@ -4319,7 +5644,7 @@
         <v>18.343499999999999</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.5899999999999608E-2</v>
       </c>
     </row>
@@ -4331,7 +5656,7 @@
         <v>18.386199999999999</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>4.269999999999996E-2</v>
       </c>
     </row>
@@ -4343,7 +5668,7 @@
         <v>18.5581</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.17190000000000083</v>
       </c>
     </row>
@@ -4355,7 +5680,7 @@
         <v>18.767600000000002</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.20950000000000202</v>
       </c>
     </row>
@@ -4367,7 +5692,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.13239999999999696</v>
       </c>
     </row>
@@ -4379,7 +5704,7 @@
         <v>18.987100000000002</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>8.7100000000003064E-2</v>
       </c>
     </row>
@@ -4391,7 +5716,7 @@
         <v>19.084199999999999</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.7099999999997522E-2</v>
       </c>
     </row>
@@ -4403,7 +5728,7 @@
         <v>19.112300000000001</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.8100000000002012E-2</v>
       </c>
     </row>
@@ -4415,7 +5740,7 @@
         <v>19.239000000000001</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.12669999999999959</v>
       </c>
     </row>
@@ -4427,7 +5752,7 @@
         <v>19.301600000000001</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.2599999999999767E-2</v>
       </c>
     </row>
@@ -4439,7 +5764,7 @@
         <v>19.458200000000001</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.15660000000000096</v>
       </c>
     </row>
@@ -4451,7 +5776,7 @@
         <v>19.519500000000001</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.1299999999999244E-2</v>
       </c>
     </row>
@@ -4463,7 +5788,7 @@
         <v>19.908300000000001</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.38879999999999981</v>
       </c>
     </row>
@@ -4475,7 +5800,7 @@
         <v>19.910699999999999</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.3999999999979593E-3</v>
       </c>
     </row>
@@ -4487,7 +5812,7 @@
         <v>20.010400000000001</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.970000000000212E-2</v>
       </c>
     </row>
@@ -4499,7 +5824,7 @@
         <v>20.0732</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>6.2799999999999301E-2</v>
       </c>
     </row>
@@ -4511,7 +5836,7 @@
         <v>20.164100000000001</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>9.0900000000001313E-2</v>
       </c>
     </row>
@@ -4523,7 +5848,7 @@
         <v>20.3354</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.17129999999999868</v>
       </c>
     </row>
@@ -4535,7 +5860,7 @@
         <v>20.449300000000001</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.113900000000001</v>
       </c>
     </row>
@@ -4547,7 +5872,7 @@
         <v>20.5015</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>5.2199999999999136E-2</v>
       </c>
     </row>
@@ -4559,7 +5884,7 @@
         <v>20.524799999999999</v>
       </c>
       <c r="C133" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>2.3299999999998988E-2</v>
       </c>
     </row>
@@ -4571,7 +5896,7 @@
         <v>20.543900000000001</v>
       </c>
       <c r="C134" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1.9100000000001671E-2</v>
       </c>
     </row>
@@ -4583,7 +5908,7 @@
         <v>20.616599999999998</v>
       </c>
       <c r="C135" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>7.2699999999997544E-2</v>
       </c>
     </row>
@@ -4595,7 +5920,7 @@
         <v>20.718900000000001</v>
       </c>
       <c r="C136" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.10230000000000317</v>
       </c>
     </row>
@@ -4607,7 +5932,7 @@
         <v>20.7697</v>
       </c>
       <c r="C137" s="7">
-        <f t="shared" ref="C137:C200" si="7">B137-B136</f>
+        <f t="shared" ref="C137:C200" si="12">B137-B136</f>
         <v>5.0799999999998846E-2</v>
       </c>
     </row>
@@ -4619,7 +5944,7 @@
         <v>20.921399999999998</v>
       </c>
       <c r="C138" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.15169999999999817</v>
       </c>
     </row>
@@ -4631,7 +5956,7 @@
         <v>20.960999999999999</v>
       </c>
       <c r="C139" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.960000000000008E-2</v>
       </c>
     </row>
@@ -4643,7 +5968,7 @@
         <v>21.066099999999999</v>
       </c>
       <c r="C140" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.10510000000000019</v>
       </c>
     </row>
@@ -4655,7 +5980,7 @@
         <v>21.320499999999999</v>
       </c>
       <c r="C141" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.2544000000000004</v>
       </c>
     </row>
@@ -4667,7 +5992,7 @@
         <v>21.3521</v>
       </c>
       <c r="C142" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.1600000000000961E-2</v>
       </c>
     </row>
@@ -4679,7 +6004,7 @@
         <v>21.520399999999999</v>
       </c>
       <c r="C143" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.16829999999999856</v>
       </c>
     </row>
@@ -4691,7 +6016,7 @@
         <v>21.572399999999998</v>
       </c>
       <c r="C144" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.1999999999999602E-2</v>
       </c>
     </row>
@@ -4703,7 +6028,7 @@
         <v>21.700199999999999</v>
       </c>
       <c r="C145" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12780000000000058</v>
       </c>
     </row>
@@ -4715,7 +6040,7 @@
         <v>22.133600000000001</v>
       </c>
       <c r="C146" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.43340000000000245</v>
       </c>
     </row>
@@ -4727,7 +6052,7 @@
         <v>22.188600000000001</v>
       </c>
       <c r="C147" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.4999999999999716E-2</v>
       </c>
     </row>
@@ -4739,7 +6064,7 @@
         <v>22.324000000000002</v>
       </c>
       <c r="C148" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.13540000000000063</v>
       </c>
     </row>
@@ -4751,7 +6076,7 @@
         <v>22.4361</v>
       </c>
       <c r="C149" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.11209999999999809</v>
       </c>
     </row>
@@ -4763,7 +6088,7 @@
         <v>22.618300000000001</v>
       </c>
       <c r="C150" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.18220000000000169</v>
       </c>
     </row>
@@ -4775,7 +6100,7 @@
         <v>22.743500000000001</v>
       </c>
       <c r="C151" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.12519999999999953</v>
       </c>
     </row>
@@ -4787,7 +6112,7 @@
         <v>23.077999999999999</v>
       </c>
       <c r="C152" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.33449999999999847</v>
       </c>
     </row>
@@ -4799,7 +6124,7 @@
         <v>23.161999999999999</v>
       </c>
       <c r="C153" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.3999999999999631E-2</v>
       </c>
     </row>
@@ -4811,7 +6136,7 @@
         <v>23.349699999999999</v>
       </c>
       <c r="C154" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.18769999999999953</v>
       </c>
     </row>
@@ -4823,7 +6148,7 @@
         <v>23.564</v>
       </c>
       <c r="C155" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.21430000000000149</v>
       </c>
     </row>
@@ -4835,7 +6160,7 @@
         <v>23.596299999999999</v>
       </c>
       <c r="C156" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.2299999999999329E-2</v>
       </c>
     </row>
@@ -4847,7 +6172,7 @@
         <v>24.088699999999999</v>
       </c>
       <c r="C157" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.49239999999999995</v>
       </c>
     </row>
@@ -4859,7 +6184,7 @@
         <v>24.5139</v>
       </c>
       <c r="C158" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.42520000000000024</v>
       </c>
     </row>
@@ -4871,7 +6196,7 @@
         <v>24.665900000000001</v>
       </c>
       <c r="C159" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.15200000000000102</v>
       </c>
     </row>
@@ -4883,7 +6208,7 @@
         <v>24.733699999999999</v>
       </c>
       <c r="C160" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.7799999999998306E-2</v>
       </c>
     </row>
@@ -4895,7 +6220,7 @@
         <v>24.773</v>
       </c>
       <c r="C161" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.9300000000000779E-2</v>
       </c>
     </row>
@@ -4907,7 +6232,7 @@
         <v>24.937799999999999</v>
       </c>
       <c r="C162" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.16479999999999961</v>
       </c>
     </row>
@@ -4919,7 +6244,7 @@
         <v>25.150200000000002</v>
       </c>
       <c r="C163" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.21240000000000236</v>
       </c>
     </row>
@@ -4931,7 +6256,7 @@
         <v>25.299399999999999</v>
       </c>
       <c r="C164" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.14919999999999689</v>
       </c>
     </row>
@@ -4943,7 +6268,7 @@
         <v>25.482800000000001</v>
       </c>
       <c r="C165" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.18340000000000245</v>
       </c>
     </row>
@@ -4955,7 +6280,7 @@
         <v>25.523499999999999</v>
       </c>
       <c r="C166" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0699999999997516E-2</v>
       </c>
     </row>
@@ -4967,7 +6292,7 @@
         <v>25.545300000000001</v>
       </c>
       <c r="C167" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.1800000000002484E-2</v>
       </c>
     </row>
@@ -4979,7 +6304,7 @@
         <v>25.599399999999999</v>
       </c>
       <c r="C168" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.4099999999998261E-2</v>
       </c>
     </row>
@@ -4991,7 +6316,7 @@
         <v>25.652100000000001</v>
       </c>
       <c r="C169" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>5.2700000000001523E-2</v>
       </c>
     </row>
@@ -5003,7 +6328,7 @@
         <v>25.723400000000002</v>
       </c>
       <c r="C170" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>7.1300000000000807E-2</v>
       </c>
     </row>
@@ -5015,7 +6340,7 @@
         <v>25.805399999999999</v>
       </c>
       <c r="C171" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.1999999999997186E-2</v>
       </c>
     </row>
@@ -5027,7 +6352,7 @@
         <v>25.9407</v>
       </c>
       <c r="C172" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.13530000000000086</v>
       </c>
     </row>
@@ -5039,7 +6364,7 @@
         <v>26.118500000000001</v>
       </c>
       <c r="C173" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.17780000000000129</v>
       </c>
     </row>
@@ -5051,7 +6376,7 @@
         <v>26.155899999999999</v>
       </c>
       <c r="C174" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>3.7399999999998101E-2</v>
       </c>
     </row>
@@ -5063,7 +6388,7 @@
         <v>26.2241</v>
       </c>
       <c r="C175" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.8200000000000927E-2</v>
       </c>
     </row>
@@ -5075,7 +6400,7 @@
         <v>26.4391</v>
       </c>
       <c r="C176" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.21499999999999986</v>
       </c>
     </row>
@@ -5087,7 +6412,7 @@
         <v>26.482800000000001</v>
       </c>
       <c r="C177" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.3700000000001182E-2</v>
       </c>
     </row>
@@ -5099,7 +6424,7 @@
         <v>26.628699999999998</v>
       </c>
       <c r="C178" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.14589999999999748</v>
       </c>
     </row>
@@ -5111,7 +6436,7 @@
         <v>26.910599999999999</v>
       </c>
       <c r="C179" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.28190000000000026</v>
       </c>
     </row>
@@ -5123,7 +6448,7 @@
         <v>27.364999999999998</v>
       </c>
       <c r="C180" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.45439999999999969</v>
       </c>
     </row>
@@ -5135,7 +6460,7 @@
         <v>27.625800000000002</v>
       </c>
       <c r="C181" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.26080000000000325</v>
       </c>
     </row>
@@ -5147,7 +6472,7 @@
         <v>27.8855</v>
       </c>
       <c r="C182" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.25969999999999871</v>
       </c>
     </row>
@@ -5159,7 +6484,7 @@
         <v>28.521799999999999</v>
       </c>
       <c r="C183" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.63629999999999853</v>
       </c>
     </row>
@@ -5171,7 +6496,7 @@
         <v>28.7502</v>
       </c>
       <c r="C184" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.2284000000000006</v>
       </c>
     </row>
@@ -5183,7 +6508,7 @@
         <v>28.768699999999999</v>
       </c>
       <c r="C185" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.8499999999999517E-2</v>
       </c>
     </row>
@@ -5195,7 +6520,7 @@
         <v>29.1052</v>
       </c>
       <c r="C186" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.33650000000000091</v>
       </c>
     </row>
@@ -5207,7 +6532,7 @@
         <v>29.107700000000001</v>
       </c>
       <c r="C187" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.500000000001279E-3</v>
       </c>
     </row>
@@ -5219,7 +6544,7 @@
         <v>29.281400000000001</v>
       </c>
       <c r="C188" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.17370000000000019</v>
       </c>
     </row>
@@ -5231,7 +6556,7 @@
         <v>29.480499999999999</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.19909999999999783</v>
       </c>
     </row>
@@ -5243,7 +6568,7 @@
         <v>29.633900000000001</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.15340000000000131</v>
       </c>
     </row>
@@ -5255,7 +6580,7 @@
         <v>29.698799999999999</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.4899999999997959E-2</v>
       </c>
     </row>
@@ -5267,7 +6592,7 @@
         <v>29.766999999999999</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>6.8200000000000927E-2</v>
       </c>
     </row>
@@ -5279,7 +6604,7 @@
         <v>29.779599999999999</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.2599999999999056E-2</v>
       </c>
     </row>
@@ -5291,7 +6616,7 @@
         <v>29.939699999999998</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.16009999999999991</v>
       </c>
     </row>
@@ -5303,7 +6628,7 @@
         <v>30.195499999999999</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.25580000000000069</v>
       </c>
     </row>
@@ -5315,7 +6640,7 @@
         <v>30.216000000000001</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>2.0500000000001961E-2</v>
       </c>
     </row>
@@ -5327,7 +6652,7 @@
         <v>30.23</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1.3999999999999346E-2</v>
       </c>
     </row>
@@ -5339,7 +6664,7 @@
         <v>31.0274</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>0.79739999999999966</v>
       </c>
     </row>
@@ -5351,7 +6676,7 @@
         <v>31.067499999999999</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>4.0099999999998914E-2</v>
       </c>
     </row>
@@ -5363,7 +6688,7 @@
         <v>31.148599999999998</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>8.1099999999999284E-2</v>
       </c>
     </row>
@@ -5375,7 +6700,7 @@
         <v>31.4559</v>
       </c>
       <c r="C201" s="7">
-        <f t="shared" ref="C201:C207" si="8">B201-B200</f>
+        <f t="shared" ref="C201:C207" si="13">B201-B200</f>
         <v>0.30730000000000146</v>
       </c>
     </row>
@@ -5387,7 +6712,7 @@
         <v>31.644500000000001</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.18860000000000099</v>
       </c>
     </row>
@@ -5399,7 +6724,7 @@
         <v>31.726900000000001</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>8.2399999999999807E-2</v>
       </c>
       <c r="F203" s="1">
@@ -5415,7 +6740,7 @@
         <v>31.801100000000002</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>7.4200000000001154E-2</v>
       </c>
     </row>
@@ -5427,7 +6752,7 @@
         <v>31.9529</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.15179999999999794</v>
       </c>
     </row>
@@ -5439,7 +6764,7 @@
         <v>31.967199999999998</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1.4299999999998647E-2</v>
       </c>
     </row>
@@ -5451,7 +6776,7 @@
         <v>32.095700000000001</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>0.1285000000000025</v>
       </c>
     </row>
@@ -5475,4 +6800,4330 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A227D-8E82-40F0-97F9-ED96EBB6D8C4}">
+  <dimension ref="A2:AB399"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="11.42578125" style="1"/>
+    <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="12.7109375" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F2" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="F3" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="F6" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" s="3">
+        <f>COUNT(C8:C207)</f>
+        <v>200</v>
+      </c>
+      <c r="N6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="41">
+        <v>32.524900000000002</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="F7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="7">
+        <f>MAX(C8:C207)</f>
+        <v>0.76570000000000249</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="1">
+        <v>12</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="Z7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="AB7" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="41">
+        <v>32.807299999999998</v>
+      </c>
+      <c r="C8" s="7">
+        <f>B8-B7</f>
+        <v>0.28239999999999554</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="7">
+        <f>MIN(C8:C207)</f>
+        <v>9.9999999999766942E-4</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="11">
+        <f>(_Valor_Max-_Valor_Min)/_intervalos</f>
+        <v>6.3725000000000406E-2</v>
+      </c>
+      <c r="W8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y8" s="1">
+        <f>_intervalos-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>3</v>
+      </c>
+      <c r="B9" s="41">
+        <v>32.9221</v>
+      </c>
+      <c r="C9" s="7">
+        <f t="shared" ref="C9:C72" si="0">B9-B8</f>
+        <v>0.11480000000000246</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="7">
+        <f>AVERAGE(_muestra)</f>
+        <v>0.133937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="41">
+        <v>32.989800000000002</v>
+      </c>
+      <c r="C10" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7700000000002092E-2</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="7">
+        <f>_xlfn.VAR.S(C8:C207)</f>
+        <v>1.8776674403015198E-2</v>
+      </c>
+      <c r="N10" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="O10" s="44"/>
+      <c r="P10" s="45"/>
+      <c r="Q10" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="R10" s="34"/>
+      <c r="S10" s="35" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="36"/>
+      <c r="U10" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="V10" s="44"/>
+      <c r="W10" s="45"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="41">
+        <v>33</v>
+      </c>
+      <c r="C11" s="7">
+        <f t="shared" si="0"/>
+        <v>1.0199999999997544E-2</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="S11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="T11" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="V11" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>6</v>
+      </c>
+      <c r="B12" s="41">
+        <v>33.110399999999998</v>
+      </c>
+      <c r="C12" s="7">
+        <f t="shared" si="0"/>
+        <v>0.1103999999999985</v>
+      </c>
+      <c r="M12" s="12">
+        <f>(P12+O12)/2</f>
+        <v>3.2862499999997873E-2</v>
+      </c>
+      <c r="N12" s="16">
+        <v>1</v>
+      </c>
+      <c r="O12" s="19">
+        <f>_Valor_Min</f>
+        <v>9.9999999999766942E-4</v>
+      </c>
+      <c r="P12" s="26">
+        <f t="shared" ref="P12" si="1">O12+_pasos</f>
+        <v>6.4724999999998076E-2</v>
+      </c>
+      <c r="Q12" s="32">
+        <f t="array" ref="Q12:Q23">FREQUENCY(_muestra,_limSup)</f>
+        <v>79</v>
+      </c>
+      <c r="R12" s="37">
+        <f t="shared" ref="R12:R23" si="2">_tamañoMuestra/_intervalos</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S12" s="19">
+        <f t="shared" ref="S12:S23" si="3">(_xlfn.EXPON.DIST(P12,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O12,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <v>75.157148279360371</v>
+      </c>
+      <c r="T12" s="26">
+        <f t="shared" ref="T12:T23" si="4">(_xlfn.NORM.DIST(P12,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O12,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+        <v>28.151858866480651</v>
+      </c>
+      <c r="U12" s="37">
+        <f>(R12-Q12)^2/R12</f>
+        <v>233.12666666666661</v>
+      </c>
+      <c r="V12" s="19">
+        <f>(S12-Q12)^2/S12</f>
+        <v>0.19648842039524814</v>
+      </c>
+      <c r="W12" s="26">
+        <f>(T12-Q12)^2/T12</f>
+        <v>91.842370658258702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>7</v>
+      </c>
+      <c r="B13" s="41">
+        <v>33.240400000000001</v>
+      </c>
+      <c r="C13" s="7">
+        <f t="shared" si="0"/>
+        <v>0.13000000000000256</v>
+      </c>
+      <c r="M13" s="12">
+        <f t="shared" ref="M13:M23" si="5">(P13+O13)/2</f>
+        <v>9.6587499999998272E-2</v>
+      </c>
+      <c r="N13" s="16">
+        <v>2</v>
+      </c>
+      <c r="O13" s="19">
+        <f>P12</f>
+        <v>6.4724999999998076E-2</v>
+      </c>
+      <c r="P13" s="26">
+        <f t="shared" ref="P13:P23" si="6">O13+_pasos</f>
+        <v>0.12844999999999848</v>
+      </c>
+      <c r="Q13" s="32">
+        <v>49</v>
+      </c>
+      <c r="R13" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S13" s="19">
+        <f t="shared" si="3"/>
+        <v>46.70250675763382</v>
+      </c>
+      <c r="T13" s="26">
+        <f t="shared" si="4"/>
+        <v>35.456598070975687</v>
+      </c>
+      <c r="U13" s="37">
+        <f t="shared" ref="U13:U23" si="7">(R13-Q13)^2/R13</f>
+        <v>62.726666666666645</v>
+      </c>
+      <c r="V13" s="19">
+        <f t="shared" ref="V13:V23" si="8">(S13-Q13)^2/S13</f>
+        <v>0.11302338065301948</v>
+      </c>
+      <c r="W13" s="26">
+        <f t="shared" ref="W13:W23" si="9">(T13-Q13)^2/T13</f>
+        <v>5.1731904861241542</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>8</v>
+      </c>
+      <c r="B14" s="41">
+        <v>33.326000000000001</v>
+      </c>
+      <c r="C14" s="7">
+        <f t="shared" si="0"/>
+        <v>8.5599999999999454E-2</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="12">
+        <f t="shared" si="5"/>
+        <v>0.16031249999999869</v>
+      </c>
+      <c r="N14" s="16">
+        <v>3</v>
+      </c>
+      <c r="O14" s="19">
+        <f t="shared" ref="O14:O23" si="10">P13</f>
+        <v>0.12844999999999848</v>
+      </c>
+      <c r="P14" s="26">
+        <f t="shared" si="6"/>
+        <v>0.19217499999999887</v>
+      </c>
+      <c r="Q14" s="32">
+        <v>28</v>
+      </c>
+      <c r="R14" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S14" s="19">
+        <f t="shared" si="3"/>
+        <v>29.020847482658052</v>
+      </c>
+      <c r="T14" s="26">
+        <f t="shared" si="4"/>
+        <v>36.111024674595335</v>
+      </c>
+      <c r="U14" s="37">
+        <f t="shared" si="7"/>
+        <v>7.7066666666666652</v>
+      </c>
+      <c r="V14" s="19">
+        <f t="shared" si="8"/>
+        <v>3.5909688146496262E-2</v>
+      </c>
+      <c r="W14" s="26">
+        <f t="shared" si="9"/>
+        <v>1.8218458729634925</v>
+      </c>
+      <c r="Y14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z14" s="46">
+        <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
+        <v>19.675137572682498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9</v>
+      </c>
+      <c r="B15" s="41">
+        <v>33.511699999999998</v>
+      </c>
+      <c r="C15" s="7">
+        <f t="shared" si="0"/>
+        <v>0.18569999999999709</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="12">
+        <f t="shared" si="5"/>
+        <v>0.22403749999999908</v>
+      </c>
+      <c r="N15" s="16">
+        <v>4</v>
+      </c>
+      <c r="O15" s="19">
+        <f t="shared" si="10"/>
+        <v>0.19217499999999887</v>
+      </c>
+      <c r="P15" s="26">
+        <f t="shared" si="6"/>
+        <v>0.25589999999999929</v>
+      </c>
+      <c r="Q15" s="32">
+        <v>9</v>
+      </c>
+      <c r="R15" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S15" s="19">
+        <f t="shared" si="3"/>
+        <v>18.033498565342754</v>
+      </c>
+      <c r="T15" s="26">
+        <f t="shared" si="4"/>
+        <v>29.73965907452132</v>
+      </c>
+      <c r="U15" s="37">
+        <f t="shared" si="7"/>
+        <v>3.5266666666666673</v>
+      </c>
+      <c r="V15" s="19">
+        <f t="shared" si="8"/>
+        <v>4.52513948052645</v>
+      </c>
+      <c r="W15" s="26">
+        <f t="shared" si="9"/>
+        <v>14.46329486997651</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>10</v>
+      </c>
+      <c r="B16" s="41">
+        <v>33.987400000000001</v>
+      </c>
+      <c r="C16" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47570000000000334</v>
+      </c>
+      <c r="F16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="12">
+        <f t="shared" si="5"/>
+        <v>0.28776249999999948</v>
+      </c>
+      <c r="N16" s="16">
+        <v>5</v>
+      </c>
+      <c r="O16" s="19">
+        <f t="shared" si="10"/>
+        <v>0.25589999999999929</v>
+      </c>
+      <c r="P16" s="26">
+        <f t="shared" si="6"/>
+        <v>0.31962499999999971</v>
+      </c>
+      <c r="Q16" s="32">
+        <v>15</v>
+      </c>
+      <c r="R16" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S16" s="19">
+        <f t="shared" si="3"/>
+        <v>11.205981172691581</v>
+      </c>
+      <c r="T16" s="26">
+        <f t="shared" si="4"/>
+        <v>19.805168327153822</v>
+      </c>
+      <c r="U16" s="37">
+        <f t="shared" si="7"/>
+        <v>0.16666666666666688</v>
+      </c>
+      <c r="V16" s="19">
+        <f t="shared" si="8"/>
+        <v>1.2845442661504394</v>
+      </c>
+      <c r="W16" s="26">
+        <f t="shared" si="9"/>
+        <v>1.1658392532127724</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>11</v>
+      </c>
+      <c r="B17" s="41">
+        <v>34.004399999999997</v>
+      </c>
+      <c r="C17" s="7">
+        <f t="shared" si="0"/>
+        <v>1.6999999999995907E-2</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="19">
+        <f>_media-((12*_varianza)^0.5)/2</f>
+        <v>-0.1034024682918237</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="12">
+        <f t="shared" si="5"/>
+        <v>0.35148749999999995</v>
+      </c>
+      <c r="N17" s="16">
+        <v>6</v>
+      </c>
+      <c r="O17" s="19">
+        <f t="shared" si="10"/>
+        <v>0.31962499999999971</v>
+      </c>
+      <c r="P17" s="26">
+        <f t="shared" si="6"/>
+        <v>0.38335000000000014</v>
+      </c>
+      <c r="Q17" s="32">
+        <v>8</v>
+      </c>
+      <c r="R17" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S17" s="19">
+        <f t="shared" si="3"/>
+        <v>6.9633750538039774</v>
+      </c>
+      <c r="T17" s="26">
+        <f t="shared" si="4"/>
+        <v>10.664803594048866</v>
+      </c>
+      <c r="U17" s="37">
+        <f t="shared" si="7"/>
+        <v>4.5066666666666677</v>
+      </c>
+      <c r="V17" s="19">
+        <f t="shared" si="8"/>
+        <v>0.15432046540260319</v>
+      </c>
+      <c r="W17" s="26">
+        <f t="shared" si="9"/>
+        <v>0.66585175547145814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>12</v>
+      </c>
+      <c r="B18" s="41">
+        <v>34.005899999999997</v>
+      </c>
+      <c r="C18" s="7">
+        <f t="shared" si="0"/>
+        <v>1.5000000000000568E-3</v>
+      </c>
+      <c r="F18" s="16"/>
+      <c r="G18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="19">
+        <f>2*_media - _DistrUnifA</f>
+        <v>0.3712764682918237</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="12">
+        <f t="shared" si="5"/>
+        <v>0.41521250000000032</v>
+      </c>
+      <c r="N18" s="16">
+        <v>7</v>
+      </c>
+      <c r="O18" s="19">
+        <f t="shared" si="10"/>
+        <v>0.38335000000000014</v>
+      </c>
+      <c r="P18" s="26">
+        <f t="shared" si="6"/>
+        <v>0.44707500000000056</v>
+      </c>
+      <c r="Q18" s="32">
+        <v>4</v>
+      </c>
+      <c r="R18" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S18" s="19">
+        <f t="shared" si="3"/>
+        <v>4.3270278070878909</v>
+      </c>
+      <c r="T18" s="26">
+        <f t="shared" si="4"/>
+        <v>4.6434107707785444</v>
+      </c>
+      <c r="U18" s="37">
+        <f t="shared" si="7"/>
+        <v>9.6266666666666687</v>
+      </c>
+      <c r="V18" s="19">
+        <f t="shared" si="8"/>
+        <v>2.4716084891696303E-2</v>
+      </c>
+      <c r="W18" s="26">
+        <f t="shared" si="9"/>
+        <v>8.9153736421305335E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>13</v>
+      </c>
+      <c r="B19" s="41">
+        <v>34.118099999999998</v>
+      </c>
+      <c r="C19" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11220000000000141</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="12">
+        <f t="shared" si="5"/>
+        <v>0.47893750000000074</v>
+      </c>
+      <c r="N19" s="16">
+        <v>8</v>
+      </c>
+      <c r="O19" s="19">
+        <f t="shared" si="10"/>
+        <v>0.44707500000000056</v>
+      </c>
+      <c r="P19" s="26">
+        <f t="shared" si="6"/>
+        <v>0.51080000000000092</v>
+      </c>
+      <c r="Q19" s="32">
+        <v>4</v>
+      </c>
+      <c r="R19" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S19" s="19">
+        <f t="shared" si="3"/>
+        <v>2.6888067206840338</v>
+      </c>
+      <c r="T19" s="26">
+        <f t="shared" si="4"/>
+        <v>1.6345666255716207</v>
+      </c>
+      <c r="U19" s="37">
+        <f t="shared" si="7"/>
+        <v>9.6266666666666687</v>
+      </c>
+      <c r="V19" s="19">
+        <f t="shared" si="8"/>
+        <v>0.63940178462734021</v>
+      </c>
+      <c r="W19" s="26">
+        <f t="shared" si="9"/>
+        <v>3.4230939022769524</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>14</v>
+      </c>
+      <c r="B20" s="41">
+        <v>34.162599999999998</v>
+      </c>
+      <c r="C20" s="7">
+        <f t="shared" si="0"/>
+        <v>4.4499999999999318E-2</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H20" s="19">
+        <f>1/_media</f>
+        <v>7.4661967940150964</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="12">
+        <f t="shared" si="5"/>
+        <v>0.54266250000000116</v>
+      </c>
+      <c r="N20" s="16">
+        <v>9</v>
+      </c>
+      <c r="O20" s="19">
+        <f t="shared" si="10"/>
+        <v>0.51080000000000092</v>
+      </c>
+      <c r="P20" s="26">
+        <f t="shared" si="6"/>
+        <v>0.57452500000000128</v>
+      </c>
+      <c r="Q20" s="32">
+        <v>1</v>
+      </c>
+      <c r="R20" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S20" s="19">
+        <f t="shared" si="3"/>
+        <v>1.6708193021900852</v>
+      </c>
+      <c r="T20" s="26">
+        <f t="shared" si="4"/>
+        <v>0.46517309853379984</v>
+      </c>
+      <c r="U20" s="37">
+        <f t="shared" si="7"/>
+        <v>14.726666666666668</v>
+      </c>
+      <c r="V20" s="19">
+        <f t="shared" si="8"/>
+        <v>0.26932806893057881</v>
+      </c>
+      <c r="W20" s="26">
+        <f t="shared" si="9"/>
+        <v>0.61491048264295245</v>
+      </c>
+      <c r="Y20" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>15</v>
+      </c>
+      <c r="B21" s="41">
+        <v>34.266800000000003</v>
+      </c>
+      <c r="C21" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10420000000000584</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="19">
+        <f>1/_varianza^0.5</f>
+        <v>7.2977782415826953</v>
+      </c>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="12">
+        <f t="shared" si="5"/>
+        <v>0.60638750000000141</v>
+      </c>
+      <c r="N21" s="16">
+        <v>10</v>
+      </c>
+      <c r="O21" s="19">
+        <f t="shared" si="10"/>
+        <v>0.57452500000000128</v>
+      </c>
+      <c r="P21" s="26">
+        <f t="shared" si="6"/>
+        <v>0.63825000000000165</v>
+      </c>
+      <c r="Q21" s="32">
+        <v>1</v>
+      </c>
+      <c r="R21" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S21" s="19">
+        <f t="shared" si="3"/>
+        <v>1.0382438868126398</v>
+      </c>
+      <c r="T21" s="26">
+        <f t="shared" si="4"/>
+        <v>0.1070120392421714</v>
+      </c>
+      <c r="U21" s="37">
+        <f t="shared" si="7"/>
+        <v>14.726666666666668</v>
+      </c>
+      <c r="V21" s="19">
+        <f t="shared" si="8"/>
+        <v>1.4087199521377407E-3</v>
+      </c>
+      <c r="W21" s="26">
+        <f t="shared" si="9"/>
+        <v>7.4517549960320197</v>
+      </c>
+      <c r="Y21" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>16</v>
+      </c>
+      <c r="B22" s="41">
+        <v>34.349499999999999</v>
+      </c>
+      <c r="C22" s="7">
+        <f t="shared" si="0"/>
+        <v>8.2699999999995555E-2</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="12">
+        <f t="shared" si="5"/>
+        <v>0.67011250000000189</v>
+      </c>
+      <c r="N22" s="16">
+        <v>11</v>
+      </c>
+      <c r="O22" s="19">
+        <f t="shared" si="10"/>
+        <v>0.63825000000000165</v>
+      </c>
+      <c r="P22" s="26">
+        <f t="shared" si="6"/>
+        <v>0.70197500000000201</v>
+      </c>
+      <c r="Q22" s="32">
+        <v>0</v>
+      </c>
+      <c r="R22" s="37">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S22" s="19">
+        <f t="shared" si="3"/>
+        <v>0.64516274566068788</v>
+      </c>
+      <c r="T22" s="26">
+        <f t="shared" si="4"/>
+        <v>1.9898102246473925E-2</v>
+      </c>
+      <c r="U22" s="37">
+        <f t="shared" si="7"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="V22" s="19">
+        <f t="shared" si="8"/>
+        <v>0.64516274566068788</v>
+      </c>
+      <c r="W22" s="26">
+        <f t="shared" si="9"/>
+        <v>1.9898102246473925E-2</v>
+      </c>
+      <c r="Y22" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>17</v>
+      </c>
+      <c r="B23" s="41">
+        <v>34.420499999999997</v>
+      </c>
+      <c r="C23" s="7">
+        <f t="shared" si="0"/>
+        <v>7.0999999999997954E-2</v>
+      </c>
+      <c r="F23" s="16"/>
+      <c r="G23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="19">
+        <f>_media</f>
+        <v>0.133937</v>
+      </c>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="12">
+        <f t="shared" si="5"/>
+        <v>0.73383750000000214</v>
+      </c>
+      <c r="N23" s="27">
+        <v>12</v>
+      </c>
+      <c r="O23" s="28">
+        <f t="shared" si="10"/>
+        <v>0.70197500000000201</v>
+      </c>
+      <c r="P23" s="29">
+        <f t="shared" si="6"/>
+        <v>0.76570000000000238</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>1</v>
+      </c>
+      <c r="R23" s="38">
+        <f t="shared" si="2"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="S23" s="28">
+        <f t="shared" si="3"/>
+        <v>0.40090288387466533</v>
+      </c>
+      <c r="T23" s="29">
+        <f t="shared" si="4"/>
+        <v>2.990216031428794E-3</v>
+      </c>
+      <c r="U23" s="38">
+        <f t="shared" si="7"/>
+        <v>14.726666666666668</v>
+      </c>
+      <c r="V23" s="28">
+        <f t="shared" si="8"/>
+        <v>0.89527256846049885</v>
+      </c>
+      <c r="W23" s="29">
+        <f t="shared" si="9"/>
+        <v>332.42698817786999</v>
+      </c>
+      <c r="Y23" s="8"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>18</v>
+      </c>
+      <c r="B24" s="41">
+        <v>34.627499999999998</v>
+      </c>
+      <c r="C24" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20700000000000074</v>
+      </c>
+      <c r="F24" s="16"/>
+      <c r="G24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="19">
+        <f>_varianza^0.5</f>
+        <v>0.13702800590760708</v>
+      </c>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="17"/>
+      <c r="Q24" s="1">
+        <f t="shared" ref="Q24:W24" si="11">SUM(Q12:Q23)</f>
+        <v>199</v>
+      </c>
+      <c r="R24" s="12">
+        <f t="shared" si="11"/>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="S24" s="12">
+        <f t="shared" si="11"/>
+        <v>197.85432065780057</v>
+      </c>
+      <c r="T24" s="12">
+        <f t="shared" si="11"/>
+        <v>166.80216346017968</v>
+      </c>
+      <c r="U24" s="12">
+        <f t="shared" si="11"/>
+        <v>391.85999999999996</v>
+      </c>
+      <c r="V24" s="40">
+        <f t="shared" si="11"/>
+        <v>8.7847156737971961</v>
+      </c>
+      <c r="W24" s="12">
+        <f t="shared" si="11"/>
+        <v>459.15819229349677</v>
+      </c>
+      <c r="Y24" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>19</v>
+      </c>
+      <c r="B25" s="41">
+        <v>34.963200000000001</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33570000000000277</v>
+      </c>
+      <c r="F25" s="16"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="17"/>
+      <c r="Y25" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>20</v>
+      </c>
+      <c r="B26" s="41">
+        <v>35.237900000000003</v>
+      </c>
+      <c r="C26" s="7">
+        <f t="shared" si="0"/>
+        <v>0.27470000000000283</v>
+      </c>
+      <c r="F26" s="16"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="17"/>
+      <c r="N26" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y26" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>21</v>
+      </c>
+      <c r="B27" s="41">
+        <v>35.4345</v>
+      </c>
+      <c r="C27" s="7">
+        <f t="shared" si="0"/>
+        <v>0.19659999999999656</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="17"/>
+    </row>
+    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>22</v>
+      </c>
+      <c r="B28" s="41">
+        <v>35.4861</v>
+      </c>
+      <c r="C28" s="7">
+        <f t="shared" si="0"/>
+        <v>5.1600000000000534E-2</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>23</v>
+      </c>
+      <c r="B29" s="41">
+        <v>35.494399999999999</v>
+      </c>
+      <c r="C29" s="7">
+        <f t="shared" si="0"/>
+        <v>8.2999999999984198E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>24</v>
+      </c>
+      <c r="B30" s="41">
+        <v>35.521700000000003</v>
+      </c>
+      <c r="C30" s="7">
+        <f t="shared" si="0"/>
+        <v>2.7300000000003877E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>25</v>
+      </c>
+      <c r="B31" s="41">
+        <v>35.691299999999998</v>
+      </c>
+      <c r="C31" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16959999999999553</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>26</v>
+      </c>
+      <c r="B32" s="41">
+        <v>35.714300000000001</v>
+      </c>
+      <c r="C32" s="7">
+        <f t="shared" si="0"/>
+        <v>2.300000000000324E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>27</v>
+      </c>
+      <c r="B33" s="41">
+        <v>35.830199999999998</v>
+      </c>
+      <c r="C33" s="7">
+        <f t="shared" si="0"/>
+        <v>0.11589999999999634</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>28</v>
+      </c>
+      <c r="B34" s="41">
+        <v>36.038699999999999</v>
+      </c>
+      <c r="C34" s="7">
+        <f t="shared" si="0"/>
+        <v>0.2085000000000008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>29</v>
+      </c>
+      <c r="B35" s="41">
+        <v>36.378700000000002</v>
+      </c>
+      <c r="C35" s="7">
+        <f t="shared" si="0"/>
+        <v>0.34000000000000341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>30</v>
+      </c>
+      <c r="B36" s="41">
+        <v>36.849899999999998</v>
+      </c>
+      <c r="C36" s="7">
+        <f t="shared" si="0"/>
+        <v>0.47119999999999607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>31</v>
+      </c>
+      <c r="B37" s="41">
+        <v>37.209499999999998</v>
+      </c>
+      <c r="C37" s="7">
+        <f t="shared" si="0"/>
+        <v>0.35960000000000036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>32</v>
+      </c>
+      <c r="B38" s="41">
+        <v>37.236400000000003</v>
+      </c>
+      <c r="C38" s="7">
+        <f t="shared" si="0"/>
+        <v>2.6900000000004809E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>33</v>
+      </c>
+      <c r="B39" s="41">
+        <v>37.3583</v>
+      </c>
+      <c r="C39" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12189999999999657</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>34</v>
+      </c>
+      <c r="B40" s="41">
+        <v>37.740499999999997</v>
+      </c>
+      <c r="C40" s="7">
+        <f t="shared" si="0"/>
+        <v>0.38219999999999743</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <v>35</v>
+      </c>
+      <c r="B41" s="41">
+        <v>37.797199999999997</v>
+      </c>
+      <c r="C41" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6699999999999307E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>36</v>
+      </c>
+      <c r="B42" s="41">
+        <v>38.533299999999997</v>
+      </c>
+      <c r="C42" s="7">
+        <f t="shared" si="0"/>
+        <v>0.73610000000000042</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <v>37</v>
+      </c>
+      <c r="B43" s="41">
+        <v>38.547899999999998</v>
+      </c>
+      <c r="C43" s="7">
+        <f t="shared" si="0"/>
+        <v>1.4600000000001501E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>38</v>
+      </c>
+      <c r="B44" s="41">
+        <v>38.604599999999998</v>
+      </c>
+      <c r="C44" s="7">
+        <f t="shared" si="0"/>
+        <v>5.6699999999999307E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>39</v>
+      </c>
+      <c r="B45" s="41">
+        <v>38.646099999999997</v>
+      </c>
+      <c r="C45" s="7">
+        <f t="shared" si="0"/>
+        <v>4.1499999999999204E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>40</v>
+      </c>
+      <c r="B46" s="41">
+        <v>38.677999999999997</v>
+      </c>
+      <c r="C46" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1900000000000261E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>41</v>
+      </c>
+      <c r="B47" s="41">
+        <v>38.784500000000001</v>
+      </c>
+      <c r="C47" s="7">
+        <f t="shared" si="0"/>
+        <v>0.10650000000000404</v>
+      </c>
+      <c r="N47" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>42</v>
+      </c>
+      <c r="B48" s="41">
+        <v>38.831000000000003</v>
+      </c>
+      <c r="C48" s="7">
+        <f t="shared" si="0"/>
+        <v>4.6500000000001762E-2</v>
+      </c>
+      <c r="N48" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>43</v>
+      </c>
+      <c r="B49" s="41">
+        <v>38.841999999999999</v>
+      </c>
+      <c r="C49" s="7">
+        <f t="shared" si="0"/>
+        <v>1.099999999999568E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>44</v>
+      </c>
+      <c r="B50" s="41">
+        <v>39.160400000000003</v>
+      </c>
+      <c r="C50" s="7">
+        <f t="shared" si="0"/>
+        <v>0.31840000000000401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>45</v>
+      </c>
+      <c r="B51" s="41">
+        <v>39.383800000000001</v>
+      </c>
+      <c r="C51" s="7">
+        <f t="shared" si="0"/>
+        <v>0.22339999999999804</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>46</v>
+      </c>
+      <c r="B52" s="41">
+        <v>39.7515</v>
+      </c>
+      <c r="C52" s="7">
+        <f t="shared" si="0"/>
+        <v>0.36769999999999925</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>47</v>
+      </c>
+      <c r="B53" s="41">
+        <v>39.831099999999999</v>
+      </c>
+      <c r="C53" s="7">
+        <f t="shared" si="0"/>
+        <v>7.9599999999999227E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>48</v>
+      </c>
+      <c r="B54" s="41">
+        <v>39.859200000000001</v>
+      </c>
+      <c r="C54" s="7">
+        <f t="shared" si="0"/>
+        <v>2.8100000000002012E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>49</v>
+      </c>
+      <c r="B55" s="41">
+        <v>39.912100000000002</v>
+      </c>
+      <c r="C55" s="7">
+        <f t="shared" si="0"/>
+        <v>5.2900000000001057E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>50</v>
+      </c>
+      <c r="B56" s="41">
+        <v>40.073</v>
+      </c>
+      <c r="C56" s="7">
+        <f t="shared" si="0"/>
+        <v>0.16089999999999804</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>51</v>
+      </c>
+      <c r="B57" s="41">
+        <v>40.147199999999998</v>
+      </c>
+      <c r="C57" s="7">
+        <f t="shared" si="0"/>
+        <v>7.4199999999997601E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>52</v>
+      </c>
+      <c r="B58" s="41">
+        <v>40.406399999999998</v>
+      </c>
+      <c r="C58" s="7">
+        <f t="shared" si="0"/>
+        <v>0.25919999999999987</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>53</v>
+      </c>
+      <c r="B59" s="41">
+        <v>40.42</v>
+      </c>
+      <c r="C59" s="7">
+        <f t="shared" si="0"/>
+        <v>1.3600000000003831E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>54</v>
+      </c>
+      <c r="B60" s="41">
+        <v>40.451999999999998</v>
+      </c>
+      <c r="C60" s="7">
+        <f t="shared" si="0"/>
+        <v>3.1999999999996476E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>55</v>
+      </c>
+      <c r="B61" s="41">
+        <v>40.519799999999996</v>
+      </c>
+      <c r="C61" s="7">
+        <f t="shared" si="0"/>
+        <v>6.7799999999998306E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>56</v>
+      </c>
+      <c r="B62" s="41">
+        <v>40.645899999999997</v>
+      </c>
+      <c r="C62" s="7">
+        <f t="shared" si="0"/>
+        <v>0.12610000000000099</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>57</v>
+      </c>
+      <c r="B63" s="41">
+        <v>40.649799999999999</v>
+      </c>
+      <c r="C63" s="7">
+        <f t="shared" si="0"/>
+        <v>3.9000000000015689E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <v>58</v>
+      </c>
+      <c r="B64" s="41">
+        <v>40.697800000000001</v>
+      </c>
+      <c r="C64" s="7">
+        <f t="shared" si="0"/>
+        <v>4.8000000000001819E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <v>59</v>
+      </c>
+      <c r="B65" s="41">
+        <v>41.005899999999997</v>
+      </c>
+      <c r="C65" s="7">
+        <f t="shared" si="0"/>
+        <v>0.30809999999999604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <v>60</v>
+      </c>
+      <c r="B66" s="41">
+        <v>41.095399999999998</v>
+      </c>
+      <c r="C66" s="7">
+        <f t="shared" si="0"/>
+        <v>8.9500000000001023E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <v>61</v>
+      </c>
+      <c r="B67" s="41">
+        <v>41.433500000000002</v>
+      </c>
+      <c r="C67" s="7">
+        <f t="shared" si="0"/>
+        <v>0.33810000000000429</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>62</v>
+      </c>
+      <c r="B68" s="41">
+        <v>41.608899999999998</v>
+      </c>
+      <c r="C68" s="7">
+        <f t="shared" si="0"/>
+        <v>0.17539999999999623</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>63</v>
+      </c>
+      <c r="B69" s="41">
+        <v>41.684899999999999</v>
+      </c>
+      <c r="C69" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6000000000000512E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>64</v>
+      </c>
+      <c r="B70" s="41">
+        <v>41.951999999999998</v>
+      </c>
+      <c r="C70" s="7">
+        <f t="shared" si="0"/>
+        <v>0.26709999999999923</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>65</v>
+      </c>
+      <c r="B71" s="41">
+        <v>42.1584</v>
+      </c>
+      <c r="C71" s="7">
+        <f t="shared" si="0"/>
+        <v>0.20640000000000214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>66</v>
+      </c>
+      <c r="B72" s="41">
+        <v>42.241300000000003</v>
+      </c>
+      <c r="C72" s="7">
+        <f t="shared" si="0"/>
+        <v>8.2900000000002194E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>67</v>
+      </c>
+      <c r="B73" s="41">
+        <v>42.292999999999999</v>
+      </c>
+      <c r="C73" s="7">
+        <f t="shared" ref="C73:C136" si="12">B73-B72</f>
+        <v>5.1699999999996749E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>68</v>
+      </c>
+      <c r="B74" s="41">
+        <v>42.335099999999997</v>
+      </c>
+      <c r="C74" s="7">
+        <f t="shared" si="12"/>
+        <v>4.2099999999997806E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>69</v>
+      </c>
+      <c r="B75" s="41">
+        <v>42.418900000000001</v>
+      </c>
+      <c r="C75" s="7">
+        <f t="shared" si="12"/>
+        <v>8.3800000000003649E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>70</v>
+      </c>
+      <c r="B76" s="41">
+        <v>42.430500000000002</v>
+      </c>
+      <c r="C76" s="7">
+        <f t="shared" si="12"/>
+        <v>1.1600000000001387E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>71</v>
+      </c>
+      <c r="B77" s="41">
+        <v>42.576700000000002</v>
+      </c>
+      <c r="C77" s="7">
+        <f t="shared" si="12"/>
+        <v>0.14620000000000033</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>72</v>
+      </c>
+      <c r="B78" s="41">
+        <v>42.685699999999997</v>
+      </c>
+      <c r="C78" s="7">
+        <f t="shared" si="12"/>
+        <v>0.10899999999999466</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>73</v>
+      </c>
+      <c r="B79" s="41">
+        <v>42.738599999999998</v>
+      </c>
+      <c r="C79" s="7">
+        <f t="shared" si="12"/>
+        <v>5.2900000000001057E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>74</v>
+      </c>
+      <c r="B80" s="41">
+        <v>42.86</v>
+      </c>
+      <c r="C80" s="7">
+        <f t="shared" si="12"/>
+        <v>0.12140000000000128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>75</v>
+      </c>
+      <c r="B81" s="41">
+        <v>42.874299999999998</v>
+      </c>
+      <c r="C81" s="7">
+        <f t="shared" si="12"/>
+        <v>1.4299999999998647E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>76</v>
+      </c>
+      <c r="B82" s="41">
+        <v>43.005600000000001</v>
+      </c>
+      <c r="C82" s="7">
+        <f t="shared" si="12"/>
+        <v>0.13130000000000308</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <v>77</v>
+      </c>
+      <c r="B83" s="41">
+        <v>43.042000000000002</v>
+      </c>
+      <c r="C83" s="7">
+        <f t="shared" si="12"/>
+        <v>3.6400000000000432E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <v>78</v>
+      </c>
+      <c r="B84" s="41">
+        <v>43.069000000000003</v>
+      </c>
+      <c r="C84" s="7">
+        <f t="shared" si="12"/>
+        <v>2.7000000000001023E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <v>79</v>
+      </c>
+      <c r="B85" s="41">
+        <v>43.198799999999999</v>
+      </c>
+      <c r="C85" s="7">
+        <f t="shared" si="12"/>
+        <v>0.12979999999999592</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>80</v>
+      </c>
+      <c r="B86" s="41">
+        <v>43.273499999999999</v>
+      </c>
+      <c r="C86" s="7">
+        <f t="shared" si="12"/>
+        <v>7.4699999999999989E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>81</v>
+      </c>
+      <c r="B87" s="41">
+        <v>43.463999999999999</v>
+      </c>
+      <c r="C87" s="7">
+        <f t="shared" si="12"/>
+        <v>0.19050000000000011</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>82</v>
+      </c>
+      <c r="B88" s="41">
+        <v>43.5276</v>
+      </c>
+      <c r="C88" s="7">
+        <f t="shared" si="12"/>
+        <v>6.3600000000000989E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>83</v>
+      </c>
+      <c r="B89" s="41">
+        <v>43.550199999999997</v>
+      </c>
+      <c r="C89" s="7">
+        <f t="shared" si="12"/>
+        <v>2.2599999999997067E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>84</v>
+      </c>
+      <c r="B90" s="41">
+        <v>43.639800000000001</v>
+      </c>
+      <c r="C90" s="7">
+        <f t="shared" si="12"/>
+        <v>8.9600000000004343E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <v>85</v>
+      </c>
+      <c r="B91" s="41">
+        <v>43.690399999999997</v>
+      </c>
+      <c r="C91" s="7">
+        <f t="shared" si="12"/>
+        <v>5.0599999999995759E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <v>86</v>
+      </c>
+      <c r="B92" s="41">
+        <v>43.845399999999998</v>
+      </c>
+      <c r="C92" s="7">
+        <f t="shared" si="12"/>
+        <v>0.15500000000000114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <v>87</v>
+      </c>
+      <c r="B93" s="41">
+        <v>43.860399999999998</v>
+      </c>
+      <c r="C93" s="7">
+        <f t="shared" si="12"/>
+        <v>1.5000000000000568E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <v>88</v>
+      </c>
+      <c r="B94" s="41">
+        <v>43.861600000000003</v>
+      </c>
+      <c r="C94" s="7">
+        <f t="shared" si="12"/>
+        <v>1.2000000000043087E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <v>89</v>
+      </c>
+      <c r="B95" s="41">
+        <v>44.180599999999998</v>
+      </c>
+      <c r="C95" s="7">
+        <f t="shared" si="12"/>
+        <v>0.31899999999999551</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <v>90</v>
+      </c>
+      <c r="B96" s="41">
+        <v>44.551699999999997</v>
+      </c>
+      <c r="C96" s="7">
+        <f t="shared" si="12"/>
+        <v>0.37109999999999843</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <v>91</v>
+      </c>
+      <c r="B97" s="41">
+        <v>44.630899999999997</v>
+      </c>
+      <c r="C97" s="7">
+        <f t="shared" si="12"/>
+        <v>7.9200000000000159E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <v>92</v>
+      </c>
+      <c r="B98" s="41">
+        <v>45.0961</v>
+      </c>
+      <c r="C98" s="7">
+        <f t="shared" si="12"/>
+        <v>0.46520000000000294</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <v>93</v>
+      </c>
+      <c r="B99" s="41">
+        <v>45.1419</v>
+      </c>
+      <c r="C99" s="7">
+        <f t="shared" si="12"/>
+        <v>4.5799999999999841E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <v>94</v>
+      </c>
+      <c r="B100" s="41">
+        <v>45.238900000000001</v>
+      </c>
+      <c r="C100" s="7">
+        <f t="shared" si="12"/>
+        <v>9.7000000000001307E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <v>95</v>
+      </c>
+      <c r="B101" s="41">
+        <v>45.267499999999998</v>
+      </c>
+      <c r="C101" s="7">
+        <f t="shared" si="12"/>
+        <v>2.8599999999997294E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <v>96</v>
+      </c>
+      <c r="B102" s="41">
+        <v>45.268799999999999</v>
+      </c>
+      <c r="C102" s="7">
+        <f t="shared" si="12"/>
+        <v>1.300000000000523E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <v>97</v>
+      </c>
+      <c r="B103" s="41">
+        <v>45.705100000000002</v>
+      </c>
+      <c r="C103" s="7">
+        <f t="shared" si="12"/>
+        <v>0.4363000000000028</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <v>98</v>
+      </c>
+      <c r="B104" s="41">
+        <v>45.724499999999999</v>
+      </c>
+      <c r="C104" s="7">
+        <f t="shared" si="12"/>
+        <v>1.9399999999997419E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <v>99</v>
+      </c>
+      <c r="B105" s="41">
+        <v>45.781500000000001</v>
+      </c>
+      <c r="C105" s="7">
+        <f t="shared" si="12"/>
+        <v>5.700000000000216E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <v>100</v>
+      </c>
+      <c r="B106" s="41">
+        <v>45.8262</v>
+      </c>
+      <c r="C106" s="7">
+        <f t="shared" si="12"/>
+        <v>4.4699999999998852E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <v>101</v>
+      </c>
+      <c r="B107" s="41">
+        <v>45.932000000000002</v>
+      </c>
+      <c r="C107" s="7">
+        <f t="shared" si="12"/>
+        <v>0.10580000000000211</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <v>102</v>
+      </c>
+      <c r="B108" s="41">
+        <v>46.049700000000001</v>
+      </c>
+      <c r="C108" s="7">
+        <f t="shared" si="12"/>
+        <v>0.11769999999999925</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <v>103</v>
+      </c>
+      <c r="B109" s="41">
+        <v>46.089399999999998</v>
+      </c>
+      <c r="C109" s="7">
+        <f t="shared" si="12"/>
+        <v>3.9699999999996294E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <v>104</v>
+      </c>
+      <c r="B110" s="41">
+        <v>46.117400000000004</v>
+      </c>
+      <c r="C110" s="7">
+        <f t="shared" si="12"/>
+        <v>2.8000000000005798E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <v>105</v>
+      </c>
+      <c r="B111" s="41">
+        <v>46.243299999999998</v>
+      </c>
+      <c r="C111" s="7">
+        <f t="shared" si="12"/>
+        <v>0.12589999999999435</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <v>106</v>
+      </c>
+      <c r="B112" s="41">
+        <v>46.3</v>
+      </c>
+      <c r="C112" s="7">
+        <f t="shared" si="12"/>
+        <v>5.6699999999999307E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <v>107</v>
+      </c>
+      <c r="B113" s="41">
+        <v>46.761200000000002</v>
+      </c>
+      <c r="C113" s="7">
+        <f t="shared" si="12"/>
+        <v>0.46120000000000516</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <v>108</v>
+      </c>
+      <c r="B114" s="41">
+        <v>46.920299999999997</v>
+      </c>
+      <c r="C114" s="7">
+        <f t="shared" si="12"/>
+        <v>0.15909999999999513</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <v>109</v>
+      </c>
+      <c r="B115" s="41">
+        <v>47.090899999999998</v>
+      </c>
+      <c r="C115" s="7">
+        <f t="shared" si="12"/>
+        <v>0.17060000000000031</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <v>110</v>
+      </c>
+      <c r="B116" s="41">
+        <v>47.375599999999999</v>
+      </c>
+      <c r="C116" s="7">
+        <f t="shared" si="12"/>
+        <v>0.28470000000000084</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <v>111</v>
+      </c>
+      <c r="B117" s="41">
+        <v>47.442100000000003</v>
+      </c>
+      <c r="C117" s="7">
+        <f t="shared" si="12"/>
+        <v>6.6500000000004889E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <v>112</v>
+      </c>
+      <c r="B118" s="41">
+        <v>47.4452</v>
+      </c>
+      <c r="C118" s="7">
+        <f t="shared" si="12"/>
+        <v>3.0999999999963279E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <v>113</v>
+      </c>
+      <c r="B119" s="41">
+        <v>47.471699999999998</v>
+      </c>
+      <c r="C119" s="7">
+        <f t="shared" si="12"/>
+        <v>2.6499999999998636E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <v>114</v>
+      </c>
+      <c r="B120" s="41">
+        <v>47.6633</v>
+      </c>
+      <c r="C120" s="7">
+        <f t="shared" si="12"/>
+        <v>0.1916000000000011</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <v>115</v>
+      </c>
+      <c r="B121" s="41">
+        <v>47.920699999999997</v>
+      </c>
+      <c r="C121" s="7">
+        <f t="shared" si="12"/>
+        <v>0.25739999999999696</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <v>116</v>
+      </c>
+      <c r="B122" s="41">
+        <v>48.107999999999997</v>
+      </c>
+      <c r="C122" s="7">
+        <f t="shared" si="12"/>
+        <v>0.18730000000000047</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="3">
+        <v>117</v>
+      </c>
+      <c r="B123" s="41">
+        <v>48.133899999999997</v>
+      </c>
+      <c r="C123" s="7">
+        <f t="shared" si="12"/>
+        <v>2.5900000000000034E-2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="3">
+        <v>118</v>
+      </c>
+      <c r="B124" s="41">
+        <v>48.261800000000001</v>
+      </c>
+      <c r="C124" s="7">
+        <f t="shared" si="12"/>
+        <v>0.1279000000000039</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="3">
+        <v>119</v>
+      </c>
+      <c r="B125" s="41">
+        <v>48.264699999999998</v>
+      </c>
+      <c r="C125" s="7">
+        <f t="shared" si="12"/>
+        <v>2.899999999996794E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <v>120</v>
+      </c>
+      <c r="B126" s="41">
+        <v>48.427900000000001</v>
+      </c>
+      <c r="C126" s="7">
+        <f t="shared" si="12"/>
+        <v>0.16320000000000334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="3">
+        <v>121</v>
+      </c>
+      <c r="B127" s="41">
+        <v>48.7453</v>
+      </c>
+      <c r="C127" s="7">
+        <f t="shared" si="12"/>
+        <v>0.31739999999999924</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="3">
+        <v>122</v>
+      </c>
+      <c r="B128" s="41">
+        <v>48.904899999999998</v>
+      </c>
+      <c r="C128" s="7">
+        <f t="shared" si="12"/>
+        <v>0.15959999999999752</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>123</v>
+      </c>
+      <c r="B129" s="41">
+        <v>49.208100000000002</v>
+      </c>
+      <c r="C129" s="7">
+        <f t="shared" si="12"/>
+        <v>0.30320000000000391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="3">
+        <v>124</v>
+      </c>
+      <c r="B130" s="41">
+        <v>49.421300000000002</v>
+      </c>
+      <c r="C130" s="7">
+        <f t="shared" si="12"/>
+        <v>0.2132000000000005</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="3">
+        <v>125</v>
+      </c>
+      <c r="B131" s="41">
+        <v>49.451599999999999</v>
+      </c>
+      <c r="C131" s="7">
+        <f t="shared" si="12"/>
+        <v>3.0299999999996885E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="3">
+        <v>126</v>
+      </c>
+      <c r="B132" s="41">
+        <v>49.472099999999998</v>
+      </c>
+      <c r="C132" s="7">
+        <f t="shared" si="12"/>
+        <v>2.0499999999998408E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>127</v>
+      </c>
+      <c r="B133" s="41">
+        <v>49.884599999999999</v>
+      </c>
+      <c r="C133" s="7">
+        <f t="shared" si="12"/>
+        <v>0.41250000000000142</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="3">
+        <v>128</v>
+      </c>
+      <c r="B134" s="41">
+        <v>49.934699999999999</v>
+      </c>
+      <c r="C134" s="7">
+        <f t="shared" si="12"/>
+        <v>5.0100000000000477E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="3">
+        <v>129</v>
+      </c>
+      <c r="B135" s="41">
+        <v>50.108699999999999</v>
+      </c>
+      <c r="C135" s="7">
+        <f t="shared" si="12"/>
+        <v>0.17399999999999949</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="3">
+        <v>130</v>
+      </c>
+      <c r="B136" s="41">
+        <v>50.137900000000002</v>
+      </c>
+      <c r="C136" s="7">
+        <f t="shared" si="12"/>
+        <v>2.9200000000003001E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="3">
+        <v>131</v>
+      </c>
+      <c r="B137" s="41">
+        <v>50.2348</v>
+      </c>
+      <c r="C137" s="7">
+        <f t="shared" ref="C137:C200" si="13">B137-B136</f>
+        <v>9.6899999999997988E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="3">
+        <v>132</v>
+      </c>
+      <c r="B138" s="41">
+        <v>50.267400000000002</v>
+      </c>
+      <c r="C138" s="7">
+        <f t="shared" si="13"/>
+        <v>3.2600000000002183E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <v>133</v>
+      </c>
+      <c r="B139" s="41">
+        <v>50.349499999999999</v>
+      </c>
+      <c r="C139" s="7">
+        <f t="shared" si="13"/>
+        <v>8.2099999999996953E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>134</v>
+      </c>
+      <c r="B140" s="41">
+        <v>50.560200000000002</v>
+      </c>
+      <c r="C140" s="7">
+        <f t="shared" si="13"/>
+        <v>0.21070000000000277</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="3">
+        <v>135</v>
+      </c>
+      <c r="B141" s="41">
+        <v>50.610999999999997</v>
+      </c>
+      <c r="C141" s="7">
+        <f t="shared" si="13"/>
+        <v>5.0799999999995293E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="3">
+        <v>136</v>
+      </c>
+      <c r="B142" s="41">
+        <v>50.625599999999999</v>
+      </c>
+      <c r="C142" s="7">
+        <f t="shared" si="13"/>
+        <v>1.4600000000001501E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <v>137</v>
+      </c>
+      <c r="B143" s="41">
+        <v>50.715600000000002</v>
+      </c>
+      <c r="C143" s="7">
+        <f t="shared" si="13"/>
+        <v>9.0000000000003411E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="3">
+        <v>138</v>
+      </c>
+      <c r="B144" s="41">
+        <v>50.982599999999998</v>
+      </c>
+      <c r="C144" s="7">
+        <f t="shared" si="13"/>
+        <v>0.26699999999999591</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="3">
+        <v>139</v>
+      </c>
+      <c r="B145" s="41">
+        <v>51.112200000000001</v>
+      </c>
+      <c r="C145" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12960000000000349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="3">
+        <v>140</v>
+      </c>
+      <c r="B146" s="41">
+        <v>51.202500000000001</v>
+      </c>
+      <c r="C146" s="7">
+        <f t="shared" si="13"/>
+        <v>9.0299999999999159E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="3">
+        <v>141</v>
+      </c>
+      <c r="B147" s="41">
+        <v>51.307499999999997</v>
+      </c>
+      <c r="C147" s="7">
+        <f t="shared" si="13"/>
+        <v>0.10499999999999687</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="3">
+        <v>142</v>
+      </c>
+      <c r="B148" s="41">
+        <v>52.0732</v>
+      </c>
+      <c r="C148" s="7">
+        <f t="shared" si="13"/>
+        <v>0.76570000000000249</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="3">
+        <v>143</v>
+      </c>
+      <c r="B149" s="41">
+        <v>52.091500000000003</v>
+      </c>
+      <c r="C149" s="7">
+        <f t="shared" si="13"/>
+        <v>1.8300000000003536E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="3">
+        <v>144</v>
+      </c>
+      <c r="B150" s="41">
+        <v>52.215699999999998</v>
+      </c>
+      <c r="C150" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12419999999999476</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="3">
+        <v>145</v>
+      </c>
+      <c r="B151" s="41">
+        <v>52.2607</v>
+      </c>
+      <c r="C151" s="7">
+        <f t="shared" si="13"/>
+        <v>4.5000000000001705E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="3">
+        <v>146</v>
+      </c>
+      <c r="B152" s="41">
+        <v>52.417499999999997</v>
+      </c>
+      <c r="C152" s="7">
+        <f t="shared" si="13"/>
+        <v>0.15679999999999694</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="3">
+        <v>147</v>
+      </c>
+      <c r="B153" s="41">
+        <v>52.546300000000002</v>
+      </c>
+      <c r="C153" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12880000000000535</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="3">
+        <v>148</v>
+      </c>
+      <c r="B154" s="41">
+        <v>52.813400000000001</v>
+      </c>
+      <c r="C154" s="7">
+        <f t="shared" si="13"/>
+        <v>0.26709999999999923</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="3">
+        <v>149</v>
+      </c>
+      <c r="B155" s="41">
+        <v>52.844799999999999</v>
+      </c>
+      <c r="C155" s="7">
+        <f t="shared" si="13"/>
+        <v>3.1399999999997874E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="3">
+        <v>150</v>
+      </c>
+      <c r="B156" s="41">
+        <v>52.849400000000003</v>
+      </c>
+      <c r="C156" s="7">
+        <f t="shared" si="13"/>
+        <v>4.6000000000034902E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="3">
+        <v>151</v>
+      </c>
+      <c r="B157" s="41">
+        <v>52.968400000000003</v>
+      </c>
+      <c r="C157" s="7">
+        <f t="shared" si="13"/>
+        <v>0.11899999999999977</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="3">
+        <v>152</v>
+      </c>
+      <c r="B158" s="41">
+        <v>53.122900000000001</v>
+      </c>
+      <c r="C158" s="7">
+        <f t="shared" si="13"/>
+        <v>0.15449999999999875</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="3">
+        <v>153</v>
+      </c>
+      <c r="B159" s="41">
+        <v>53.275500000000001</v>
+      </c>
+      <c r="C159" s="7">
+        <f t="shared" si="13"/>
+        <v>0.15259999999999962</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="3">
+        <v>154</v>
+      </c>
+      <c r="B160" s="41">
+        <v>53.340699999999998</v>
+      </c>
+      <c r="C160" s="7">
+        <f t="shared" si="13"/>
+        <v>6.519999999999726E-2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="3">
+        <v>155</v>
+      </c>
+      <c r="B161" s="41">
+        <v>53.405099999999997</v>
+      </c>
+      <c r="C161" s="7">
+        <f t="shared" si="13"/>
+        <v>6.4399999999999125E-2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="3">
+        <v>156</v>
+      </c>
+      <c r="B162" s="41">
+        <v>53.538899999999998</v>
+      </c>
+      <c r="C162" s="7">
+        <f t="shared" si="13"/>
+        <v>0.13380000000000081</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="3">
+        <v>157</v>
+      </c>
+      <c r="B163" s="41">
+        <v>53.568399999999997</v>
+      </c>
+      <c r="C163" s="7">
+        <f t="shared" si="13"/>
+        <v>2.9499999999998749E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="3">
+        <v>158</v>
+      </c>
+      <c r="B164" s="41">
+        <v>53.99</v>
+      </c>
+      <c r="C164" s="7">
+        <f t="shared" si="13"/>
+        <v>0.42160000000000508</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="3">
+        <v>159</v>
+      </c>
+      <c r="B165" s="41">
+        <v>54.096800000000002</v>
+      </c>
+      <c r="C165" s="7">
+        <f t="shared" si="13"/>
+        <v>0.10679999999999978</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="3">
+        <v>160</v>
+      </c>
+      <c r="B166" s="41">
+        <v>54.104900000000001</v>
+      </c>
+      <c r="C166" s="7">
+        <f t="shared" si="13"/>
+        <v>8.0999999999988859E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="3">
+        <v>161</v>
+      </c>
+      <c r="B167" s="41">
+        <v>54.105899999999998</v>
+      </c>
+      <c r="C167" s="7">
+        <f t="shared" si="13"/>
+        <v>9.9999999999766942E-4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="3">
+        <v>162</v>
+      </c>
+      <c r="B168" s="41">
+        <v>54.107300000000002</v>
+      </c>
+      <c r="C168" s="7">
+        <f t="shared" si="13"/>
+        <v>1.4000000000038426E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="3">
+        <v>163</v>
+      </c>
+      <c r="B169" s="41">
+        <v>54.220999999999997</v>
+      </c>
+      <c r="C169" s="7">
+        <f t="shared" si="13"/>
+        <v>0.11369999999999436</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="3">
+        <v>164</v>
+      </c>
+      <c r="B170" s="41">
+        <v>54.604900000000001</v>
+      </c>
+      <c r="C170" s="7">
+        <f t="shared" si="13"/>
+        <v>0.38390000000000413</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="3">
+        <v>165</v>
+      </c>
+      <c r="B171" s="41">
+        <v>54.625999999999998</v>
+      </c>
+      <c r="C171" s="7">
+        <f t="shared" si="13"/>
+        <v>2.109999999999701E-2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="3">
+        <v>166</v>
+      </c>
+      <c r="B172" s="41">
+        <v>54.792200000000001</v>
+      </c>
+      <c r="C172" s="7">
+        <f t="shared" si="13"/>
+        <v>0.16620000000000346</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="3">
+        <v>167</v>
+      </c>
+      <c r="B173" s="41">
+        <v>54.819800000000001</v>
+      </c>
+      <c r="C173" s="7">
+        <f t="shared" si="13"/>
+        <v>2.7599999999999625E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="3">
+        <v>168</v>
+      </c>
+      <c r="B174" s="41">
+        <v>54.861199999999997</v>
+      </c>
+      <c r="C174" s="7">
+        <f t="shared" si="13"/>
+        <v>4.1399999999995885E-2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="3">
+        <v>169</v>
+      </c>
+      <c r="B175" s="41">
+        <v>54.871400000000001</v>
+      </c>
+      <c r="C175" s="7">
+        <f t="shared" si="13"/>
+        <v>1.020000000000465E-2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="3">
+        <v>170</v>
+      </c>
+      <c r="B176" s="41">
+        <v>54.9559</v>
+      </c>
+      <c r="C176" s="7">
+        <f t="shared" si="13"/>
+        <v>8.4499999999998465E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="3">
+        <v>171</v>
+      </c>
+      <c r="B177" s="41">
+        <v>55.008499999999998</v>
+      </c>
+      <c r="C177" s="7">
+        <f t="shared" si="13"/>
+        <v>5.2599999999998204E-2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="3">
+        <v>172</v>
+      </c>
+      <c r="B178" s="41">
+        <v>55.016599999999997</v>
+      </c>
+      <c r="C178" s="7">
+        <f t="shared" si="13"/>
+        <v>8.0999999999988859E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="3">
+        <v>173</v>
+      </c>
+      <c r="B179" s="41">
+        <v>55.051699999999997</v>
+      </c>
+      <c r="C179" s="7">
+        <f t="shared" si="13"/>
+        <v>3.5099999999999909E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="3">
+        <v>174</v>
+      </c>
+      <c r="B180" s="41">
+        <v>55.223799999999997</v>
+      </c>
+      <c r="C180" s="7">
+        <f t="shared" si="13"/>
+        <v>0.17210000000000036</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="3">
+        <v>175</v>
+      </c>
+      <c r="B181" s="41">
+        <v>55.260399999999997</v>
+      </c>
+      <c r="C181" s="7">
+        <f t="shared" si="13"/>
+        <v>3.6599999999999966E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="3">
+        <v>176</v>
+      </c>
+      <c r="B182" s="41">
+        <v>55.346899999999998</v>
+      </c>
+      <c r="C182" s="7">
+        <f t="shared" si="13"/>
+        <v>8.6500000000000909E-2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="3">
+        <v>177</v>
+      </c>
+      <c r="B183" s="41">
+        <v>55.369599999999998</v>
+      </c>
+      <c r="C183" s="7">
+        <f t="shared" si="13"/>
+        <v>2.2700000000000387E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="3">
+        <v>178</v>
+      </c>
+      <c r="B184" s="41">
+        <v>55.731900000000003</v>
+      </c>
+      <c r="C184" s="7">
+        <f t="shared" si="13"/>
+        <v>0.36230000000000473</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="3">
+        <v>179</v>
+      </c>
+      <c r="B185" s="41">
+        <v>55.835599999999999</v>
+      </c>
+      <c r="C185" s="7">
+        <f t="shared" si="13"/>
+        <v>0.10369999999999635</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="3">
+        <v>180</v>
+      </c>
+      <c r="B186" s="41">
+        <v>55.863500000000002</v>
+      </c>
+      <c r="C186" s="7">
+        <f t="shared" si="13"/>
+        <v>2.7900000000002478E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="3">
+        <v>181</v>
+      </c>
+      <c r="B187" s="41">
+        <v>55.940199999999997</v>
+      </c>
+      <c r="C187" s="7">
+        <f t="shared" si="13"/>
+        <v>7.6699999999995327E-2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="3">
+        <v>182</v>
+      </c>
+      <c r="B188" s="41">
+        <v>56.198399999999999</v>
+      </c>
+      <c r="C188" s="7">
+        <f t="shared" si="13"/>
+        <v>0.25820000000000221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="3">
+        <v>183</v>
+      </c>
+      <c r="B189" s="41">
+        <v>56.326700000000002</v>
+      </c>
+      <c r="C189" s="7">
+        <f t="shared" si="13"/>
+        <v>0.12830000000000297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="3">
+        <v>184</v>
+      </c>
+      <c r="B190" s="41">
+        <v>56.416600000000003</v>
+      </c>
+      <c r="C190" s="7">
+        <f t="shared" si="13"/>
+        <v>8.9900000000000091E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="3">
+        <v>185</v>
+      </c>
+      <c r="B191" s="41">
+        <v>56.6723</v>
+      </c>
+      <c r="C191" s="7">
+        <f t="shared" si="13"/>
+        <v>0.25569999999999737</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="3">
+        <v>186</v>
+      </c>
+      <c r="B192" s="41">
+        <v>56.928800000000003</v>
+      </c>
+      <c r="C192" s="7">
+        <f t="shared" si="13"/>
+        <v>0.25650000000000261</v>
+      </c>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A193" s="3">
+        <v>187</v>
+      </c>
+      <c r="B193" s="41">
+        <v>57.087000000000003</v>
+      </c>
+      <c r="C193" s="7">
+        <f t="shared" si="13"/>
+        <v>0.15820000000000078</v>
+      </c>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A194" s="3">
+        <v>188</v>
+      </c>
+      <c r="B194" s="41">
+        <v>57.125300000000003</v>
+      </c>
+      <c r="C194" s="7">
+        <f t="shared" si="13"/>
+        <v>3.8299999999999557E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A195" s="3">
+        <v>189</v>
+      </c>
+      <c r="B195" s="41">
+        <v>57.1755</v>
+      </c>
+      <c r="C195" s="7">
+        <f t="shared" si="13"/>
+        <v>5.0199999999996692E-2</v>
+      </c>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A196" s="3">
+        <v>190</v>
+      </c>
+      <c r="B196" s="41">
+        <v>57.222799999999999</v>
+      </c>
+      <c r="C196" s="7">
+        <f t="shared" si="13"/>
+        <v>4.7299999999999898E-2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A197" s="3">
+        <v>191</v>
+      </c>
+      <c r="B197" s="41">
+        <v>57.322299999999998</v>
+      </c>
+      <c r="C197" s="7">
+        <f t="shared" si="13"/>
+        <v>9.9499999999999034E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A198" s="3">
+        <v>192</v>
+      </c>
+      <c r="B198" s="41">
+        <v>57.496899999999997</v>
+      </c>
+      <c r="C198" s="7">
+        <f t="shared" si="13"/>
+        <v>0.17459999999999809</v>
+      </c>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A199" s="3">
+        <v>193</v>
+      </c>
+      <c r="B199" s="41">
+        <v>58.052900000000001</v>
+      </c>
+      <c r="C199" s="7">
+        <f t="shared" si="13"/>
+        <v>0.55600000000000449</v>
+      </c>
+      <c r="K199" s="41">
+        <v>32.524900000000002</v>
+      </c>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A200" s="3">
+        <v>194</v>
+      </c>
+      <c r="B200" s="41">
+        <v>58.153799999999997</v>
+      </c>
+      <c r="C200" s="7">
+        <f t="shared" si="13"/>
+        <v>0.10089999999999577</v>
+      </c>
+      <c r="K200" s="41">
+        <v>32.807299999999998</v>
+      </c>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A201" s="3">
+        <v>195</v>
+      </c>
+      <c r="B201" s="41">
+        <v>58.780999999999999</v>
+      </c>
+      <c r="C201" s="7">
+        <f t="shared" ref="C201:C207" si="14">B201-B200</f>
+        <v>0.62720000000000198</v>
+      </c>
+      <c r="K201" s="41">
+        <v>32.9221</v>
+      </c>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A202" s="3">
+        <v>196</v>
+      </c>
+      <c r="B202" s="41">
+        <v>58.918300000000002</v>
+      </c>
+      <c r="C202" s="7">
+        <f t="shared" si="14"/>
+        <v>0.13730000000000331</v>
+      </c>
+      <c r="K202" s="41">
+        <v>32.989800000000002</v>
+      </c>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A203" s="3">
+        <v>197</v>
+      </c>
+      <c r="B203" s="41">
+        <v>59.024999999999999</v>
+      </c>
+      <c r="C203" s="7">
+        <f t="shared" si="14"/>
+        <v>0.10669999999999646</v>
+      </c>
+      <c r="F203" s="1">
+        <f>MIN(_muestra)</f>
+        <v>9.9999999999766942E-4</v>
+      </c>
+      <c r="K203" s="41">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A204" s="3">
+        <v>198</v>
+      </c>
+      <c r="B204" s="41">
+        <v>59.059100000000001</v>
+      </c>
+      <c r="C204" s="7">
+        <f t="shared" si="14"/>
+        <v>3.410000000000224E-2</v>
+      </c>
+      <c r="K204" s="41">
+        <v>33.110399999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A205" s="3">
+        <v>199</v>
+      </c>
+      <c r="B205" s="41">
+        <v>59.067100000000003</v>
+      </c>
+      <c r="C205" s="7">
+        <f t="shared" si="14"/>
+        <v>8.0000000000026716E-3</v>
+      </c>
+      <c r="K205" s="41">
+        <v>33.240400000000001</v>
+      </c>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A206" s="3">
+        <v>200</v>
+      </c>
+      <c r="B206" s="41">
+        <v>59.266399999999997</v>
+      </c>
+      <c r="C206" s="7">
+        <f t="shared" si="14"/>
+        <v>0.19929999999999382</v>
+      </c>
+      <c r="K206" s="41">
+        <v>33.326000000000001</v>
+      </c>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A207" s="3">
+        <v>201</v>
+      </c>
+      <c r="B207" s="41">
+        <v>59.3123</v>
+      </c>
+      <c r="C207" s="7">
+        <f t="shared" si="14"/>
+        <v>4.590000000000316E-2</v>
+      </c>
+      <c r="K207" s="41">
+        <v>33.511699999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A208" s="2"/>
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+      <c r="K208" s="41">
+        <v>33.987400000000001</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="2"/>
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+      <c r="K209" s="41">
+        <v>34.004399999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K210" s="41">
+        <v>34.005899999999997</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K211" s="41">
+        <v>34.118099999999998</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K212" s="41">
+        <v>34.162599999999998</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K213" s="41">
+        <v>34.266800000000003</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K214" s="41">
+        <v>34.349499999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K215" s="41">
+        <v>34.420499999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K216" s="41">
+        <v>34.627499999999998</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K217" s="41">
+        <v>34.963200000000001</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K218" s="41">
+        <v>35.237900000000003</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K219" s="41">
+        <v>35.4345</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K220" s="41">
+        <v>35.4861</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K221" s="41">
+        <v>35.494399999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K222" s="41">
+        <v>35.521700000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K223" s="41">
+        <v>35.691299999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K224" s="41">
+        <v>35.714300000000001</v>
+      </c>
+    </row>
+    <row r="225" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K225" s="41">
+        <v>35.830199999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K226" s="41">
+        <v>36.038699999999999</v>
+      </c>
+    </row>
+    <row r="227" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K227" s="41">
+        <v>36.378700000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K228" s="41">
+        <v>36.849899999999998</v>
+      </c>
+    </row>
+    <row r="229" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K229" s="41">
+        <v>37.209499999999998</v>
+      </c>
+    </row>
+    <row r="230" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K230" s="41">
+        <v>37.236400000000003</v>
+      </c>
+    </row>
+    <row r="231" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K231" s="41">
+        <v>37.3583</v>
+      </c>
+    </row>
+    <row r="232" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K232" s="41">
+        <v>37.740499999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K233" s="41">
+        <v>37.797199999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K234" s="41">
+        <v>38.533299999999997</v>
+      </c>
+    </row>
+    <row r="235" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K235" s="41">
+        <v>38.547899999999998</v>
+      </c>
+    </row>
+    <row r="236" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K236" s="41">
+        <v>38.604599999999998</v>
+      </c>
+    </row>
+    <row r="237" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K237" s="41">
+        <v>38.646099999999997</v>
+      </c>
+    </row>
+    <row r="238" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K238" s="41">
+        <v>38.677999999999997</v>
+      </c>
+    </row>
+    <row r="239" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K239" s="41">
+        <v>38.784500000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K240" s="41">
+        <v>38.831000000000003</v>
+      </c>
+    </row>
+    <row r="241" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K241" s="41">
+        <v>38.841999999999999</v>
+      </c>
+    </row>
+    <row r="242" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K242" s="41">
+        <v>39.160400000000003</v>
+      </c>
+    </row>
+    <row r="243" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K243" s="41">
+        <v>39.383800000000001</v>
+      </c>
+    </row>
+    <row r="244" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K244" s="41">
+        <v>39.7515</v>
+      </c>
+    </row>
+    <row r="245" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K245" s="41">
+        <v>39.831099999999999</v>
+      </c>
+    </row>
+    <row r="246" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K246" s="41">
+        <v>39.859200000000001</v>
+      </c>
+    </row>
+    <row r="247" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K247" s="41">
+        <v>39.912100000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K248" s="41">
+        <v>40.073</v>
+      </c>
+    </row>
+    <row r="249" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K249" s="41">
+        <v>40.147199999999998</v>
+      </c>
+    </row>
+    <row r="250" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K250" s="41">
+        <v>40.406399999999998</v>
+      </c>
+    </row>
+    <row r="251" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K251" s="41">
+        <v>40.42</v>
+      </c>
+    </row>
+    <row r="252" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K252" s="41">
+        <v>40.451999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K253" s="41">
+        <v>40.519799999999996</v>
+      </c>
+    </row>
+    <row r="254" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K254" s="41">
+        <v>40.645899999999997</v>
+      </c>
+    </row>
+    <row r="255" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K255" s="41">
+        <v>40.649799999999999</v>
+      </c>
+    </row>
+    <row r="256" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K256" s="41">
+        <v>40.697800000000001</v>
+      </c>
+    </row>
+    <row r="257" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K257" s="41">
+        <v>41.005899999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K258" s="41">
+        <v>41.095399999999998</v>
+      </c>
+    </row>
+    <row r="259" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K259" s="41">
+        <v>41.433500000000002</v>
+      </c>
+    </row>
+    <row r="260" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K260" s="41">
+        <v>41.608899999999998</v>
+      </c>
+    </row>
+    <row r="261" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K261" s="41">
+        <v>41.684899999999999</v>
+      </c>
+    </row>
+    <row r="262" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K262" s="41">
+        <v>41.951999999999998</v>
+      </c>
+    </row>
+    <row r="263" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K263" s="41">
+        <v>42.1584</v>
+      </c>
+    </row>
+    <row r="264" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K264" s="41">
+        <v>42.241300000000003</v>
+      </c>
+    </row>
+    <row r="265" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K265" s="41">
+        <v>42.292999999999999</v>
+      </c>
+    </row>
+    <row r="266" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K266" s="41">
+        <v>42.335099999999997</v>
+      </c>
+    </row>
+    <row r="267" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K267" s="41">
+        <v>42.418900000000001</v>
+      </c>
+    </row>
+    <row r="268" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K268" s="41">
+        <v>42.430500000000002</v>
+      </c>
+    </row>
+    <row r="269" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K269" s="41">
+        <v>42.576700000000002</v>
+      </c>
+    </row>
+    <row r="270" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K270" s="41">
+        <v>42.685699999999997</v>
+      </c>
+    </row>
+    <row r="271" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K271" s="41">
+        <v>42.738599999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K272" s="41">
+        <v>42.86</v>
+      </c>
+    </row>
+    <row r="273" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K273" s="41">
+        <v>42.874299999999998</v>
+      </c>
+    </row>
+    <row r="274" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K274" s="41">
+        <v>43.005600000000001</v>
+      </c>
+    </row>
+    <row r="275" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K275" s="41">
+        <v>43.042000000000002</v>
+      </c>
+    </row>
+    <row r="276" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K276" s="41">
+        <v>43.069000000000003</v>
+      </c>
+    </row>
+    <row r="277" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K277" s="41">
+        <v>43.198799999999999</v>
+      </c>
+    </row>
+    <row r="278" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K278" s="41">
+        <v>43.273499999999999</v>
+      </c>
+    </row>
+    <row r="279" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K279" s="41">
+        <v>43.463999999999999</v>
+      </c>
+    </row>
+    <row r="280" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K280" s="41">
+        <v>43.5276</v>
+      </c>
+    </row>
+    <row r="281" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K281" s="41">
+        <v>43.550199999999997</v>
+      </c>
+    </row>
+    <row r="282" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K282" s="41">
+        <v>43.639800000000001</v>
+      </c>
+    </row>
+    <row r="283" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K283" s="41">
+        <v>43.690399999999997</v>
+      </c>
+    </row>
+    <row r="284" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K284" s="41">
+        <v>43.845399999999998</v>
+      </c>
+    </row>
+    <row r="285" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K285" s="41">
+        <v>43.860399999999998</v>
+      </c>
+    </row>
+    <row r="286" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K286" s="41">
+        <v>43.861600000000003</v>
+      </c>
+    </row>
+    <row r="287" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K287" s="41">
+        <v>44.180599999999998</v>
+      </c>
+    </row>
+    <row r="288" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K288" s="41">
+        <v>44.551699999999997</v>
+      </c>
+    </row>
+    <row r="289" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K289" s="41">
+        <v>44.630899999999997</v>
+      </c>
+    </row>
+    <row r="290" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K290" s="41">
+        <v>45.0961</v>
+      </c>
+    </row>
+    <row r="291" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K291" s="41">
+        <v>45.1419</v>
+      </c>
+    </row>
+    <row r="292" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K292" s="41">
+        <v>45.238900000000001</v>
+      </c>
+    </row>
+    <row r="293" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K293" s="41">
+        <v>45.267499999999998</v>
+      </c>
+    </row>
+    <row r="294" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K294" s="41">
+        <v>45.268799999999999</v>
+      </c>
+    </row>
+    <row r="295" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K295" s="41">
+        <v>45.705100000000002</v>
+      </c>
+    </row>
+    <row r="296" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K296" s="41">
+        <v>45.724499999999999</v>
+      </c>
+    </row>
+    <row r="297" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K297" s="41">
+        <v>45.781500000000001</v>
+      </c>
+    </row>
+    <row r="298" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K298" s="41">
+        <v>45.8262</v>
+      </c>
+    </row>
+    <row r="299" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K299" s="41">
+        <v>45.932000000000002</v>
+      </c>
+    </row>
+    <row r="300" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K300" s="41">
+        <v>46.049700000000001</v>
+      </c>
+    </row>
+    <row r="301" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K301" s="41">
+        <v>46.089399999999998</v>
+      </c>
+    </row>
+    <row r="302" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K302" s="41">
+        <v>46.117400000000004</v>
+      </c>
+    </row>
+    <row r="303" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K303" s="41">
+        <v>46.243299999999998</v>
+      </c>
+    </row>
+    <row r="304" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K304" s="41">
+        <v>46.3</v>
+      </c>
+    </row>
+    <row r="305" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K305" s="41">
+        <v>46.761200000000002</v>
+      </c>
+    </row>
+    <row r="306" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K306" s="41">
+        <v>46.920299999999997</v>
+      </c>
+    </row>
+    <row r="307" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K307" s="41">
+        <v>47.090899999999998</v>
+      </c>
+    </row>
+    <row r="308" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K308" s="41">
+        <v>47.375599999999999</v>
+      </c>
+    </row>
+    <row r="309" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K309" s="41">
+        <v>47.442100000000003</v>
+      </c>
+    </row>
+    <row r="310" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K310" s="41">
+        <v>47.4452</v>
+      </c>
+    </row>
+    <row r="311" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K311" s="41">
+        <v>47.471699999999998</v>
+      </c>
+    </row>
+    <row r="312" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K312" s="41">
+        <v>47.6633</v>
+      </c>
+    </row>
+    <row r="313" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K313" s="41">
+        <v>47.920699999999997</v>
+      </c>
+    </row>
+    <row r="314" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K314" s="41">
+        <v>48.107999999999997</v>
+      </c>
+    </row>
+    <row r="315" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K315" s="41">
+        <v>48.133899999999997</v>
+      </c>
+    </row>
+    <row r="316" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K316" s="41">
+        <v>48.261800000000001</v>
+      </c>
+    </row>
+    <row r="317" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K317" s="41">
+        <v>48.264699999999998</v>
+      </c>
+    </row>
+    <row r="318" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K318" s="41">
+        <v>48.427900000000001</v>
+      </c>
+    </row>
+    <row r="319" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K319" s="41">
+        <v>48.7453</v>
+      </c>
+    </row>
+    <row r="320" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K320" s="41">
+        <v>48.904899999999998</v>
+      </c>
+    </row>
+    <row r="321" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K321" s="41">
+        <v>49.208100000000002</v>
+      </c>
+    </row>
+    <row r="322" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K322" s="41">
+        <v>49.421300000000002</v>
+      </c>
+    </row>
+    <row r="323" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K323" s="41">
+        <v>49.451599999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K324" s="41">
+        <v>49.472099999999998</v>
+      </c>
+    </row>
+    <row r="325" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K325" s="41">
+        <v>49.884599999999999</v>
+      </c>
+    </row>
+    <row r="326" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K326" s="41">
+        <v>49.934699999999999</v>
+      </c>
+    </row>
+    <row r="327" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K327" s="41">
+        <v>50.108699999999999</v>
+      </c>
+    </row>
+    <row r="328" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K328" s="41">
+        <v>50.137900000000002</v>
+      </c>
+    </row>
+    <row r="329" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K329" s="41">
+        <v>50.2348</v>
+      </c>
+    </row>
+    <row r="330" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K330" s="41">
+        <v>50.267400000000002</v>
+      </c>
+    </row>
+    <row r="331" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K331" s="41">
+        <v>50.349499999999999</v>
+      </c>
+    </row>
+    <row r="332" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K332" s="41">
+        <v>50.560200000000002</v>
+      </c>
+    </row>
+    <row r="333" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K333" s="41">
+        <v>50.610999999999997</v>
+      </c>
+    </row>
+    <row r="334" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K334" s="41">
+        <v>50.625599999999999</v>
+      </c>
+    </row>
+    <row r="335" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K335" s="41">
+        <v>50.715600000000002</v>
+      </c>
+    </row>
+    <row r="336" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K336" s="41">
+        <v>50.982599999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K337" s="41">
+        <v>51.112200000000001</v>
+      </c>
+    </row>
+    <row r="338" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K338" s="41">
+        <v>51.202500000000001</v>
+      </c>
+    </row>
+    <row r="339" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K339" s="41">
+        <v>51.307499999999997</v>
+      </c>
+    </row>
+    <row r="340" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K340" s="41">
+        <v>52.0732</v>
+      </c>
+    </row>
+    <row r="341" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K341" s="41">
+        <v>52.091500000000003</v>
+      </c>
+    </row>
+    <row r="342" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K342" s="41">
+        <v>52.215699999999998</v>
+      </c>
+    </row>
+    <row r="343" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K343" s="41">
+        <v>52.2607</v>
+      </c>
+    </row>
+    <row r="344" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K344" s="41">
+        <v>52.417499999999997</v>
+      </c>
+    </row>
+    <row r="345" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K345" s="41">
+        <v>52.546300000000002</v>
+      </c>
+    </row>
+    <row r="346" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K346" s="41">
+        <v>52.813400000000001</v>
+      </c>
+    </row>
+    <row r="347" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K347" s="41">
+        <v>52.844799999999999</v>
+      </c>
+    </row>
+    <row r="348" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K348" s="41">
+        <v>52.849400000000003</v>
+      </c>
+    </row>
+    <row r="349" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K349" s="41">
+        <v>52.968400000000003</v>
+      </c>
+    </row>
+    <row r="350" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K350" s="41">
+        <v>53.122900000000001</v>
+      </c>
+    </row>
+    <row r="351" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K351" s="41">
+        <v>53.275500000000001</v>
+      </c>
+    </row>
+    <row r="352" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K352" s="41">
+        <v>53.340699999999998</v>
+      </c>
+    </row>
+    <row r="353" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K353" s="41">
+        <v>53.405099999999997</v>
+      </c>
+    </row>
+    <row r="354" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K354" s="41">
+        <v>53.538899999999998</v>
+      </c>
+    </row>
+    <row r="355" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K355" s="41">
+        <v>53.568399999999997</v>
+      </c>
+    </row>
+    <row r="356" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K356" s="41">
+        <v>53.99</v>
+      </c>
+    </row>
+    <row r="357" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K357" s="41">
+        <v>54.096800000000002</v>
+      </c>
+    </row>
+    <row r="358" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K358" s="41">
+        <v>54.104900000000001</v>
+      </c>
+    </row>
+    <row r="359" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K359" s="41">
+        <v>54.105899999999998</v>
+      </c>
+    </row>
+    <row r="360" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K360" s="41">
+        <v>54.107300000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K361" s="41">
+        <v>54.220999999999997</v>
+      </c>
+    </row>
+    <row r="362" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K362" s="41">
+        <v>54.604900000000001</v>
+      </c>
+    </row>
+    <row r="363" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K363" s="41">
+        <v>54.625999999999998</v>
+      </c>
+    </row>
+    <row r="364" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K364" s="41">
+        <v>54.792200000000001</v>
+      </c>
+    </row>
+    <row r="365" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K365" s="41">
+        <v>54.819800000000001</v>
+      </c>
+    </row>
+    <row r="366" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K366" s="41">
+        <v>54.861199999999997</v>
+      </c>
+    </row>
+    <row r="367" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K367" s="41">
+        <v>54.871400000000001</v>
+      </c>
+    </row>
+    <row r="368" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K368" s="41">
+        <v>54.9559</v>
+      </c>
+    </row>
+    <row r="369" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K369" s="41">
+        <v>55.008499999999998</v>
+      </c>
+    </row>
+    <row r="370" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K370" s="41">
+        <v>55.016599999999997</v>
+      </c>
+    </row>
+    <row r="371" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K371" s="41">
+        <v>55.051699999999997</v>
+      </c>
+    </row>
+    <row r="372" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K372" s="41">
+        <v>55.223799999999997</v>
+      </c>
+    </row>
+    <row r="373" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K373" s="41">
+        <v>55.260399999999997</v>
+      </c>
+    </row>
+    <row r="374" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K374" s="41">
+        <v>55.346899999999998</v>
+      </c>
+    </row>
+    <row r="375" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K375" s="41">
+        <v>55.369599999999998</v>
+      </c>
+    </row>
+    <row r="376" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K376" s="41">
+        <v>55.731900000000003</v>
+      </c>
+    </row>
+    <row r="377" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K377" s="41">
+        <v>55.835599999999999</v>
+      </c>
+    </row>
+    <row r="378" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K378" s="41">
+        <v>55.863500000000002</v>
+      </c>
+    </row>
+    <row r="379" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K379" s="41">
+        <v>55.940199999999997</v>
+      </c>
+    </row>
+    <row r="380" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K380" s="41">
+        <v>56.198399999999999</v>
+      </c>
+    </row>
+    <row r="381" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K381" s="41">
+        <v>56.326700000000002</v>
+      </c>
+    </row>
+    <row r="382" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K382" s="41">
+        <v>56.416600000000003</v>
+      </c>
+    </row>
+    <row r="383" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K383" s="41">
+        <v>56.6723</v>
+      </c>
+    </row>
+    <row r="384" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K384" s="41">
+        <v>56.928800000000003</v>
+      </c>
+    </row>
+    <row r="385" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K385" s="41">
+        <v>57.087000000000003</v>
+      </c>
+    </row>
+    <row r="386" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K386" s="41">
+        <v>57.125300000000003</v>
+      </c>
+    </row>
+    <row r="387" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K387" s="41">
+        <v>57.1755</v>
+      </c>
+    </row>
+    <row r="388" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K388" s="41">
+        <v>57.222799999999999</v>
+      </c>
+    </row>
+    <row r="389" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K389" s="41">
+        <v>57.322299999999998</v>
+      </c>
+    </row>
+    <row r="390" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K390" s="41">
+        <v>57.496899999999997</v>
+      </c>
+    </row>
+    <row r="391" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K391" s="41">
+        <v>58.052900000000001</v>
+      </c>
+    </row>
+    <row r="392" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K392" s="41">
+        <v>58.153799999999997</v>
+      </c>
+    </row>
+    <row r="393" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K393" s="41">
+        <v>58.780999999999999</v>
+      </c>
+    </row>
+    <row r="394" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K394" s="41">
+        <v>58.918300000000002</v>
+      </c>
+    </row>
+    <row r="395" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K395" s="41">
+        <v>59.024999999999999</v>
+      </c>
+    </row>
+    <row r="396" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K396" s="41">
+        <v>59.059100000000001</v>
+      </c>
+    </row>
+    <row r="397" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K397" s="41">
+        <v>59.067100000000003</v>
+      </c>
+    </row>
+    <row r="398" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K398" s="41">
+        <v>59.266399999999997</v>
+      </c>
+    </row>
+    <row r="399" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K399" s="41">
+        <v>59.3123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="N10:P10"/>
+    <mergeCell ref="U10:W10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/TP 2/TP2.xlsx
+++ b/TP 2/TP2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\SIMULACION\TpsSimulacion\TP 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Facu\2021\Segundo cuatrimestre\Simulacion\Tps\tpSimulacion\TP 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15DCFF7-CBAA-4935-9415-5C91638A505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F805A39-DDAE-4748-8DC0-3602EDCBD1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="635" activeTab="1" xr2:uid="{A119819B-661A-4379-8377-58A3C6C30C1A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="635" xr2:uid="{A119819B-661A-4379-8377-58A3C6C30C1A}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="61">
   <si>
     <t>DATOS</t>
   </si>
@@ -92,9 +92,6 @@
   </si>
   <si>
     <t>T: Tiempo entre llegada de las personas que ingresan al shopping</t>
-  </si>
-  <si>
-    <t>X:Llegada (en segundos) de personas a un shopping de Córdoba desde que abrió en el día de la fecha</t>
   </si>
   <si>
     <t>1.Parámetros de la muestra.</t>
@@ -236,6 +233,15 @@
   </si>
   <si>
     <t>T: Tiempo entre los vehículos que ciruculan por la rotonda</t>
+  </si>
+  <si>
+    <t>X:Llegada (en segundos) de personas a un shopping de Córdoba, por la puerta principal, desde que abrió en el día de la fecha</t>
+  </si>
+  <si>
+    <t>Hipótesis nula (H0): existe un nivel de confianza del 95% de que las personas entren por la puerta principal del shopping</t>
+  </si>
+  <si>
+    <t>Hipótesis alternativa (H1): existe un nivel de confianza menor al 95% de que las personas entren por la puerta principal del shopping</t>
   </si>
 </sst>
 </file>
@@ -556,6 +562,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -566,9 +575,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3465,8 +3471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7766BCD-B30A-44BC-AE45-E615C022085C}">
   <dimension ref="A2:AB209"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3485,13 +3491,19 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F2" s="8" t="s">
-        <v>11</v>
+      <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="F3" s="8" t="s">
+      <c r="A3" s="10" t="s">
         <v>10</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -3514,11 +3526,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3527,10 +3539,10 @@
         <v>200</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -3549,25 +3561,25 @@
         <v>0.81850000000000023</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1">
         <v>12</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="1">
         <v>0.05</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -3589,14 +3601,14 @@
         <v>2.3999999999979593E-3</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="11">
         <f>(_Valor_Max-_Valor_Min)/_intervalos</f>
         <v>6.8008333333333518E-2</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="1">
         <f>_intervalos-1</f>
@@ -3621,6 +3633,13 @@
         <f>AVERAGE(_muestra)</f>
         <v>0.154089</v>
       </c>
+      <c r="Y9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z9" s="39">
+        <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
+        <v>19.675137572682498</v>
+      </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -3640,24 +3659,24 @@
         <f>_xlfn.VAR.S(C8:C207)</f>
         <v>2.1125656461306559E-2</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="30" t="s">
-        <v>33</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="36"/>
-      <c r="U10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="U10" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -3671,40 +3690,40 @@
         <v>0.25689999999999991</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="P11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="Q11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="T11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="U11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="W11" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="W11" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -3828,7 +3847,7 @@
         <v>0.19169999999999998</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -3878,13 +3897,6 @@
         <f t="shared" si="8"/>
         <v>7.945170928720717E-2</v>
       </c>
-      <c r="Y14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z14" s="39">
-        <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
-        <v>19.675137572682498</v>
-      </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -3898,7 +3910,7 @@
         <v>1.440000000000019E-2</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -3961,7 +3973,7 @@
         <v>5.6400000000000006E-2</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -4012,7 +4024,7 @@
         <v>4.9562862422577298</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4025,7 +4037,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="19">
         <f>_media-((12*_varianza)^0.5)/2</f>
@@ -4078,7 +4090,7 @@
         <v>6.4923606321473999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4091,7 +4103,7 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="19">
         <f>2*_media - _DistrUnifA</f>
@@ -4144,7 +4156,7 @@
         <v>8.7204879152444816E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>2.5199999999999889E-2</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -4207,7 +4219,7 @@
         <v>2.4287034570512214</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -4220,7 +4232,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="19">
         <f>1/_media</f>
@@ -4272,11 +4284,8 @@
         <f t="shared" si="8"/>
         <v>11.192409905750708</v>
       </c>
-      <c r="Y20" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -4289,7 +4298,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="19">
         <f>1/_varianza^0.5</f>
@@ -4341,11 +4350,8 @@
         <f t="shared" si="8"/>
         <v>6.0625051488224342</v>
       </c>
-      <c r="Y21" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>3.5600000000000076E-2</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -4407,11 +4413,8 @@
         <f t="shared" si="8"/>
         <v>2.3681419625742883E-2</v>
       </c>
-      <c r="Y22" s="10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -4424,7 +4427,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="19">
         <f>_media</f>
@@ -4476,9 +4479,8 @@
         <f t="shared" si="8"/>
         <v>1110.8671788352372</v>
       </c>
-      <c r="Y23" s="8"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -4491,7 +4493,7 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="19">
         <f>_varianza^0.5</f>
@@ -4529,11 +4531,8 @@
         <f t="shared" si="10"/>
         <v>1218.4664123390994</v>
       </c>
-      <c r="Y24" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -4551,11 +4550,8 @@
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
       <c r="L25" s="17"/>
-      <c r="Y25" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -4574,13 +4570,10 @@
       <c r="K26" s="2"/>
       <c r="L26" s="17"/>
       <c r="N26" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y26" s="10" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>21</v>
       </c>
@@ -4592,7 +4585,7 @@
         <v>0.27749999999999986</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -4601,7 +4594,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
@@ -4613,7 +4606,7 @@
         <v>6.9099999999999717E-2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -4621,8 +4614,11 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X28" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -4633,8 +4629,11 @@
         <f t="shared" si="0"/>
         <v>4.4800000000000395E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X29" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -4645,8 +4644,11 @@
         <f t="shared" si="0"/>
         <v>1.2799999999999478E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X30" s="10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>25</v>
       </c>
@@ -4657,8 +4659,9 @@
         <f t="shared" si="0"/>
         <v>1.1400000000000077E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X31" s="8"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -4669,8 +4672,11 @@
         <f t="shared" si="0"/>
         <v>0.11589999999999989</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X32" s="10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>27</v>
       </c>
@@ -4681,8 +4687,11 @@
         <f t="shared" si="0"/>
         <v>6.2800000000000189E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X33" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -4693,8 +4702,11 @@
         <f t="shared" si="0"/>
         <v>0.15570000000000039</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="X34" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>29</v>
       </c>
@@ -4706,7 +4718,7 @@
         <v>2.8500000000000192E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -4718,7 +4730,7 @@
         <v>1.9699999999999385E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -4730,7 +4742,7 @@
         <v>0.55620000000000047</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -4742,7 +4754,7 @@
         <v>0.14109999999999978</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -4754,7 +4766,7 @@
         <v>0.10229999999999961</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -4766,7 +4778,7 @@
         <v>0.10910000000000064</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -4778,7 +4790,7 @@
         <v>0.32099999999999973</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>0.26400000000000023</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -4802,7 +4814,7 @@
         <v>0.16809999999999992</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -4814,7 +4826,7 @@
         <v>4.3099999999999916E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>39</v>
       </c>
@@ -4826,7 +4838,7 @@
         <v>0.22189999999999976</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -4838,7 +4850,7 @@
         <v>7.6000000000000512E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41</v>
       </c>
@@ -4850,10 +4862,10 @@
         <v>0.27280000000000015</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -4865,7 +4877,7 @@
         <v>0.16380000000000017</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -6806,7 +6818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A227D-8E82-40F0-97F9-ED96EBB6D8C4}">
   <dimension ref="A2:AB399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
@@ -6830,12 +6842,12 @@
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="F3" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
@@ -6858,11 +6870,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
@@ -6871,10 +6883,10 @@
         <v>200</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="U6" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
@@ -6893,25 +6905,25 @@
         <v>0.76570000000000249</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O7" s="1">
         <v>12</v>
       </c>
       <c r="U7" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Y7" s="1">
         <v>0.05</v>
       </c>
       <c r="Z7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -6933,14 +6945,14 @@
         <v>9.9999999999766942E-4</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O8" s="11">
         <f>(_Valor_Max-_Valor_Min)/_intervalos</f>
         <v>6.3725000000000406E-2</v>
       </c>
       <c r="W8" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="Y8" s="1">
         <f>_intervalos-1</f>
@@ -6984,24 +6996,24 @@
         <f>_xlfn.VAR.S(C8:C207)</f>
         <v>1.8776674403015198E-2</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="45"/>
+      <c r="P10" s="46"/>
+      <c r="Q10" s="30" t="s">
         <v>32</v>
-      </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
-      <c r="Q10" s="30" t="s">
-        <v>33</v>
       </c>
       <c r="R10" s="34"/>
       <c r="S10" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="T10" s="36"/>
-      <c r="U10" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="U10" s="44" t="s">
+        <v>44</v>
+      </c>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7015,40 +7027,40 @@
         <v>1.0199999999997544E-2</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N11" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="O11" s="24" t="s">
+      <c r="P11" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="P11" s="25" t="s">
-        <v>31</v>
-      </c>
       <c r="Q11" s="31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="R11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="S11" s="24" t="s">
+      <c r="T11" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="T11" s="25" t="s">
-        <v>38</v>
-      </c>
       <c r="U11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="V11" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="V11" s="24" t="s">
+      <c r="W11" s="25" t="s">
         <v>37</v>
-      </c>
-      <c r="W11" s="25" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.25">
@@ -7172,7 +7184,7 @@
         <v>8.5599999999999454E-2</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
@@ -7223,9 +7235,9 @@
         <v>1.8218458729634925</v>
       </c>
       <c r="Y14" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z14" s="46">
+        <v>48</v>
+      </c>
+      <c r="Z14" s="42">
         <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
         <v>19.675137572682498</v>
       </c>
@@ -7242,7 +7254,7 @@
         <v>0.18569999999999709</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -7305,7 +7317,7 @@
         <v>0.47570000000000334</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -7369,7 +7381,7 @@
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H17" s="19">
         <f>_media-((12*_varianza)^0.5)/2</f>
@@ -7435,7 +7447,7 @@
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" s="19">
         <f>2*_media - _DistrUnifA</f>
@@ -7500,7 +7512,7 @@
         <v>0.11220000000000141</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -7564,7 +7576,7 @@
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H20" s="19">
         <f>1/_media</f>
@@ -7617,7 +7629,7 @@
         <v>0.61491048264295245</v>
       </c>
       <c r="Y20" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.25">
@@ -7633,7 +7645,7 @@
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H21" s="19">
         <f>1/_varianza^0.5</f>
@@ -7686,7 +7698,7 @@
         <v>7.4517549960320197</v>
       </c>
       <c r="Y21" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.25">
@@ -7701,7 +7713,7 @@
         <v>8.2699999999995555E-2</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -7752,7 +7764,7 @@
         <v>1.9898102246473925E-2</v>
       </c>
       <c r="Y22" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7768,7 +7780,7 @@
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H23" s="19">
         <f>_media</f>
@@ -7835,7 +7847,7 @@
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H24" s="19">
         <f>_varianza^0.5</f>
@@ -7874,7 +7886,7 @@
         <v>459.15819229349677</v>
       </c>
       <c r="Y24" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
@@ -7896,7 +7908,7 @@
       <c r="K25" s="2"/>
       <c r="L25" s="17"/>
       <c r="Y25" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
@@ -7918,10 +7930,10 @@
       <c r="K26" s="2"/>
       <c r="L26" s="17"/>
       <c r="N26" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Y26" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
@@ -7936,7 +7948,7 @@
         <v>0.19659999999999656</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -7957,7 +7969,7 @@
         <v>5.1600000000000534E-2</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G28" s="21"/>
       <c r="H28" s="21"/>
@@ -8194,7 +8206,7 @@
         <v>0.10650000000000404</v>
       </c>
       <c r="N47" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
@@ -8209,7 +8221,7 @@
         <v>4.6500000000001762E-2</v>
       </c>
       <c r="N48" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">

--- a/TP 2/TP2.xlsx
+++ b/TP 2/TP2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\SIMULACION\TpsSimulacion\TP 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15DCFF7-CBAA-4935-9415-5C91638A505F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4927445D-8863-4A51-A45A-F0F9A0EDD0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="635" activeTab="1" xr2:uid="{A119819B-661A-4379-8377-58A3C6C30C1A}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="73">
   <si>
     <t>DATOS</t>
   </si>
@@ -237,16 +237,59 @@
   <si>
     <t>T: Tiempo entre los vehículos que ciruculan por la rotonda</t>
   </si>
+  <si>
+    <t>Probabilidad</t>
+  </si>
+  <si>
+    <t>Observada</t>
+  </si>
+  <si>
+    <t>Prob. Observada</t>
+  </si>
+  <si>
+    <t>PE: Problabilidades Esperadas</t>
+  </si>
+  <si>
+    <t>PEA: Probabilidades Esperadas Acumuladas</t>
+  </si>
+  <si>
+    <t>abs(PEA-POA)</t>
+  </si>
+  <si>
+    <t>Acumulada(POA)</t>
+  </si>
+  <si>
+    <t>Max diferencias</t>
+  </si>
+  <si>
+    <t>5. Determinamos la bondad de ajuste usando K-S. Kolmogorov-Smirnof</t>
+  </si>
+  <si>
+    <t>Valor teórico:</t>
+  </si>
+  <si>
+    <t>En este caso se acepta la hipotesis nula es aceptada tanto para la Distribucion normal, como para la exponencial negativa ya que ambos valores obtenidos se encuentran debajo del valor teorico 0,39122</t>
+  </si>
+  <si>
+    <t>valor esperado</t>
+  </si>
+  <si>
+    <t>0.40925</t>
+  </si>
+  <si>
+    <t>Se acepta la hipotesis nula para la Distribucion normal, como para la exponencial negativa ya que ambos valores obtenidos se encuentran debajo del valor teorico 0,40925</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +305,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -288,8 +339,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -429,11 +492,103 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -556,7 +711,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -568,7 +732,103 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3463,13 +3723,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7766BCD-B30A-44BC-AE45-E615C022085C}">
-  <dimension ref="A2:AB209"/>
+  <dimension ref="A2:AS209"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="AB31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AM55" sqref="AM55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="5" width="11.42578125" style="1"/>
     <col min="6" max="6" width="13.85546875" style="1" customWidth="1"/>
@@ -3477,11 +3737,17 @@
     <col min="8" max="15" width="11.42578125" style="1"/>
     <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="1"/>
-    <col min="25" max="25" width="12.7109375" style="1" customWidth="1"/>
-    <col min="26" max="16384" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="11.140625" style="1" customWidth="1"/>
+    <col min="26" max="35" width="11.42578125" style="1"/>
+    <col min="36" max="36" width="14.140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="14" style="1" customWidth="1"/>
+    <col min="38" max="40" width="11.42578125" style="1"/>
+    <col min="41" max="41" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="43" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -3514,11 +3780,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="F6" s="5" t="s">
         <v>3</v>
       </c>
@@ -3640,11 +3906,11 @@
         <f>_xlfn.VAR.S(C8:C207)</f>
         <v>2.1125656461306559E-2</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
       <c r="Q10" s="30" t="s">
         <v>33</v>
       </c>
@@ -3653,11 +3919,11 @@
         <v>35</v>
       </c>
       <c r="T10" s="36"/>
-      <c r="U10" s="43" t="s">
+      <c r="U10" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="73"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -4012,7 +4278,7 @@
         <v>4.9562862422577298</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -4078,7 +4344,7 @@
         <v>6.4923606321473999</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -4144,7 +4410,7 @@
         <v>8.7204879152444816E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -4207,7 +4473,7 @@
         <v>2.4287034570512214</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -4276,7 +4542,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -4345,7 +4611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -4411,7 +4677,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -4478,7 +4744,7 @@
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -4533,7 +4799,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -4555,7 +4821,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -4580,7 +4846,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>21</v>
       </c>
@@ -4601,7 +4867,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
@@ -4621,8 +4887,14 @@
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AH28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -4633,8 +4905,22 @@
         <f t="shared" si="0"/>
         <v>4.4800000000000395E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
+      <c r="AH29" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ29" s="1">
+        <f>_intervalos-1</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -4646,7 +4932,7 @@
         <v>1.2799999999999478E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>25</v>
       </c>
@@ -4658,7 +4944,7 @@
         <v>1.1400000000000077E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -4669,8 +4955,42 @@
         <f t="shared" si="0"/>
         <v>0.11589999999999989</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z32" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA32" s="72"/>
+      <c r="AB32" s="73"/>
+      <c r="AC32" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD32" s="42"/>
+      <c r="AE32" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF32" s="44"/>
+      <c r="AG32" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH32" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AI32" s="72"/>
+      <c r="AJ32" s="73"/>
+      <c r="AK32" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL32" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AM32" s="72"/>
+      <c r="AN32" s="73"/>
+      <c r="AO32" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP32" s="75"/>
+      <c r="AQ32" s="76"/>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>27</v>
       </c>
@@ -4681,8 +5001,62 @@
         <f t="shared" si="0"/>
         <v>6.2800000000000189E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z33" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA33" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB33" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC33" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG33" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK33" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AL33" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM33" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN33" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO33" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP33" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ33" s="44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -4693,8 +5067,79 @@
         <f t="shared" si="0"/>
         <v>0.15570000000000039</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z34" s="16">
+        <v>1</v>
+      </c>
+      <c r="AA34" s="19">
+        <f>_Valor_Min</f>
+        <v>2.3999999999979593E-3</v>
+      </c>
+      <c r="AB34" s="26">
+        <f t="shared" ref="AB34:AB45" si="11">AA34+_pasos</f>
+        <v>7.0408333333331477E-2</v>
+      </c>
+      <c r="AC34" s="32">
+        <f t="array" ref="AC34:AC45">FREQUENCY(_muestra,_limSup)</f>
+        <v>71</v>
+      </c>
+      <c r="AD34" s="37">
+        <f>_tamañoMuestra/_intervalos</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE34" s="19">
+        <f>(_xlfn.EXPON.DIST(AB34,_DistrExpLambda,1)-_xlfn.EXPON.DIST(AA34,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <v>70.264485230055485</v>
+      </c>
+      <c r="AF34" s="26">
+        <f t="shared" ref="AF34:AF45" si="12">(_xlfn.NORM.DIST(AB34,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(AA34,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+        <v>26.81427424066511</v>
+      </c>
+      <c r="AG34" s="51">
+        <f>AC34/$AC$46</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AH34" s="37">
+        <f>AD34/$AC$46</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI34" s="50">
+        <f>AE34/$AC$46</f>
+        <v>0.35132242615027742</v>
+      </c>
+      <c r="AJ34" s="49">
+        <f>AF34/$AC$46</f>
+        <v>0.13407137120332555</v>
+      </c>
+      <c r="AK34" s="51">
+        <f>SUM(AG$34:AG34)</f>
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="AL34" s="37">
+        <f>SUM($AH$34:AH34)</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AM34" s="50">
+        <f>SUM($AI$34:AI34)</f>
+        <v>0.35132242615027742</v>
+      </c>
+      <c r="AN34" s="49">
+        <f>SUM($AJ$34:AJ34)</f>
+        <v>0.13407137120332555</v>
+      </c>
+      <c r="AO34" s="55">
+        <f>+ABS(AL34-AK34)</f>
+        <v>0.27166666666666661</v>
+      </c>
+      <c r="AP34" s="56">
+        <f>+ABS(AM34-AK34)</f>
+        <v>3.6775738497225596E-3</v>
+      </c>
+      <c r="AQ34" s="57">
+        <f>+ABS(AK34-AN34)</f>
+        <v>0.22092862879667444</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>29</v>
       </c>
@@ -4705,8 +5150,78 @@
         <f t="shared" si="0"/>
         <v>2.8500000000000192E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z35" s="16">
+        <v>2</v>
+      </c>
+      <c r="AA35" s="19">
+        <f>AB34</f>
+        <v>7.0408333333331477E-2</v>
+      </c>
+      <c r="AB35" s="26">
+        <f t="shared" si="11"/>
+        <v>0.13841666666666499</v>
+      </c>
+      <c r="AC35" s="32">
+        <v>42</v>
+      </c>
+      <c r="AD35" s="37">
+        <f t="shared" ref="AD35:AD45" si="13">_tamañoMuestra/_intervalos</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE35" s="19">
+        <f t="shared" ref="AE35:AE45" si="14">(_xlfn.EXPON.DIST(AB35,_DistrExpLambda,1)-_xlfn.EXPON.DIST(AA35,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <v>45.191499207753239</v>
+      </c>
+      <c r="AF35" s="26">
+        <f t="shared" si="12"/>
+        <v>34.933607117611473</v>
+      </c>
+      <c r="AG35" s="51">
+        <f t="shared" ref="AG35:AG45" si="15">AC35/$AC$46</f>
+        <v>0.21</v>
+      </c>
+      <c r="AH35" s="37">
+        <f t="shared" ref="AH35:AH45" si="16">AD35/$AC$46</f>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI35" s="50">
+        <f t="shared" ref="AI35:AI45" si="17">AE35/$AC$46</f>
+        <v>0.22595749603876619</v>
+      </c>
+      <c r="AJ35" s="49">
+        <f t="shared" ref="AJ35:AJ45" si="18">AF35/$AC$46</f>
+        <v>0.17466803558805735</v>
+      </c>
+      <c r="AK35" s="51">
+        <f>SUM(AG$34:AG35)</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AL35" s="37">
+        <f>SUM($AH$34:AH35)</f>
+        <v>0.16666666666666669</v>
+      </c>
+      <c r="AM35" s="50">
+        <f>SUM($AI$34:AI35)</f>
+        <v>0.57727992218904367</v>
+      </c>
+      <c r="AN35" s="49">
+        <f>SUM($AJ$34:AJ35)</f>
+        <v>0.3087394067913829</v>
+      </c>
+      <c r="AO35" s="55">
+        <f t="shared" ref="AO35:AO45" si="19">+ABS(AL35-AK35)</f>
+        <v>0.39833333333333326</v>
+      </c>
+      <c r="AP35" s="56">
+        <f t="shared" ref="AP35:AP45" si="20">+ABS(AM35-AK35)</f>
+        <v>1.2279922189043724E-2</v>
+      </c>
+      <c r="AQ35" s="57">
+        <f t="shared" ref="AQ35:AQ45" si="21">+ABS(AK35-AN35)</f>
+        <v>0.25626059320861705</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -4717,8 +5232,78 @@
         <f t="shared" si="0"/>
         <v>1.9699999999999385E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z36" s="16">
+        <v>3</v>
+      </c>
+      <c r="AA36" s="19">
+        <f t="shared" ref="AA36:AA45" si="22">AB35</f>
+        <v>0.13841666666666499</v>
+      </c>
+      <c r="AB36" s="26">
+        <f t="shared" si="11"/>
+        <v>0.20642499999999853</v>
+      </c>
+      <c r="AC36" s="32">
+        <v>35</v>
+      </c>
+      <c r="AD36" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE36" s="19">
+        <f t="shared" si="14"/>
+        <v>29.065488688313735</v>
+      </c>
+      <c r="AF36" s="26">
+        <f t="shared" si="12"/>
+        <v>36.707775005172273</v>
+      </c>
+      <c r="AG36" s="51">
+        <f t="shared" si="15"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AH36" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI36" s="50">
+        <f t="shared" si="17"/>
+        <v>0.14532744344156867</v>
+      </c>
+      <c r="AJ36" s="49">
+        <f t="shared" si="18"/>
+        <v>0.18353887502586136</v>
+      </c>
+      <c r="AK36" s="51">
+        <f>SUM(AG$34:AG36)</f>
+        <v>0.74</v>
+      </c>
+      <c r="AL36" s="37">
+        <f>SUM($AH$34:AH36)</f>
+        <v>0.25</v>
+      </c>
+      <c r="AM36" s="50">
+        <f>SUM($AI$34:AI36)</f>
+        <v>0.72260736563061234</v>
+      </c>
+      <c r="AN36" s="49">
+        <f>SUM($AJ$34:AJ36)</f>
+        <v>0.49227828181724426</v>
+      </c>
+      <c r="AO36" s="55">
+        <f t="shared" si="19"/>
+        <v>0.49</v>
+      </c>
+      <c r="AP36" s="56">
+        <f t="shared" si="20"/>
+        <v>1.739263436938765E-2</v>
+      </c>
+      <c r="AQ36" s="57">
+        <f t="shared" si="21"/>
+        <v>0.24772171818275573</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -4729,8 +5314,78 @@
         <f t="shared" si="0"/>
         <v>0.55620000000000047</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z37" s="16">
+        <v>4</v>
+      </c>
+      <c r="AA37" s="19">
+        <f t="shared" si="22"/>
+        <v>0.20642499999999853</v>
+      </c>
+      <c r="AB37" s="26">
+        <f t="shared" si="11"/>
+        <v>0.27443333333333203</v>
+      </c>
+      <c r="AC37" s="32">
+        <v>23</v>
+      </c>
+      <c r="AD37" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE37" s="19">
+        <f t="shared" si="14"/>
+        <v>18.693839494166497</v>
+      </c>
+      <c r="AF37" s="26">
+        <f t="shared" si="12"/>
+        <v>31.1108449248676</v>
+      </c>
+      <c r="AG37" s="51">
+        <f t="shared" si="15"/>
+        <v>0.115</v>
+      </c>
+      <c r="AH37" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI37" s="50">
+        <f t="shared" si="17"/>
+        <v>9.3469197470832488E-2</v>
+      </c>
+      <c r="AJ37" s="49">
+        <f>AF37/$AC$46</f>
+        <v>0.15555422462433799</v>
+      </c>
+      <c r="AK37" s="51">
+        <f>SUM(AG$34:AG37)</f>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="AL37" s="37">
+        <f>SUM($AH$34:AH37)</f>
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="AM37" s="50">
+        <f>SUM($AI$34:AI37)</f>
+        <v>0.81607656310144483</v>
+      </c>
+      <c r="AN37" s="49">
+        <f>SUM($AJ$34:AJ37)</f>
+        <v>0.64783250644158219</v>
+      </c>
+      <c r="AO37" s="55">
+        <f t="shared" si="19"/>
+        <v>0.52166666666666661</v>
+      </c>
+      <c r="AP37" s="56">
+        <f t="shared" si="20"/>
+        <v>3.8923436898555153E-2</v>
+      </c>
+      <c r="AQ37" s="57">
+        <f t="shared" si="21"/>
+        <v>0.20716749355841779</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -4741,8 +5396,78 @@
         <f t="shared" si="0"/>
         <v>0.14109999999999978</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z38" s="16">
+        <v>5</v>
+      </c>
+      <c r="AA38" s="19">
+        <f t="shared" si="22"/>
+        <v>0.27443333333333203</v>
+      </c>
+      <c r="AB38" s="26">
+        <f t="shared" si="11"/>
+        <v>0.34244166666666553</v>
+      </c>
+      <c r="AC38" s="32">
+        <v>11</v>
+      </c>
+      <c r="AD38" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE38" s="19">
+        <f t="shared" si="14"/>
+        <v>12.023181126631656</v>
+      </c>
+      <c r="AF38" s="26">
+        <f t="shared" si="12"/>
+        <v>21.266618067717147</v>
+      </c>
+      <c r="AG38" s="51">
+        <f t="shared" si="15"/>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AH38" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI38" s="50">
+        <f t="shared" si="17"/>
+        <v>6.011590563315828E-2</v>
+      </c>
+      <c r="AJ38" s="49">
+        <f t="shared" si="18"/>
+        <v>0.10633309033858573</v>
+      </c>
+      <c r="AK38" s="51">
+        <f>SUM(AG$34:AG38)</f>
+        <v>0.91</v>
+      </c>
+      <c r="AL38" s="37">
+        <f>SUM($AH$34:AH38)</f>
+        <v>0.41666666666666674</v>
+      </c>
+      <c r="AM38" s="50">
+        <f>SUM($AI$34:AI38)</f>
+        <v>0.8761924687346031</v>
+      </c>
+      <c r="AN38" s="49">
+        <f>SUM($AJ$34:AJ38)</f>
+        <v>0.75416559678016792</v>
+      </c>
+      <c r="AO38" s="55">
+        <f t="shared" si="19"/>
+        <v>0.49333333333333329</v>
+      </c>
+      <c r="AP38" s="56">
+        <f t="shared" si="20"/>
+        <v>3.3807531265396928E-2</v>
+      </c>
+      <c r="AQ38" s="57">
+        <f t="shared" si="21"/>
+        <v>0.15583440321983211</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -4753,8 +5478,78 @@
         <f t="shared" si="0"/>
         <v>0.10229999999999961</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z39" s="16">
+        <v>6</v>
+      </c>
+      <c r="AA39" s="19">
+        <f t="shared" si="22"/>
+        <v>0.34244166666666553</v>
+      </c>
+      <c r="AB39" s="26">
+        <f t="shared" si="11"/>
+        <v>0.41044999999999904</v>
+      </c>
+      <c r="AC39" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD39" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE39" s="19">
+        <f t="shared" si="14"/>
+        <v>7.7328621789494401</v>
+      </c>
+      <c r="AF39" s="26">
+        <f t="shared" si="12"/>
+        <v>11.724753902410434</v>
+      </c>
+      <c r="AG39" s="51">
+        <f t="shared" si="15"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AH39" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI39" s="50">
+        <f t="shared" si="17"/>
+        <v>3.86643108947472E-2</v>
+      </c>
+      <c r="AJ39" s="49">
+        <f t="shared" si="18"/>
+        <v>5.8623769512052171E-2</v>
+      </c>
+      <c r="AK39" s="51">
+        <f>SUM(AG$34:AG39)</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="AL39" s="37">
+        <f>SUM($AH$34:AH39)</f>
+        <v>0.50000000000000011</v>
+      </c>
+      <c r="AM39" s="50">
+        <f>SUM($AI$34:AI39)</f>
+        <v>0.9148567796293503</v>
+      </c>
+      <c r="AN39" s="49">
+        <f>SUM($AJ$34:AJ39)</f>
+        <v>0.81278936629222009</v>
+      </c>
+      <c r="AO39" s="55">
+        <f t="shared" si="19"/>
+        <v>0.42499999999999993</v>
+      </c>
+      <c r="AP39" s="56">
+        <f t="shared" si="20"/>
+        <v>1.0143220370649741E-2</v>
+      </c>
+      <c r="AQ39" s="57">
+        <f t="shared" si="21"/>
+        <v>0.11221063370777995</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -4765,8 +5560,78 @@
         <f t="shared" si="0"/>
         <v>0.10910000000000064</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z40" s="16">
+        <v>7</v>
+      </c>
+      <c r="AA40" s="19">
+        <f t="shared" si="22"/>
+        <v>0.41044999999999904</v>
+      </c>
+      <c r="AB40" s="26">
+        <f t="shared" si="11"/>
+        <v>0.47845833333333254</v>
+      </c>
+      <c r="AC40" s="32">
+        <v>5</v>
+      </c>
+      <c r="AD40" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE40" s="19">
+        <f t="shared" si="14"/>
+        <v>4.9734888669500821</v>
+      </c>
+      <c r="AF40" s="26">
+        <f t="shared" si="12"/>
+        <v>5.2132177343753527</v>
+      </c>
+      <c r="AG40" s="51">
+        <f t="shared" si="15"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AH40" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI40" s="50">
+        <f t="shared" si="17"/>
+        <v>2.486744433475041E-2</v>
+      </c>
+      <c r="AJ40" s="49">
+        <f t="shared" si="18"/>
+        <v>2.6066088671876764E-2</v>
+      </c>
+      <c r="AK40" s="51">
+        <f>SUM(AG$34:AG40)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AL40" s="37">
+        <f>SUM($AH$34:AH40)</f>
+        <v>0.58333333333333348</v>
+      </c>
+      <c r="AM40" s="50">
+        <f>SUM($AI$34:AI40)</f>
+        <v>0.93972422396410071</v>
+      </c>
+      <c r="AN40" s="49">
+        <f>SUM($AJ$34:AJ40)</f>
+        <v>0.83885545496409686</v>
+      </c>
+      <c r="AO40" s="55">
+        <f t="shared" si="19"/>
+        <v>0.36666666666666659</v>
+      </c>
+      <c r="AP40" s="56">
+        <f t="shared" si="20"/>
+        <v>1.0275776035899353E-2</v>
+      </c>
+      <c r="AQ40" s="57">
+        <f t="shared" si="21"/>
+        <v>0.11114454503590321</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -4777,8 +5642,78 @@
         <f t="shared" si="0"/>
         <v>0.32099999999999973</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z41" s="16">
+        <v>8</v>
+      </c>
+      <c r="AA41" s="19">
+        <f t="shared" si="22"/>
+        <v>0.47845833333333254</v>
+      </c>
+      <c r="AB41" s="26">
+        <f t="shared" si="11"/>
+        <v>0.5464666666666661</v>
+      </c>
+      <c r="AC41" s="32">
+        <v>4</v>
+      </c>
+      <c r="AD41" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE41" s="19">
+        <f t="shared" si="14"/>
+        <v>3.1987627526858242</v>
+      </c>
+      <c r="AF41" s="26">
+        <f t="shared" si="12"/>
+        <v>1.8692861164967489</v>
+      </c>
+      <c r="AG41" s="51">
+        <f t="shared" si="15"/>
+        <v>0.02</v>
+      </c>
+      <c r="AH41" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI41" s="50">
+        <f t="shared" si="17"/>
+        <v>1.5993813763429121E-2</v>
+      </c>
+      <c r="AJ41" s="49">
+        <f t="shared" si="18"/>
+        <v>9.3464305824837446E-3</v>
+      </c>
+      <c r="AK41" s="51">
+        <f>SUM(AG$34:AG41)</f>
+        <v>0.97000000000000008</v>
+      </c>
+      <c r="AL41" s="37">
+        <f>SUM($AH$34:AH41)</f>
+        <v>0.66666666666666685</v>
+      </c>
+      <c r="AM41" s="50">
+        <f>SUM($AI$34:AI41)</f>
+        <v>0.95571803772752983</v>
+      </c>
+      <c r="AN41" s="49">
+        <f>SUM($AJ$34:AJ41)</f>
+        <v>0.8482018855465806</v>
+      </c>
+      <c r="AO41" s="55">
+        <f t="shared" si="19"/>
+        <v>0.30333333333333323</v>
+      </c>
+      <c r="AP41" s="56">
+        <f t="shared" si="20"/>
+        <v>1.428196227247025E-2</v>
+      </c>
+      <c r="AQ41" s="57">
+        <f t="shared" si="21"/>
+        <v>0.12179811445341948</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -4789,8 +5724,78 @@
         <f t="shared" si="0"/>
         <v>0.26400000000000023</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z42" s="16">
+        <v>9</v>
+      </c>
+      <c r="AA42" s="19">
+        <f t="shared" si="22"/>
+        <v>0.5464666666666661</v>
+      </c>
+      <c r="AB42" s="26">
+        <f t="shared" si="11"/>
+        <v>0.61447499999999966</v>
+      </c>
+      <c r="AC42" s="32">
+        <v>3</v>
+      </c>
+      <c r="AD42" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE42" s="19">
+        <f t="shared" si="14"/>
+        <v>2.0573250331300752</v>
+      </c>
+      <c r="AF42" s="26">
+        <f t="shared" si="12"/>
+        <v>0.54047782294854851</v>
+      </c>
+      <c r="AG42" s="51">
+        <f t="shared" si="15"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AH42" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI42" s="50">
+        <f t="shared" si="17"/>
+        <v>1.0286625165650376E-2</v>
+      </c>
+      <c r="AJ42" s="49">
+        <f t="shared" si="18"/>
+        <v>2.7023891147427426E-3</v>
+      </c>
+      <c r="AK42" s="51">
+        <f>SUM(AG$34:AG42)</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="AL42" s="37">
+        <f>SUM($AH$34:AH42)</f>
+        <v>0.75000000000000022</v>
+      </c>
+      <c r="AM42" s="50">
+        <f>SUM($AI$34:AI42)</f>
+        <v>0.96600466289318021</v>
+      </c>
+      <c r="AN42" s="49">
+        <f>SUM($AJ$34:AJ42)</f>
+        <v>0.85090427466132335</v>
+      </c>
+      <c r="AO42" s="55">
+        <f t="shared" si="19"/>
+        <v>0.23499999999999988</v>
+      </c>
+      <c r="AP42" s="56">
+        <f t="shared" si="20"/>
+        <v>1.8995337106819887E-2</v>
+      </c>
+      <c r="AQ42" s="57">
+        <f t="shared" si="21"/>
+        <v>0.13409572533867675</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -4801,8 +5806,78 @@
         <f t="shared" si="0"/>
         <v>0.16809999999999992</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z43" s="16">
+        <v>10</v>
+      </c>
+      <c r="AA43" s="19">
+        <f t="shared" si="22"/>
+        <v>0.61447499999999966</v>
+      </c>
+      <c r="AB43" s="26">
+        <f t="shared" si="11"/>
+        <v>0.68248333333333322</v>
+      </c>
+      <c r="AC43" s="32">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE43" s="19">
+        <f t="shared" si="14"/>
+        <v>1.3231948159924789</v>
+      </c>
+      <c r="AF43" s="26">
+        <f t="shared" si="12"/>
+        <v>0.12600004497127504</v>
+      </c>
+      <c r="AG43" s="51">
+        <f t="shared" si="15"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AH43" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI43" s="50">
+        <f t="shared" si="17"/>
+        <v>6.6159740799623945E-3</v>
+      </c>
+      <c r="AJ43" s="49">
+        <f t="shared" si="18"/>
+        <v>6.3000022485637519E-4</v>
+      </c>
+      <c r="AK43" s="51">
+        <f>SUM(AG$34:AG43)</f>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="AL43" s="37">
+        <f>SUM($AH$34:AH43)</f>
+        <v>0.83333333333333359</v>
+      </c>
+      <c r="AM43" s="50">
+        <f>SUM($AI$34:AI43)</f>
+        <v>0.9726206369731426</v>
+      </c>
+      <c r="AN43" s="49">
+        <f>SUM($AJ$34:AJ43)</f>
+        <v>0.85153427488617972</v>
+      </c>
+      <c r="AO43" s="55">
+        <f t="shared" si="19"/>
+        <v>0.15666666666666651</v>
+      </c>
+      <c r="AP43" s="56">
+        <f t="shared" si="20"/>
+        <v>1.7379363026857497E-2</v>
+      </c>
+      <c r="AQ43" s="57">
+        <f t="shared" si="21"/>
+        <v>0.13846572511382038</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -4813,8 +5888,78 @@
         <f t="shared" si="0"/>
         <v>4.3099999999999916E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z44" s="16">
+        <v>11</v>
+      </c>
+      <c r="AA44" s="19">
+        <f t="shared" si="22"/>
+        <v>0.68248333333333322</v>
+      </c>
+      <c r="AB44" s="26">
+        <f t="shared" si="11"/>
+        <v>0.75049166666666678</v>
+      </c>
+      <c r="AC44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="37">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE44" s="19">
+        <f t="shared" si="14"/>
+        <v>0.85102961023399981</v>
+      </c>
+      <c r="AF44" s="26">
+        <f t="shared" si="12"/>
+        <v>2.3681419625742883E-2</v>
+      </c>
+      <c r="AG44" s="51">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AH44" s="37">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI44" s="50">
+        <f t="shared" si="17"/>
+        <v>4.2551480511699991E-3</v>
+      </c>
+      <c r="AJ44" s="49">
+        <f t="shared" si="18"/>
+        <v>1.1840709812871442E-4</v>
+      </c>
+      <c r="AK44" s="51">
+        <f>SUM(AG$34:AG44)</f>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="AL44" s="37">
+        <f>SUM($AH$34:AH44)</f>
+        <v>0.91666666666666696</v>
+      </c>
+      <c r="AM44" s="50">
+        <f>SUM($AI$34:AI44)</f>
+        <v>0.9768757850243126</v>
+      </c>
+      <c r="AN44" s="49">
+        <f>SUM($AJ$34:AJ44)</f>
+        <v>0.85165268198430844</v>
+      </c>
+      <c r="AO44" s="55">
+        <f t="shared" si="19"/>
+        <v>7.3333333333333139E-2</v>
+      </c>
+      <c r="AP44" s="56">
+        <f t="shared" si="20"/>
+        <v>1.3124214975687498E-2</v>
+      </c>
+      <c r="AQ44" s="57">
+        <f t="shared" si="21"/>
+        <v>0.13834731801569167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>39</v>
       </c>
@@ -4825,8 +5970,78 @@
         <f t="shared" si="0"/>
         <v>0.22189999999999976</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Z45" s="27">
+        <v>12</v>
+      </c>
+      <c r="AA45" s="28">
+        <f t="shared" si="22"/>
+        <v>0.75049166666666678</v>
+      </c>
+      <c r="AB45" s="29">
+        <f t="shared" si="11"/>
+        <v>0.81850000000000034</v>
+      </c>
+      <c r="AC45" s="33">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="38">
+        <f t="shared" si="13"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="AE45" s="28">
+        <f t="shared" si="14"/>
+        <v>0.54735054032977182</v>
+      </c>
+      <c r="AF45" s="29">
+        <f t="shared" si="12"/>
+        <v>3.5878828876123592E-3</v>
+      </c>
+      <c r="AG45" s="52">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="AH45" s="38">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333343E-2</v>
+      </c>
+      <c r="AI45" s="53">
+        <f t="shared" si="17"/>
+        <v>2.7367527016488591E-3</v>
+      </c>
+      <c r="AJ45" s="54">
+        <f t="shared" si="18"/>
+        <v>1.7939414438061796E-5</v>
+      </c>
+      <c r="AK45" s="52">
+        <f>SUM(AG$34:AG45)</f>
+        <v>1</v>
+      </c>
+      <c r="AL45" s="38">
+        <f>SUM($AH$34:AH45)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AM45" s="53">
+        <f>SUM($AI$34:AI45)</f>
+        <v>0.97961253772596146</v>
+      </c>
+      <c r="AN45" s="54">
+        <f>SUM($AJ$34:AJ45)</f>
+        <v>0.8516706213987465</v>
+      </c>
+      <c r="AO45" s="59">
+        <f t="shared" si="19"/>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="AP45" s="60">
+        <f t="shared" si="20"/>
+        <v>2.0387462274038537E-2</v>
+      </c>
+      <c r="AQ45" s="61">
+        <f t="shared" si="21"/>
+        <v>0.1483293786012535</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -4837,8 +6052,56 @@
         <f t="shared" si="0"/>
         <v>7.6000000000000512E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AC46" s="1">
+        <f t="shared" ref="AC46:AF46" si="23">SUM(AC34:AC45)</f>
+        <v>200</v>
+      </c>
+      <c r="AD46" s="12">
+        <f t="shared" si="23"/>
+        <v>199.99999999999997</v>
+      </c>
+      <c r="AE46" s="12">
+        <f t="shared" si="23"/>
+        <v>195.92250754519227</v>
+      </c>
+      <c r="AF46" s="12">
+        <f t="shared" si="23"/>
+        <v>170.33412427974932</v>
+      </c>
+      <c r="AG46" s="12">
+        <f>SUM(AG34:AG45)</f>
+        <v>1</v>
+      </c>
+      <c r="AH46" s="12">
+        <f>SUM(AH34:AH45)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AI46" s="11">
+        <f>SUM(AI34:AI45)</f>
+        <v>0.97961253772596146</v>
+      </c>
+      <c r="AJ46" s="11">
+        <f>SUM(AJ34:AJ45)</f>
+        <v>0.8516706213987465</v>
+      </c>
+      <c r="AM46" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AN46" s="77"/>
+      <c r="AO46" s="58">
+        <f>+MAX(AO34:AO45)</f>
+        <v>0.52166666666666661</v>
+      </c>
+      <c r="AP46" s="63">
+        <f>+MAX(AP34:AP45)</f>
+        <v>3.8923436898555153E-2</v>
+      </c>
+      <c r="AQ46" s="63">
+        <f>+MAX(AQ34:AQ45)</f>
+        <v>0.25626059320861705</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>41</v>
       </c>
@@ -4852,8 +6115,10 @@
       <c r="N47" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AI47" s="11"/>
+      <c r="AJ47" s="11"/>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -4868,7 +6133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43</v>
       </c>
@@ -4879,8 +6144,14 @@
         <f t="shared" si="0"/>
         <v>0.56550000000000011</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AM49" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN49" s="62">
+        <v>0.39122000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44</v>
       </c>
@@ -4892,7 +6163,7 @@
         <v>0.16979999999999951</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45</v>
       </c>
@@ -4903,8 +6174,23 @@
         <f t="shared" si="0"/>
         <v>0.56939999999999991</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AG51" s="8"/>
+      <c r="AH51" s="8"/>
+      <c r="AI51" s="8"/>
+      <c r="AJ51" s="8"/>
+      <c r="AK51" s="8"/>
+      <c r="AL51" s="8"/>
+      <c r="AM51" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN51" s="8"/>
+      <c r="AO51" s="8"/>
+      <c r="AP51" s="8"/>
+      <c r="AQ51" s="8"/>
+      <c r="AR51" s="8"/>
+      <c r="AS51" s="8"/>
+    </row>
+    <row r="52" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>46</v>
       </c>
@@ -4916,7 +6202,7 @@
         <v>0.35400000000000098</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>47</v>
       </c>
@@ -4928,7 +6214,7 @@
         <v>0.1227999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>48</v>
       </c>
@@ -4939,8 +6225,9 @@
         <f t="shared" si="0"/>
         <v>1.9899999999999807E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AJ54" s="3"/>
+    </row>
+    <row r="55" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>49</v>
       </c>
@@ -4952,7 +6239,7 @@
         <v>0.26039999999999885</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>50</v>
       </c>
@@ -4964,7 +6251,7 @@
         <v>0.36810000000000009</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>51</v>
       </c>
@@ -4976,7 +6263,7 @@
         <v>0.21590000000000131</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>52</v>
       </c>
@@ -4988,7 +6275,7 @@
         <v>0.25539999999999985</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>53</v>
       </c>
@@ -5000,7 +6287,7 @@
         <v>0.32729999999999926</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>54</v>
       </c>
@@ -5012,7 +6299,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>55</v>
       </c>
@@ -5024,7 +6311,7 @@
         <v>1.7400000000000304E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>56</v>
       </c>
@@ -5036,7 +6323,7 @@
         <v>0.14869999999999983</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>57</v>
       </c>
@@ -5048,7 +6335,7 @@
         <v>0.30620000000000047</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>58</v>
       </c>
@@ -5164,7 +6451,7 @@
         <v>12.8712</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" ref="C73:C136" si="11">B73-B72</f>
+        <f t="shared" ref="C73:C136" si="24">B73-B72</f>
         <v>0.5237999999999996</v>
       </c>
     </row>
@@ -5176,7 +6463,7 @@
         <v>13.0892</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.21799999999999997</v>
       </c>
     </row>
@@ -5188,7 +6475,7 @@
         <v>13.3156</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.22639999999999993</v>
       </c>
     </row>
@@ -5200,7 +6487,7 @@
         <v>13.3592</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.3599999999999639E-2</v>
       </c>
     </row>
@@ -5212,7 +6499,7 @@
         <v>13.3995</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.0300000000000225E-2</v>
       </c>
     </row>
@@ -5224,7 +6511,7 @@
         <v>13.5243</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.12480000000000047</v>
       </c>
     </row>
@@ -5236,7 +6523,7 @@
         <v>13.6431</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.11880000000000024</v>
       </c>
     </row>
@@ -5248,7 +6535,7 @@
         <v>13.7277</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.4600000000000009E-2</v>
       </c>
     </row>
@@ -5260,7 +6547,7 @@
         <v>13.7567</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.8999999999999915E-2</v>
       </c>
     </row>
@@ -5272,7 +6559,7 @@
         <v>13.8344</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.7700000000000102E-2</v>
       </c>
     </row>
@@ -5284,7 +6571,7 @@
         <v>14.1579</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.32349999999999923</v>
       </c>
     </row>
@@ -5296,7 +6583,7 @@
         <v>14.2773</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.11940000000000062</v>
       </c>
     </row>
@@ -5308,7 +6595,7 @@
         <v>14.4572</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.17989999999999995</v>
       </c>
     </row>
@@ -5320,7 +6607,7 @@
         <v>14.7019</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.24469999999999992</v>
       </c>
     </row>
@@ -5332,7 +6619,7 @@
         <v>14.8863</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.18440000000000012</v>
       </c>
     </row>
@@ -5344,7 +6631,7 @@
         <v>14.895099999999999</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.7999999999990308E-3</v>
       </c>
     </row>
@@ -5356,7 +6643,7 @@
         <v>14.9346</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.9500000000000313E-2</v>
       </c>
     </row>
@@ -5368,7 +6655,7 @@
         <v>14.976800000000001</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.2200000000001125E-2</v>
       </c>
     </row>
@@ -5380,7 +6667,7 @@
         <v>15.200900000000001</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.22409999999999997</v>
       </c>
     </row>
@@ -5392,7 +6679,7 @@
         <v>15.3408</v>
       </c>
       <c r="C92" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.13989999999999903</v>
       </c>
     </row>
@@ -5404,7 +6691,7 @@
         <v>15.3446</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.8000000000000256E-3</v>
       </c>
     </row>
@@ -5416,7 +6703,7 @@
         <v>15.4138</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.9200000000000372E-2</v>
       </c>
     </row>
@@ -5428,7 +6715,7 @@
         <v>15.9086</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.49479999999999968</v>
       </c>
     </row>
@@ -5440,7 +6727,7 @@
         <v>15.911799999999999</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>3.1999999999996476E-3</v>
       </c>
     </row>
@@ -5452,7 +6739,7 @@
         <v>15.932600000000001</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.0800000000001262E-2</v>
       </c>
     </row>
@@ -5464,7 +6751,7 @@
         <v>15.95</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.7399999999998528E-2</v>
       </c>
     </row>
@@ -5476,7 +6763,7 @@
         <v>16.0871</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.13710000000000022</v>
       </c>
     </row>
@@ -5488,7 +6775,7 @@
         <v>16.1433</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.6200000000000472E-2</v>
       </c>
     </row>
@@ -5500,7 +6787,7 @@
         <v>16.351099999999999</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.20779999999999887</v>
       </c>
     </row>
@@ -5512,7 +6799,7 @@
         <v>16.3612</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.010000000000133E-2</v>
       </c>
     </row>
@@ -5524,7 +6811,7 @@
         <v>16.541399999999999</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.18019999999999925</v>
       </c>
     </row>
@@ -5536,7 +6823,7 @@
         <v>16.730499999999999</v>
       </c>
       <c r="C104" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.18909999999999982</v>
       </c>
     </row>
@@ -5548,7 +6835,7 @@
         <v>16.869199999999999</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.13870000000000005</v>
       </c>
     </row>
@@ -5560,7 +6847,7 @@
         <v>16.9467</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.7500000000000568E-2</v>
       </c>
     </row>
@@ -5572,7 +6859,7 @@
         <v>17.0535</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.10679999999999978</v>
       </c>
     </row>
@@ -5584,7 +6871,7 @@
         <v>17.109300000000001</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.5800000000001404E-2</v>
       </c>
     </row>
@@ -5596,7 +6883,7 @@
         <v>17.1557</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.6399999999998442E-2</v>
       </c>
     </row>
@@ -5608,7 +6895,7 @@
         <v>17.2776</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.12190000000000012</v>
       </c>
     </row>
@@ -5620,7 +6907,7 @@
         <v>18.0961</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.81850000000000023</v>
       </c>
     </row>
@@ -5632,7 +6919,7 @@
         <v>18.297599999999999</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.20149999999999935</v>
       </c>
     </row>
@@ -5644,7 +6931,7 @@
         <v>18.343499999999999</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.5899999999999608E-2</v>
       </c>
     </row>
@@ -5656,7 +6943,7 @@
         <v>18.386199999999999</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>4.269999999999996E-2</v>
       </c>
     </row>
@@ -5668,7 +6955,7 @@
         <v>18.5581</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.17190000000000083</v>
       </c>
     </row>
@@ -5680,7 +6967,7 @@
         <v>18.767600000000002</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.20950000000000202</v>
       </c>
     </row>
@@ -5692,7 +6979,7 @@
         <v>18.899999999999999</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.13239999999999696</v>
       </c>
     </row>
@@ -5704,7 +6991,7 @@
         <v>18.987100000000002</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>8.7100000000003064E-2</v>
       </c>
     </row>
@@ -5716,7 +7003,7 @@
         <v>19.084199999999999</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>9.7099999999997522E-2</v>
       </c>
     </row>
@@ -5728,7 +7015,7 @@
         <v>19.112300000000001</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.8100000000002012E-2</v>
       </c>
     </row>
@@ -5740,7 +7027,7 @@
         <v>19.239000000000001</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.12669999999999959</v>
       </c>
     </row>
@@ -5752,7 +7039,7 @@
         <v>19.301600000000001</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.2599999999999767E-2</v>
       </c>
     </row>
@@ -5764,7 +7051,7 @@
         <v>19.458200000000001</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.15660000000000096</v>
       </c>
     </row>
@@ -5776,7 +7063,7 @@
         <v>19.519500000000001</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.1299999999999244E-2</v>
       </c>
     </row>
@@ -5788,7 +7075,7 @@
         <v>19.908300000000001</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.38879999999999981</v>
       </c>
     </row>
@@ -5800,7 +7087,7 @@
         <v>19.910699999999999</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.3999999999979593E-3</v>
       </c>
     </row>
@@ -5812,7 +7099,7 @@
         <v>20.010400000000001</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>9.970000000000212E-2</v>
       </c>
     </row>
@@ -5824,7 +7111,7 @@
         <v>20.0732</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>6.2799999999999301E-2</v>
       </c>
     </row>
@@ -5836,7 +7123,7 @@
         <v>20.164100000000001</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>9.0900000000001313E-2</v>
       </c>
     </row>
@@ -5848,7 +7135,7 @@
         <v>20.3354</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.17129999999999868</v>
       </c>
     </row>
@@ -5860,7 +7147,7 @@
         <v>20.449300000000001</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.113900000000001</v>
       </c>
     </row>
@@ -5872,7 +7159,7 @@
         <v>20.5015</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>5.2199999999999136E-2</v>
       </c>
     </row>
@@ -5884,7 +7171,7 @@
         <v>20.524799999999999</v>
       </c>
       <c r="C133" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>2.3299999999998988E-2</v>
       </c>
     </row>
@@ -5896,7 +7183,7 @@
         <v>20.543900000000001</v>
       </c>
       <c r="C134" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>1.9100000000001671E-2</v>
       </c>
     </row>
@@ -5908,7 +7195,7 @@
         <v>20.616599999999998</v>
       </c>
       <c r="C135" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>7.2699999999997544E-2</v>
       </c>
     </row>
@@ -5920,7 +7207,7 @@
         <v>20.718900000000001</v>
       </c>
       <c r="C136" s="7">
-        <f t="shared" si="11"/>
+        <f t="shared" si="24"/>
         <v>0.10230000000000317</v>
       </c>
     </row>
@@ -5932,7 +7219,7 @@
         <v>20.7697</v>
       </c>
       <c r="C137" s="7">
-        <f t="shared" ref="C137:C200" si="12">B137-B136</f>
+        <f t="shared" ref="C137:C200" si="25">B137-B136</f>
         <v>5.0799999999998846E-2</v>
       </c>
     </row>
@@ -5944,7 +7231,7 @@
         <v>20.921399999999998</v>
       </c>
       <c r="C138" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.15169999999999817</v>
       </c>
     </row>
@@ -5956,7 +7243,7 @@
         <v>20.960999999999999</v>
       </c>
       <c r="C139" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.960000000000008E-2</v>
       </c>
     </row>
@@ -5968,7 +7255,7 @@
         <v>21.066099999999999</v>
       </c>
       <c r="C140" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.10510000000000019</v>
       </c>
     </row>
@@ -5980,7 +7267,7 @@
         <v>21.320499999999999</v>
       </c>
       <c r="C141" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.2544000000000004</v>
       </c>
     </row>
@@ -5992,7 +7279,7 @@
         <v>21.3521</v>
       </c>
       <c r="C142" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.1600000000000961E-2</v>
       </c>
     </row>
@@ -6004,7 +7291,7 @@
         <v>21.520399999999999</v>
       </c>
       <c r="C143" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.16829999999999856</v>
       </c>
     </row>
@@ -6016,7 +7303,7 @@
         <v>21.572399999999998</v>
       </c>
       <c r="C144" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.1999999999999602E-2</v>
       </c>
     </row>
@@ -6028,7 +7315,7 @@
         <v>21.700199999999999</v>
       </c>
       <c r="C145" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.12780000000000058</v>
       </c>
     </row>
@@ -6040,7 +7327,7 @@
         <v>22.133600000000001</v>
       </c>
       <c r="C146" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.43340000000000245</v>
       </c>
     </row>
@@ -6052,7 +7339,7 @@
         <v>22.188600000000001</v>
       </c>
       <c r="C147" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.4999999999999716E-2</v>
       </c>
     </row>
@@ -6064,7 +7351,7 @@
         <v>22.324000000000002</v>
       </c>
       <c r="C148" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.13540000000000063</v>
       </c>
     </row>
@@ -6076,7 +7363,7 @@
         <v>22.4361</v>
       </c>
       <c r="C149" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.11209999999999809</v>
       </c>
     </row>
@@ -6088,7 +7375,7 @@
         <v>22.618300000000001</v>
       </c>
       <c r="C150" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.18220000000000169</v>
       </c>
     </row>
@@ -6100,7 +7387,7 @@
         <v>22.743500000000001</v>
       </c>
       <c r="C151" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.12519999999999953</v>
       </c>
     </row>
@@ -6112,7 +7399,7 @@
         <v>23.077999999999999</v>
       </c>
       <c r="C152" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.33449999999999847</v>
       </c>
     </row>
@@ -6124,7 +7411,7 @@
         <v>23.161999999999999</v>
       </c>
       <c r="C153" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.3999999999999631E-2</v>
       </c>
     </row>
@@ -6136,7 +7423,7 @@
         <v>23.349699999999999</v>
       </c>
       <c r="C154" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.18769999999999953</v>
       </c>
     </row>
@@ -6148,7 +7435,7 @@
         <v>23.564</v>
       </c>
       <c r="C155" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.21430000000000149</v>
       </c>
     </row>
@@ -6160,7 +7447,7 @@
         <v>23.596299999999999</v>
       </c>
       <c r="C156" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.2299999999999329E-2</v>
       </c>
     </row>
@@ -6172,7 +7459,7 @@
         <v>24.088699999999999</v>
       </c>
       <c r="C157" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.49239999999999995</v>
       </c>
     </row>
@@ -6184,7 +7471,7 @@
         <v>24.5139</v>
       </c>
       <c r="C158" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.42520000000000024</v>
       </c>
     </row>
@@ -6196,7 +7483,7 @@
         <v>24.665900000000001</v>
       </c>
       <c r="C159" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.15200000000000102</v>
       </c>
     </row>
@@ -6208,7 +7495,7 @@
         <v>24.733699999999999</v>
       </c>
       <c r="C160" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.7799999999998306E-2</v>
       </c>
     </row>
@@ -6220,7 +7507,7 @@
         <v>24.773</v>
       </c>
       <c r="C161" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.9300000000000779E-2</v>
       </c>
     </row>
@@ -6232,7 +7519,7 @@
         <v>24.937799999999999</v>
       </c>
       <c r="C162" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.16479999999999961</v>
       </c>
     </row>
@@ -6244,7 +7531,7 @@
         <v>25.150200000000002</v>
       </c>
       <c r="C163" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.21240000000000236</v>
       </c>
     </row>
@@ -6256,7 +7543,7 @@
         <v>25.299399999999999</v>
       </c>
       <c r="C164" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.14919999999999689</v>
       </c>
     </row>
@@ -6268,7 +7555,7 @@
         <v>25.482800000000001</v>
       </c>
       <c r="C165" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.18340000000000245</v>
       </c>
     </row>
@@ -6280,7 +7567,7 @@
         <v>25.523499999999999</v>
       </c>
       <c r="C166" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.0699999999997516E-2</v>
       </c>
     </row>
@@ -6292,7 +7579,7 @@
         <v>25.545300000000001</v>
       </c>
       <c r="C167" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.1800000000002484E-2</v>
       </c>
     </row>
@@ -6304,7 +7591,7 @@
         <v>25.599399999999999</v>
       </c>
       <c r="C168" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.4099999999998261E-2</v>
       </c>
     </row>
@@ -6316,7 +7603,7 @@
         <v>25.652100000000001</v>
       </c>
       <c r="C169" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>5.2700000000001523E-2</v>
       </c>
     </row>
@@ -6328,7 +7615,7 @@
         <v>25.723400000000002</v>
       </c>
       <c r="C170" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>7.1300000000000807E-2</v>
       </c>
     </row>
@@ -6340,7 +7627,7 @@
         <v>25.805399999999999</v>
       </c>
       <c r="C171" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.1999999999997186E-2</v>
       </c>
     </row>
@@ -6352,7 +7639,7 @@
         <v>25.9407</v>
       </c>
       <c r="C172" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.13530000000000086</v>
       </c>
     </row>
@@ -6364,7 +7651,7 @@
         <v>26.118500000000001</v>
       </c>
       <c r="C173" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.17780000000000129</v>
       </c>
     </row>
@@ -6376,7 +7663,7 @@
         <v>26.155899999999999</v>
       </c>
       <c r="C174" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>3.7399999999998101E-2</v>
       </c>
     </row>
@@ -6388,7 +7675,7 @@
         <v>26.2241</v>
       </c>
       <c r="C175" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.8200000000000927E-2</v>
       </c>
     </row>
@@ -6400,7 +7687,7 @@
         <v>26.4391</v>
       </c>
       <c r="C176" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.21499999999999986</v>
       </c>
     </row>
@@ -6412,7 +7699,7 @@
         <v>26.482800000000001</v>
       </c>
       <c r="C177" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.3700000000001182E-2</v>
       </c>
     </row>
@@ -6424,7 +7711,7 @@
         <v>26.628699999999998</v>
       </c>
       <c r="C178" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.14589999999999748</v>
       </c>
     </row>
@@ -6436,7 +7723,7 @@
         <v>26.910599999999999</v>
       </c>
       <c r="C179" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.28190000000000026</v>
       </c>
     </row>
@@ -6448,7 +7735,7 @@
         <v>27.364999999999998</v>
       </c>
       <c r="C180" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.45439999999999969</v>
       </c>
     </row>
@@ -6460,7 +7747,7 @@
         <v>27.625800000000002</v>
       </c>
       <c r="C181" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.26080000000000325</v>
       </c>
     </row>
@@ -6472,7 +7759,7 @@
         <v>27.8855</v>
       </c>
       <c r="C182" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.25969999999999871</v>
       </c>
     </row>
@@ -6484,7 +7771,7 @@
         <v>28.521799999999999</v>
       </c>
       <c r="C183" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.63629999999999853</v>
       </c>
     </row>
@@ -6496,7 +7783,7 @@
         <v>28.7502</v>
       </c>
       <c r="C184" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.2284000000000006</v>
       </c>
     </row>
@@ -6508,7 +7795,7 @@
         <v>28.768699999999999</v>
       </c>
       <c r="C185" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.8499999999999517E-2</v>
       </c>
     </row>
@@ -6520,7 +7807,7 @@
         <v>29.1052</v>
       </c>
       <c r="C186" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.33650000000000091</v>
       </c>
     </row>
@@ -6532,7 +7819,7 @@
         <v>29.107700000000001</v>
       </c>
       <c r="C187" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.500000000001279E-3</v>
       </c>
     </row>
@@ -6544,7 +7831,7 @@
         <v>29.281400000000001</v>
       </c>
       <c r="C188" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.17370000000000019</v>
       </c>
     </row>
@@ -6556,7 +7843,7 @@
         <v>29.480499999999999</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.19909999999999783</v>
       </c>
     </row>
@@ -6568,7 +7855,7 @@
         <v>29.633900000000001</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.15340000000000131</v>
       </c>
     </row>
@@ -6580,7 +7867,7 @@
         <v>29.698799999999999</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.4899999999997959E-2</v>
       </c>
     </row>
@@ -6592,7 +7879,7 @@
         <v>29.766999999999999</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>6.8200000000000927E-2</v>
       </c>
     </row>
@@ -6604,7 +7891,7 @@
         <v>29.779599999999999</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.2599999999999056E-2</v>
       </c>
     </row>
@@ -6616,7 +7903,7 @@
         <v>29.939699999999998</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.16009999999999991</v>
       </c>
     </row>
@@ -6628,7 +7915,7 @@
         <v>30.195499999999999</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.25580000000000069</v>
       </c>
     </row>
@@ -6640,7 +7927,7 @@
         <v>30.216000000000001</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>2.0500000000001961E-2</v>
       </c>
     </row>
@@ -6652,7 +7939,7 @@
         <v>30.23</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>1.3999999999999346E-2</v>
       </c>
     </row>
@@ -6664,7 +7951,7 @@
         <v>31.0274</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>0.79739999999999966</v>
       </c>
     </row>
@@ -6676,7 +7963,7 @@
         <v>31.067499999999999</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>4.0099999999998914E-2</v>
       </c>
     </row>
@@ -6688,7 +7975,7 @@
         <v>31.148599999999998</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="25"/>
         <v>8.1099999999999284E-2</v>
       </c>
     </row>
@@ -6700,7 +7987,7 @@
         <v>31.4559</v>
       </c>
       <c r="C201" s="7">
-        <f t="shared" ref="C201:C207" si="13">B201-B200</f>
+        <f t="shared" ref="C201:C207" si="26">B201-B200</f>
         <v>0.30730000000000146</v>
       </c>
     </row>
@@ -6712,7 +7999,7 @@
         <v>31.644500000000001</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.18860000000000099</v>
       </c>
     </row>
@@ -6724,7 +8011,7 @@
         <v>31.726900000000001</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>8.2399999999999807E-2</v>
       </c>
       <c r="F203" s="1">
@@ -6740,7 +8027,7 @@
         <v>31.801100000000002</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>7.4200000000001154E-2</v>
       </c>
     </row>
@@ -6752,7 +8039,7 @@
         <v>31.9529</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.15179999999999794</v>
       </c>
     </row>
@@ -6764,7 +8051,7 @@
         <v>31.967199999999998</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>1.4299999999998647E-2</v>
       </c>
     </row>
@@ -6776,7 +8063,7 @@
         <v>32.095700000000001</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="26"/>
         <v>0.1285000000000025</v>
       </c>
     </row>
@@ -6791,10 +8078,15 @@
       <c r="C209" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AO32:AQ32"/>
+    <mergeCell ref="AM46:AN46"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="U10:W10"/>
+    <mergeCell ref="Z32:AB32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6804,13 +8096,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E0A227D-8E82-40F0-97F9-ED96EBB6D8C4}">
-  <dimension ref="A2:AB399"/>
+  <dimension ref="A2:AR399"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Z14" sqref="Z14"/>
+    <sheetView tabSelected="1" topLeftCell="Y45" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AK57" sqref="AK57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
@@ -6821,8 +8113,8 @@
     <col min="9" max="15" width="11.42578125" style="1"/>
     <col min="16" max="16" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="11.42578125" style="1"/>
     <col min="25" max="25" width="12.7109375" style="1" customWidth="1"/>
     <col min="26" max="16384" width="11.42578125" style="1"/>
@@ -6858,11 +8150,11 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="42"/>
+      <c r="B6" s="78"/>
+      <c r="C6" s="78"/>
       <c r="F6" s="6" t="s">
         <v>3</v>
       </c>
@@ -6896,7 +8188,7 @@
         <v>27</v>
       </c>
       <c r="O7" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>44</v>
@@ -6937,14 +8229,14 @@
       </c>
       <c r="O8" s="11">
         <f>(_Valor_Max-_Valor_Min)/_intervalos</f>
-        <v>6.3725000000000406E-2</v>
+        <v>6.9518181818182256E-2</v>
       </c>
       <c r="W8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="Y8" s="1">
         <f>_intervalos-1</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6984,11 +8276,11 @@
         <f>_xlfn.VAR.S(C8:C207)</f>
         <v>1.8776674403015198E-2</v>
       </c>
-      <c r="N10" s="43" t="s">
+      <c r="N10" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="44"/>
-      <c r="P10" s="45"/>
+      <c r="O10" s="72"/>
+      <c r="P10" s="73"/>
       <c r="Q10" s="30" t="s">
         <v>33</v>
       </c>
@@ -6997,11 +8289,11 @@
         <v>35</v>
       </c>
       <c r="T10" s="36"/>
-      <c r="U10" s="43" t="s">
+      <c r="U10" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="V10" s="44"/>
-      <c r="W10" s="45"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="73"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -7064,7 +8356,7 @@
       </c>
       <c r="M12" s="12">
         <f>(P12+O12)/2</f>
-        <v>3.2862499999997873E-2</v>
+        <v>3.5759090909088798E-2</v>
       </c>
       <c r="N12" s="16">
         <v>1</v>
@@ -7075,35 +8367,35 @@
       </c>
       <c r="P12" s="26">
         <f t="shared" ref="P12" si="1">O12+_pasos</f>
-        <v>6.4724999999998076E-2</v>
+        <v>7.0518181818179926E-2</v>
       </c>
       <c r="Q12" s="32">
         <f t="array" ref="Q12:Q23">FREQUENCY(_muestra,_limSup)</f>
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="R12" s="37">
         <f t="shared" ref="R12:R23" si="2">_tamañoMuestra/_intervalos</f>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S12" s="19">
         <f t="shared" ref="S12:S23" si="3">(_xlfn.EXPON.DIST(P12,_DistrExpLambda,1)-_xlfn.EXPON.DIST(O12,_DistrExpLambda,1))*_tamañoMuestra</f>
-        <v>75.157148279360371</v>
+        <v>80.378891771468048</v>
       </c>
       <c r="T12" s="26">
         <f t="shared" ref="T12:T23" si="4">(_xlfn.NORM.DIST(P12,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(O12,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
-        <v>28.151858866480651</v>
+        <v>31.152157594463205</v>
       </c>
       <c r="U12" s="37">
         <f>(R12-Q12)^2/R12</f>
-        <v>233.12666666666661</v>
+        <v>231.07681818181814</v>
       </c>
       <c r="V12" s="19">
         <f>(S12-Q12)^2/S12</f>
-        <v>0.19648842039524814</v>
+        <v>8.5472792598474387E-2</v>
       </c>
       <c r="W12" s="26">
         <f>(T12-Q12)^2/T12</f>
-        <v>91.842370658258702</v>
+        <v>86.292538613349961</v>
       </c>
     </row>
     <row r="13" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7119,45 +8411,45 @@
       </c>
       <c r="M13" s="12">
         <f t="shared" ref="M13:M23" si="5">(P13+O13)/2</f>
-        <v>9.6587499999998272E-2</v>
+        <v>0.10527727272727105</v>
       </c>
       <c r="N13" s="16">
         <v>2</v>
       </c>
       <c r="O13" s="19">
         <f>P12</f>
-        <v>6.4724999999998076E-2</v>
+        <v>7.0518181818179926E-2</v>
       </c>
       <c r="P13" s="26">
         <f t="shared" ref="P13:P23" si="6">O13+_pasos</f>
-        <v>0.12844999999999848</v>
+        <v>0.14003636363636218</v>
       </c>
       <c r="Q13" s="32">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R13" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S13" s="19">
         <f t="shared" si="3"/>
-        <v>46.70250675763382</v>
+        <v>47.832971179502579</v>
       </c>
       <c r="T13" s="26">
         <f t="shared" si="4"/>
-        <v>35.456598070975687</v>
+        <v>39.200763264172011</v>
       </c>
       <c r="U13" s="37">
         <f t="shared" ref="U13:U23" si="7">(R13-Q13)^2/R13</f>
-        <v>62.726666666666645</v>
+        <v>62.901818181818157</v>
       </c>
       <c r="V13" s="19">
         <f t="shared" ref="V13:V23" si="8">(S13-Q13)^2/S13</f>
-        <v>0.11302338065301948</v>
+        <v>0.3630159022673678</v>
       </c>
       <c r="W13" s="26">
         <f t="shared" ref="W13:W23" si="9">(T13-Q13)^2/T13</f>
-        <v>5.1731904861241542</v>
+        <v>4.1790120237147095</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
@@ -7182,52 +8474,52 @@
       <c r="L14" s="15"/>
       <c r="M14" s="12">
         <f t="shared" si="5"/>
-        <v>0.16031249999999869</v>
+        <v>0.17479545454545331</v>
       </c>
       <c r="N14" s="16">
         <v>3</v>
       </c>
       <c r="O14" s="19">
         <f t="shared" ref="O14:O23" si="10">P13</f>
-        <v>0.12844999999999848</v>
+        <v>0.14003636363636218</v>
       </c>
       <c r="P14" s="26">
         <f t="shared" si="6"/>
-        <v>0.19217499999999887</v>
+        <v>0.20955454545454444</v>
       </c>
       <c r="Q14" s="32">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R14" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S14" s="19">
         <f t="shared" si="3"/>
-        <v>29.020847482658052</v>
+        <v>28.46509924974221</v>
       </c>
       <c r="T14" s="26">
         <f t="shared" si="4"/>
-        <v>36.111024674595335</v>
+        <v>38.343851778483781</v>
       </c>
       <c r="U14" s="37">
         <f t="shared" si="7"/>
-        <v>7.7066666666666652</v>
+        <v>3.36181818181818</v>
       </c>
       <c r="V14" s="19">
         <f t="shared" si="8"/>
-        <v>3.5909688146496262E-2</v>
+        <v>0.21347947034242773</v>
       </c>
       <c r="W14" s="26">
         <f t="shared" si="9"/>
-        <v>1.8218458729634925</v>
+        <v>3.9737968321345924</v>
       </c>
       <c r="Y14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="Z14" s="46">
+      <c r="Z14" s="45">
         <f>_xlfn.CHISQ.INV.RT(_alfa,_gradoDeLibertad)</f>
-        <v>19.675137572682498</v>
+        <v>18.307038053275146</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
@@ -7252,45 +8544,45 @@
       <c r="L15" s="17"/>
       <c r="M15" s="12">
         <f t="shared" si="5"/>
-        <v>0.22403749999999908</v>
+        <v>0.24431363636363557</v>
       </c>
       <c r="N15" s="16">
         <v>4</v>
       </c>
       <c r="O15" s="19">
         <f t="shared" si="10"/>
-        <v>0.19217499999999887</v>
+        <v>0.20955454545454444</v>
       </c>
       <c r="P15" s="26">
         <f t="shared" si="6"/>
-        <v>0.25589999999999929</v>
+        <v>0.27907272727272669</v>
       </c>
       <c r="Q15" s="32">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R15" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S15" s="19">
         <f t="shared" si="3"/>
-        <v>18.033498565342754</v>
+        <v>16.939400905225121</v>
       </c>
       <c r="T15" s="26">
         <f t="shared" si="4"/>
-        <v>29.73965907452132</v>
+        <v>29.15348107277207</v>
       </c>
       <c r="U15" s="37">
         <f t="shared" si="7"/>
-        <v>3.5266666666666673</v>
+        <v>2.1018181818181825</v>
       </c>
       <c r="V15" s="19">
         <f t="shared" si="8"/>
-        <v>4.52513948052645</v>
+        <v>1.4402918638647395</v>
       </c>
       <c r="W15" s="26">
         <f t="shared" si="9"/>
-        <v>14.46329486997651</v>
+        <v>10.09285691061975</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
@@ -7315,48 +8607,48 @@
       <c r="L16" s="17"/>
       <c r="M16" s="12">
         <f t="shared" si="5"/>
-        <v>0.28776249999999948</v>
+        <v>0.31383181818181782</v>
       </c>
       <c r="N16" s="16">
         <v>5</v>
       </c>
       <c r="O16" s="19">
         <f t="shared" si="10"/>
-        <v>0.25589999999999929</v>
+        <v>0.27907272727272669</v>
       </c>
       <c r="P16" s="26">
         <f t="shared" si="6"/>
-        <v>0.31962499999999971</v>
+        <v>0.34859090909090895</v>
       </c>
       <c r="Q16" s="32">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="R16" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S16" s="19">
         <f t="shared" si="3"/>
-        <v>11.205981172691581</v>
+        <v>10.080530565181167</v>
       </c>
       <c r="T16" s="26">
         <f t="shared" si="4"/>
-        <v>19.805168327153822</v>
+        <v>17.229071761352021</v>
       </c>
       <c r="U16" s="37">
         <f t="shared" si="7"/>
-        <v>0.16666666666666688</v>
+        <v>3.6818181818181834</v>
       </c>
       <c r="V16" s="19">
         <f t="shared" si="8"/>
-        <v>1.2845442661504394</v>
+        <v>6.4333636870250049E-4</v>
       </c>
       <c r="W16" s="26">
         <f t="shared" si="9"/>
-        <v>1.1658392532127724</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.0332149784183287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>11</v>
       </c>
@@ -7381,48 +8673,48 @@
       <c r="L17" s="17"/>
       <c r="M17" s="12">
         <f t="shared" si="5"/>
-        <v>0.35148749999999995</v>
+        <v>0.38335000000000008</v>
       </c>
       <c r="N17" s="16">
         <v>6</v>
       </c>
       <c r="O17" s="19">
         <f t="shared" si="10"/>
-        <v>0.31962499999999971</v>
+        <v>0.34859090909090895</v>
       </c>
       <c r="P17" s="26">
         <f t="shared" si="6"/>
-        <v>0.38335000000000014</v>
+        <v>0.41810909090909121</v>
       </c>
       <c r="Q17" s="32">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R17" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S17" s="19">
         <f t="shared" si="3"/>
-        <v>6.9633750538039774</v>
+        <v>5.9988601157793697</v>
       </c>
       <c r="T17" s="26">
         <f t="shared" si="4"/>
-        <v>10.664803594048866</v>
+        <v>7.9136821973385008</v>
       </c>
       <c r="U17" s="37">
         <f t="shared" si="7"/>
-        <v>4.5066666666666677</v>
+        <v>6.8768181818181828</v>
       </c>
       <c r="V17" s="19">
         <f t="shared" si="8"/>
-        <v>0.15432046540260319</v>
+        <v>0.16707858633691128</v>
       </c>
       <c r="W17" s="26">
         <f t="shared" si="9"/>
-        <v>0.66585175547145814</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0.10549010396374937</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>12</v>
       </c>
@@ -7447,48 +8739,48 @@
       <c r="L18" s="17"/>
       <c r="M18" s="12">
         <f t="shared" si="5"/>
-        <v>0.41521250000000032</v>
+        <v>0.45286818181818234</v>
       </c>
       <c r="N18" s="16">
         <v>7</v>
       </c>
       <c r="O18" s="19">
         <f t="shared" si="10"/>
-        <v>0.38335000000000014</v>
+        <v>0.41810909090909121</v>
       </c>
       <c r="P18" s="26">
         <f t="shared" si="6"/>
-        <v>0.44707500000000056</v>
+        <v>0.48762727272727346</v>
       </c>
       <c r="Q18" s="32">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R18" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S18" s="19">
         <f t="shared" si="3"/>
-        <v>4.3270278070878909</v>
+        <v>3.5698837929213356</v>
       </c>
       <c r="T18" s="26">
         <f t="shared" si="4"/>
-        <v>4.6434107707785444</v>
+        <v>2.8248487663185884</v>
       </c>
       <c r="U18" s="37">
         <f t="shared" si="7"/>
-        <v>9.6266666666666687</v>
+        <v>8.1618181818181839</v>
       </c>
       <c r="V18" s="19">
         <f t="shared" si="8"/>
-        <v>2.4716084891696303E-2</v>
+        <v>1.6542456624544037</v>
       </c>
       <c r="W18" s="26">
         <f t="shared" si="9"/>
-        <v>8.9153736421305335E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+        <v>3.5688938384787083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>13</v>
       </c>
@@ -7510,48 +8802,48 @@
       <c r="L19" s="17"/>
       <c r="M19" s="12">
         <f t="shared" si="5"/>
-        <v>0.47893750000000074</v>
+        <v>0.52238636363636459</v>
       </c>
       <c r="N19" s="16">
         <v>8</v>
       </c>
       <c r="O19" s="19">
         <f t="shared" si="10"/>
-        <v>0.44707500000000056</v>
+        <v>0.48762727272727346</v>
       </c>
       <c r="P19" s="26">
         <f t="shared" si="6"/>
-        <v>0.51080000000000092</v>
+        <v>0.55714545454545572</v>
       </c>
       <c r="Q19" s="32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R19" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S19" s="19">
         <f t="shared" si="3"/>
-        <v>2.6888067206840338</v>
+        <v>2.1244153137427668</v>
       </c>
       <c r="T19" s="26">
         <f t="shared" si="4"/>
-        <v>1.6345666255716207</v>
+        <v>0.78352654001372368</v>
       </c>
       <c r="U19" s="37">
         <f t="shared" si="7"/>
-        <v>9.6266666666666687</v>
+        <v>16.236818181818183</v>
       </c>
       <c r="V19" s="19">
         <f t="shared" si="8"/>
-        <v>0.63940178462734021</v>
+        <v>0.59513306536648924</v>
       </c>
       <c r="W19" s="26">
         <f t="shared" si="9"/>
-        <v>3.4230939022769524</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+        <v>5.9807494048139322E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>14</v>
       </c>
@@ -7576,51 +8868,51 @@
       <c r="L20" s="17"/>
       <c r="M20" s="12">
         <f t="shared" si="5"/>
-        <v>0.54266250000000116</v>
+        <v>0.59190454545454685</v>
       </c>
       <c r="N20" s="16">
         <v>9</v>
       </c>
       <c r="O20" s="19">
         <f t="shared" si="10"/>
-        <v>0.51080000000000092</v>
+        <v>0.55714545454545572</v>
       </c>
       <c r="P20" s="26">
         <f t="shared" si="6"/>
-        <v>0.57452500000000128</v>
+        <v>0.62666363636363798</v>
       </c>
       <c r="Q20" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R20" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S20" s="19">
         <f t="shared" si="3"/>
-        <v>1.6708193021900852</v>
+        <v>1.2642261448996939</v>
       </c>
       <c r="T20" s="26">
         <f t="shared" si="4"/>
-        <v>0.46517309853379984</v>
+        <v>0.16884384083863946</v>
       </c>
       <c r="U20" s="37">
         <f t="shared" si="7"/>
-        <v>14.726666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="V20" s="19">
         <f t="shared" si="8"/>
-        <v>0.26932806893057881</v>
+        <v>1.2642261448996939</v>
       </c>
       <c r="W20" s="26">
         <f t="shared" si="9"/>
-        <v>0.61491048264295245</v>
+        <v>0.16884384083863946</v>
       </c>
       <c r="Y20" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>15</v>
       </c>
@@ -7645,51 +8937,51 @@
       <c r="L21" s="17"/>
       <c r="M21" s="12">
         <f t="shared" si="5"/>
-        <v>0.60638750000000141</v>
+        <v>0.66142272727272911</v>
       </c>
       <c r="N21" s="16">
         <v>10</v>
       </c>
       <c r="O21" s="19">
         <f t="shared" si="10"/>
-        <v>0.57452500000000128</v>
+        <v>0.62666363636363798</v>
       </c>
       <c r="P21" s="26">
         <f t="shared" si="6"/>
-        <v>0.63825000000000165</v>
+        <v>0.69618181818182023</v>
       </c>
       <c r="Q21" s="32">
         <v>1</v>
       </c>
       <c r="R21" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S21" s="19">
         <f t="shared" si="3"/>
-        <v>1.0382438868126398</v>
+        <v>0.75233299962995659</v>
       </c>
       <c r="T21" s="26">
         <f t="shared" si="4"/>
-        <v>0.1070120392421714</v>
+        <v>2.8262571561854521E-2</v>
       </c>
       <c r="U21" s="37">
         <f t="shared" si="7"/>
-        <v>14.726666666666668</v>
+        <v>16.236818181818183</v>
       </c>
       <c r="V21" s="19">
         <f t="shared" si="8"/>
-        <v>1.4087199521377407E-3</v>
+        <v>8.1531639716010504E-2</v>
       </c>
       <c r="W21" s="26">
         <f t="shared" si="9"/>
-        <v>7.4517549960320197</v>
+        <v>33.410747063867639</v>
       </c>
       <c r="Y21" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>16</v>
       </c>
@@ -7711,51 +9003,51 @@
       <c r="L22" s="17"/>
       <c r="M22" s="12">
         <f t="shared" si="5"/>
-        <v>0.67011250000000189</v>
+        <v>0.73094090909091136</v>
       </c>
       <c r="N22" s="16">
         <v>11</v>
       </c>
       <c r="O22" s="19">
         <f t="shared" si="10"/>
-        <v>0.63825000000000165</v>
+        <v>0.69618181818182023</v>
       </c>
       <c r="P22" s="26">
         <f t="shared" si="6"/>
-        <v>0.70197500000000201</v>
+        <v>0.76570000000000249</v>
       </c>
       <c r="Q22" s="32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R22" s="37">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S22" s="19">
         <f t="shared" si="3"/>
-        <v>0.64516274566068788</v>
+        <v>0.44770861970830911</v>
       </c>
       <c r="T22" s="26">
         <f t="shared" si="4"/>
-        <v>1.9898102246473925E-2</v>
+        <v>3.6740728653228416E-3</v>
       </c>
       <c r="U22" s="37">
         <f t="shared" si="7"/>
-        <v>16.666666666666668</v>
+        <v>14.401818181818184</v>
       </c>
       <c r="V22" s="19">
         <f t="shared" si="8"/>
-        <v>0.64516274566068788</v>
+        <v>5.3820909923462938</v>
       </c>
       <c r="W22" s="26">
         <f t="shared" si="9"/>
-        <v>1.9898102246473925E-2</v>
+        <v>1084.7137096721508</v>
       </c>
       <c r="Y22" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>17</v>
       </c>
@@ -7780,49 +9072,49 @@
       <c r="L23" s="17"/>
       <c r="M23" s="12">
         <f t="shared" si="5"/>
-        <v>0.73383750000000214</v>
+        <v>0.80045909090909362</v>
       </c>
       <c r="N23" s="27">
         <v>12</v>
       </c>
       <c r="O23" s="28">
         <f t="shared" si="10"/>
-        <v>0.70197500000000201</v>
+        <v>0.76570000000000249</v>
       </c>
       <c r="P23" s="29">
         <f t="shared" si="6"/>
-        <v>0.76570000000000238</v>
+        <v>0.83521818181818475</v>
       </c>
       <c r="Q23" s="33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="38">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="S23" s="28">
         <f t="shared" si="3"/>
-        <v>0.40090288387466533</v>
+        <v>0.26642857386254271</v>
       </c>
       <c r="T23" s="29">
         <f t="shared" si="4"/>
-        <v>2.990216031428794E-3</v>
+        <v>3.7085391009217261E-4</v>
       </c>
       <c r="U23" s="38">
         <f t="shared" si="7"/>
-        <v>14.726666666666668</v>
+        <v>18.181818181818183</v>
       </c>
       <c r="V23" s="28">
         <f t="shared" si="8"/>
-        <v>0.89527256846049885</v>
+        <v>0.26642857386254271</v>
       </c>
       <c r="W23" s="29">
         <f t="shared" si="9"/>
-        <v>332.42698817786999</v>
+        <v>3.7085391009217261E-4</v>
       </c>
       <c r="Y23" s="8"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>18</v>
       </c>
@@ -7847,37 +9139,37 @@
       <c r="L24" s="17"/>
       <c r="Q24" s="1">
         <f t="shared" ref="Q24:W24" si="11">SUM(Q12:Q23)</f>
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="R24" s="12">
         <f t="shared" si="11"/>
-        <v>199.99999999999997</v>
+        <v>218.18181818181822</v>
       </c>
       <c r="S24" s="12">
         <f t="shared" si="11"/>
-        <v>197.85432065780057</v>
+        <v>198.12074923166307</v>
       </c>
       <c r="T24" s="12">
         <f t="shared" si="11"/>
-        <v>166.80216346017968</v>
+        <v>166.8025343140898</v>
       </c>
       <c r="U24" s="12">
         <f t="shared" si="11"/>
-        <v>391.85999999999996</v>
+        <v>401.40181818181816</v>
       </c>
       <c r="V24" s="40">
         <f t="shared" si="11"/>
-        <v>8.7847156737971961</v>
+        <v>11.513638030424056</v>
       </c>
       <c r="W24" s="12">
         <f t="shared" si="11"/>
-        <v>459.15819229349677</v>
+        <v>1229.599282225495</v>
       </c>
       <c r="Y24" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>19</v>
       </c>
@@ -7899,7 +9191,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>20</v>
       </c>
@@ -7924,7 +9216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>21</v>
       </c>
@@ -7945,7 +9237,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="17"/>
     </row>
-    <row r="28" spans="1:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>22</v>
       </c>
@@ -7966,7 +9258,7 @@
       <c r="K28" s="21"/>
       <c r="L28" s="22"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>23</v>
       </c>
@@ -7978,7 +9270,7 @@
         <v>8.2999999999984198E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>24</v>
       </c>
@@ -7989,8 +9281,14 @@
         <f t="shared" si="0"/>
         <v>2.7300000000003877E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AK30" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>25</v>
       </c>
@@ -8001,8 +9299,24 @@
         <f t="shared" si="0"/>
         <v>0.16959999999999553</v>
       </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AA31" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AK31" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="AM31" s="1">
+        <f>_intervalos-1</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>26</v>
       </c>
@@ -8014,7 +9328,7 @@
         <v>2.300000000000324E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>27</v>
       </c>
@@ -8026,7 +9340,7 @@
         <v>0.11589999999999634</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>28</v>
       </c>
@@ -8037,8 +9351,42 @@
         <f t="shared" si="0"/>
         <v>0.2085000000000008</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA34" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB34" s="72"/>
+      <c r="AC34" s="73"/>
+      <c r="AD34" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE34" s="46"/>
+      <c r="AF34" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG34" s="48"/>
+      <c r="AH34" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI34" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="AJ34" s="72"/>
+      <c r="AK34" s="73"/>
+      <c r="AL34" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="AM34" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN34" s="72"/>
+      <c r="AO34" s="73"/>
+      <c r="AP34" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="AQ34" s="75"/>
+      <c r="AR34" s="76"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>29</v>
       </c>
@@ -8049,8 +9397,62 @@
         <f t="shared" si="0"/>
         <v>0.34000000000000341</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA35" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC35" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD35" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH35" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL35" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="AM35" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN35" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO35" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="AP35" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ35" s="47" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR35" s="48" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>30</v>
       </c>
@@ -8061,8 +9463,79 @@
         <f t="shared" si="0"/>
         <v>0.47119999999999607</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA36" s="16">
+        <v>1</v>
+      </c>
+      <c r="AB36" s="19">
+        <f>_Valor_Min</f>
+        <v>9.9999999999766942E-4</v>
+      </c>
+      <c r="AC36" s="26">
+        <f t="shared" ref="AC36" si="12">AB36+_pasos</f>
+        <v>7.0518181818179926E-2</v>
+      </c>
+      <c r="AD36" s="32">
+        <f t="array" ref="AD36:AD47">FREQUENCY(_muestra,_limSup)</f>
+        <v>83</v>
+      </c>
+      <c r="AE36" s="37">
+        <f t="shared" ref="AE36:AE47" si="13">_tamañoMuestra/_intervalos</f>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF36" s="19">
+        <f>(_xlfn.EXPON.DIST(AC36,_DistrExpLambda,1)-_xlfn.EXPON.DIST(AB36,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <v>80.378891771468048</v>
+      </c>
+      <c r="AG36" s="26">
+        <f t="shared" ref="AG36:AG47" si="14">(_xlfn.NORM.DIST(AC36,_DistrNormU,_DistrNomrS,1)-_xlfn.NORM.DIST(AB36,_DistrNormU,_DistrNomrS,1))*_tamañoMuestra</f>
+        <v>31.152157594463205</v>
+      </c>
+      <c r="AH36" s="51">
+        <f>AD36/$AD$48</f>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AI36" s="37">
+        <f>AE36/$AD$48</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ36" s="50">
+        <f>AF36/$AD$48</f>
+        <v>0.40189445885734026</v>
+      </c>
+      <c r="AK36" s="49">
+        <f>AG36/$AD$48</f>
+        <v>0.15576078797231602</v>
+      </c>
+      <c r="AL36" s="51">
+        <f>SUM(AH$36:AH36)</f>
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="AM36" s="37">
+        <f>SUM($AI$36:AI36)</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AN36" s="50">
+        <f>SUM($AJ$36:AJ36)</f>
+        <v>0.40189445885734026</v>
+      </c>
+      <c r="AO36" s="49">
+        <f>SUM($AK$36:AK36)</f>
+        <v>0.15576078797231602</v>
+      </c>
+      <c r="AP36" s="55">
+        <f>+ABS(AM36-AL36)</f>
+        <v>0.3240909090909091</v>
+      </c>
+      <c r="AQ36" s="56">
+        <f>+ABS(AN36-AL36)</f>
+        <v>1.3105541142659716E-2</v>
+      </c>
+      <c r="AR36" s="57">
+        <f>+ABS(AL36-AO36)</f>
+        <v>0.25923921202768396</v>
+      </c>
+    </row>
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>31</v>
       </c>
@@ -8073,8 +9546,78 @@
         <f t="shared" si="0"/>
         <v>0.35960000000000036</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA37" s="16">
+        <v>2</v>
+      </c>
+      <c r="AB37" s="19">
+        <f>AC36</f>
+        <v>7.0518181818179926E-2</v>
+      </c>
+      <c r="AC37" s="26">
+        <f t="shared" ref="AC37:AC47" si="15">AB37+_pasos</f>
+        <v>0.14003636363636218</v>
+      </c>
+      <c r="AD37" s="32">
+        <v>52</v>
+      </c>
+      <c r="AE37" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF37" s="19">
+        <f t="shared" ref="AF37:AF47" si="16">(_xlfn.EXPON.DIST(AC37,_DistrExpLambda,1)-_xlfn.EXPON.DIST(AB37,_DistrExpLambda,1))*_tamañoMuestra</f>
+        <v>47.832971179502579</v>
+      </c>
+      <c r="AG37" s="26">
+        <f t="shared" si="14"/>
+        <v>39.200763264172011</v>
+      </c>
+      <c r="AH37" s="51">
+        <f t="shared" ref="AH37:AH47" si="17">AD37/$AD$48</f>
+        <v>0.26</v>
+      </c>
+      <c r="AI37" s="37">
+        <f t="shared" ref="AI37:AI47" si="18">AE37/$AD$48</f>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ37" s="50">
+        <f t="shared" ref="AJ37:AJ47" si="19">AF37/$AD$48</f>
+        <v>0.23916485589751291</v>
+      </c>
+      <c r="AK37" s="49">
+        <f t="shared" ref="AK37:AK47" si="20">AG37/$AD$48</f>
+        <v>0.19600381632086006</v>
+      </c>
+      <c r="AL37" s="51">
+        <f>SUM(AH$36:AH37)</f>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="AM37" s="37">
+        <f>SUM($AI$36:AI37)</f>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="AN37" s="50">
+        <f>SUM($AJ$36:AJ37)</f>
+        <v>0.64105931475485312</v>
+      </c>
+      <c r="AO37" s="49">
+        <f>SUM($AK$36:AK37)</f>
+        <v>0.35176460429317608</v>
+      </c>
+      <c r="AP37" s="55">
+        <f t="shared" ref="AP37:AP47" si="21">+ABS(AM37-AL37)</f>
+        <v>0.49318181818181822</v>
+      </c>
+      <c r="AQ37" s="56">
+        <f t="shared" ref="AQ37:AQ47" si="22">+ABS(AN37-AL37)</f>
+        <v>3.3940685245146929E-2</v>
+      </c>
+      <c r="AR37" s="57">
+        <f t="shared" ref="AR37:AR47" si="23">+ABS(AL37-AO37)</f>
+        <v>0.32323539570682397</v>
+      </c>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>32</v>
       </c>
@@ -8085,8 +9628,78 @@
         <f t="shared" si="0"/>
         <v>2.6900000000004809E-2</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA38" s="16">
+        <v>3</v>
+      </c>
+      <c r="AB38" s="19">
+        <f t="shared" ref="AB38:AB47" si="24">AC37</f>
+        <v>0.14003636363636218</v>
+      </c>
+      <c r="AC38" s="26">
+        <f t="shared" si="15"/>
+        <v>0.20955454545454444</v>
+      </c>
+      <c r="AD38" s="32">
+        <v>26</v>
+      </c>
+      <c r="AE38" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF38" s="19">
+        <f t="shared" si="16"/>
+        <v>28.46509924974221</v>
+      </c>
+      <c r="AG38" s="26">
+        <f t="shared" si="14"/>
+        <v>38.343851778483781</v>
+      </c>
+      <c r="AH38" s="51">
+        <f t="shared" si="17"/>
+        <v>0.13</v>
+      </c>
+      <c r="AI38" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ38" s="50">
+        <f t="shared" si="19"/>
+        <v>0.14232549624871105</v>
+      </c>
+      <c r="AK38" s="49">
+        <f t="shared" si="20"/>
+        <v>0.19171925889241892</v>
+      </c>
+      <c r="AL38" s="51">
+        <f>SUM(AH$36:AH38)</f>
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AM38" s="37">
+        <f>SUM($AI$36:AI38)</f>
+        <v>0.27272727272727271</v>
+      </c>
+      <c r="AN38" s="50">
+        <f>SUM($AJ$36:AJ38)</f>
+        <v>0.78338481100356416</v>
+      </c>
+      <c r="AO38" s="49">
+        <f>SUM($AK$36:AK38)</f>
+        <v>0.54348386318559494</v>
+      </c>
+      <c r="AP38" s="55">
+        <f t="shared" si="21"/>
+        <v>0.53227272727272734</v>
+      </c>
+      <c r="AQ38" s="56">
+        <f t="shared" si="22"/>
+        <v>2.1615188996435886E-2</v>
+      </c>
+      <c r="AR38" s="57">
+        <f t="shared" si="23"/>
+        <v>0.26151613681440511</v>
+      </c>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>33</v>
       </c>
@@ -8097,8 +9710,78 @@
         <f t="shared" si="0"/>
         <v>0.12189999999999657</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA39" s="16">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="19">
+        <f t="shared" si="24"/>
+        <v>0.20955454545454444</v>
+      </c>
+      <c r="AC39" s="26">
+        <f t="shared" si="15"/>
+        <v>0.27907272727272669</v>
+      </c>
+      <c r="AD39" s="32">
+        <v>12</v>
+      </c>
+      <c r="AE39" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF39" s="19">
+        <f t="shared" si="16"/>
+        <v>16.939400905225121</v>
+      </c>
+      <c r="AG39" s="26">
+        <f t="shared" si="14"/>
+        <v>29.15348107277207</v>
+      </c>
+      <c r="AH39" s="51">
+        <f t="shared" si="17"/>
+        <v>0.06</v>
+      </c>
+      <c r="AI39" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ39" s="50">
+        <f t="shared" si="19"/>
+        <v>8.4697004526125608E-2</v>
+      </c>
+      <c r="AK39" s="49">
+        <f t="shared" si="20"/>
+        <v>0.14576740536386035</v>
+      </c>
+      <c r="AL39" s="51">
+        <f>SUM(AH$36:AH39)</f>
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="AM39" s="37">
+        <f>SUM($AI$36:AI39)</f>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="AN39" s="50">
+        <f>SUM($AJ$36:AJ39)</f>
+        <v>0.86808181552968977</v>
+      </c>
+      <c r="AO39" s="49">
+        <f>SUM($AK$36:AK39)</f>
+        <v>0.68925126854945529</v>
+      </c>
+      <c r="AP39" s="55">
+        <f t="shared" si="21"/>
+        <v>0.50136363636363634</v>
+      </c>
+      <c r="AQ39" s="56">
+        <f t="shared" si="22"/>
+        <v>3.0818155296897798E-3</v>
+      </c>
+      <c r="AR39" s="57">
+        <f t="shared" si="23"/>
+        <v>0.1757487314505447</v>
+      </c>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>34</v>
       </c>
@@ -8109,8 +9792,78 @@
         <f t="shared" si="0"/>
         <v>0.38219999999999743</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA40" s="16">
+        <v>5</v>
+      </c>
+      <c r="AB40" s="19">
+        <f t="shared" si="24"/>
+        <v>0.27907272727272669</v>
+      </c>
+      <c r="AC40" s="26">
+        <f t="shared" si="15"/>
+        <v>0.34859090909090895</v>
+      </c>
+      <c r="AD40" s="32">
+        <v>10</v>
+      </c>
+      <c r="AE40" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF40" s="19">
+        <f t="shared" si="16"/>
+        <v>10.080530565181167</v>
+      </c>
+      <c r="AG40" s="26">
+        <f t="shared" si="14"/>
+        <v>17.229071761352021</v>
+      </c>
+      <c r="AH40" s="51">
+        <f t="shared" si="17"/>
+        <v>0.05</v>
+      </c>
+      <c r="AI40" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ40" s="50">
+        <f t="shared" si="19"/>
+        <v>5.0402652825905836E-2</v>
+      </c>
+      <c r="AK40" s="49">
+        <f t="shared" si="20"/>
+        <v>8.6145358806760108E-2</v>
+      </c>
+      <c r="AL40" s="51">
+        <f>SUM(AH$36:AH40)</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="AM40" s="37">
+        <f>SUM($AI$36:AI40)</f>
+        <v>0.45454545454545459</v>
+      </c>
+      <c r="AN40" s="50">
+        <f>SUM($AJ$36:AJ40)</f>
+        <v>0.91848446835559561</v>
+      </c>
+      <c r="AO40" s="49">
+        <f>SUM($AK$36:AK40)</f>
+        <v>0.7753966273562154</v>
+      </c>
+      <c r="AP40" s="55">
+        <f t="shared" si="21"/>
+        <v>0.46045454545454545</v>
+      </c>
+      <c r="AQ40" s="56">
+        <f t="shared" si="22"/>
+        <v>3.4844683555955713E-3</v>
+      </c>
+      <c r="AR40" s="57">
+        <f t="shared" si="23"/>
+        <v>0.13960337264378464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>35</v>
       </c>
@@ -8121,8 +9874,78 @@
         <f t="shared" si="0"/>
         <v>5.6699999999999307E-2</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA41" s="16">
+        <v>6</v>
+      </c>
+      <c r="AB41" s="19">
+        <f t="shared" si="24"/>
+        <v>0.34859090909090895</v>
+      </c>
+      <c r="AC41" s="26">
+        <f t="shared" si="15"/>
+        <v>0.41810909090909121</v>
+      </c>
+      <c r="AD41" s="32">
+        <v>7</v>
+      </c>
+      <c r="AE41" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF41" s="19">
+        <f t="shared" si="16"/>
+        <v>5.9988601157793697</v>
+      </c>
+      <c r="AG41" s="26">
+        <f t="shared" si="14"/>
+        <v>7.9136821973385008</v>
+      </c>
+      <c r="AH41" s="51">
+        <f t="shared" si="17"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AI41" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ41" s="50">
+        <f t="shared" si="19"/>
+        <v>2.9994300578896849E-2</v>
+      </c>
+      <c r="AK41" s="49">
+        <f t="shared" si="20"/>
+        <v>3.9568410986692504E-2</v>
+      </c>
+      <c r="AL41" s="51">
+        <f>SUM(AH$36:AH41)</f>
+        <v>0.95000000000000007</v>
+      </c>
+      <c r="AM41" s="37">
+        <f>SUM($AI$36:AI41)</f>
+        <v>0.54545454545454553</v>
+      </c>
+      <c r="AN41" s="50">
+        <f>SUM($AJ$36:AJ41)</f>
+        <v>0.94847876893449246</v>
+      </c>
+      <c r="AO41" s="49">
+        <f>SUM($AK$36:AK41)</f>
+        <v>0.8149650383429079</v>
+      </c>
+      <c r="AP41" s="55">
+        <f t="shared" si="21"/>
+        <v>0.40454545454545454</v>
+      </c>
+      <c r="AQ41" s="56">
+        <f t="shared" si="22"/>
+        <v>1.5212310655076111E-3</v>
+      </c>
+      <c r="AR41" s="57">
+        <f t="shared" si="23"/>
+        <v>0.13503496165709217</v>
+      </c>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>36</v>
       </c>
@@ -8133,8 +9956,78 @@
         <f t="shared" si="0"/>
         <v>0.73610000000000042</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA42" s="16">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="19">
+        <f t="shared" si="24"/>
+        <v>0.41810909090909121</v>
+      </c>
+      <c r="AC42" s="26">
+        <f t="shared" si="15"/>
+        <v>0.48762727272727346</v>
+      </c>
+      <c r="AD42" s="32">
+        <v>6</v>
+      </c>
+      <c r="AE42" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF42" s="19">
+        <f t="shared" si="16"/>
+        <v>3.5698837929213356</v>
+      </c>
+      <c r="AG42" s="26">
+        <f t="shared" si="14"/>
+        <v>2.8248487663185884</v>
+      </c>
+      <c r="AH42" s="51">
+        <f t="shared" si="17"/>
+        <v>0.03</v>
+      </c>
+      <c r="AI42" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ42" s="50">
+        <f t="shared" si="19"/>
+        <v>1.7849418964606678E-2</v>
+      </c>
+      <c r="AK42" s="49">
+        <f t="shared" si="20"/>
+        <v>1.4124243831592942E-2</v>
+      </c>
+      <c r="AL42" s="51">
+        <f>SUM(AH$36:AH42)</f>
+        <v>0.98000000000000009</v>
+      </c>
+      <c r="AM42" s="37">
+        <f>SUM($AI$36:AI42)</f>
+        <v>0.63636363636363646</v>
+      </c>
+      <c r="AN42" s="50">
+        <f>SUM($AJ$36:AJ42)</f>
+        <v>0.96632818789909913</v>
+      </c>
+      <c r="AO42" s="49">
+        <f>SUM($AK$36:AK42)</f>
+        <v>0.82908928217450084</v>
+      </c>
+      <c r="AP42" s="55">
+        <f t="shared" si="21"/>
+        <v>0.34363636363636363</v>
+      </c>
+      <c r="AQ42" s="56">
+        <f t="shared" si="22"/>
+        <v>1.367181210090096E-2</v>
+      </c>
+      <c r="AR42" s="57">
+        <f t="shared" si="23"/>
+        <v>0.15091071782549925</v>
+      </c>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>37</v>
       </c>
@@ -8145,8 +10038,78 @@
         <f t="shared" si="0"/>
         <v>1.4600000000001501E-2</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA43" s="16">
+        <v>8</v>
+      </c>
+      <c r="AB43" s="19">
+        <f t="shared" si="24"/>
+        <v>0.48762727272727346</v>
+      </c>
+      <c r="AC43" s="26">
+        <f t="shared" si="15"/>
+        <v>0.55714545454545572</v>
+      </c>
+      <c r="AD43" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF43" s="19">
+        <f t="shared" si="16"/>
+        <v>2.1244153137427668</v>
+      </c>
+      <c r="AG43" s="26">
+        <f t="shared" si="14"/>
+        <v>0.78352654001372368</v>
+      </c>
+      <c r="AH43" s="51">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI43" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ43" s="50">
+        <f t="shared" si="19"/>
+        <v>1.0622076568713834E-2</v>
+      </c>
+      <c r="AK43" s="49">
+        <f t="shared" si="20"/>
+        <v>3.9176327000686184E-3</v>
+      </c>
+      <c r="AL43" s="51">
+        <f>SUM(AH$36:AH43)</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="AM43" s="37">
+        <f>SUM($AI$36:AI43)</f>
+        <v>0.7272727272727274</v>
+      </c>
+      <c r="AN43" s="50">
+        <f>SUM($AJ$36:AJ43)</f>
+        <v>0.97695026446781297</v>
+      </c>
+      <c r="AO43" s="49">
+        <f>SUM($AK$36:AK43)</f>
+        <v>0.83300691487456946</v>
+      </c>
+      <c r="AP43" s="55">
+        <f t="shared" si="21"/>
+        <v>0.25772727272727269</v>
+      </c>
+      <c r="AQ43" s="56">
+        <f t="shared" si="22"/>
+        <v>8.04973553218713E-3</v>
+      </c>
+      <c r="AR43" s="57">
+        <f t="shared" si="23"/>
+        <v>0.15199308512543064</v>
+      </c>
+    </row>
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>38</v>
       </c>
@@ -8157,8 +10120,78 @@
         <f t="shared" si="0"/>
         <v>5.6699999999999307E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA44" s="16">
+        <v>9</v>
+      </c>
+      <c r="AB44" s="19">
+        <f t="shared" si="24"/>
+        <v>0.55714545454545572</v>
+      </c>
+      <c r="AC44" s="26">
+        <f t="shared" si="15"/>
+        <v>0.62666363636363798</v>
+      </c>
+      <c r="AD44" s="32">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF44" s="19">
+        <f t="shared" si="16"/>
+        <v>1.2642261448996939</v>
+      </c>
+      <c r="AG44" s="26">
+        <f t="shared" si="14"/>
+        <v>0.16884384083863946</v>
+      </c>
+      <c r="AH44" s="51">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI44" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ44" s="50">
+        <f t="shared" si="19"/>
+        <v>6.3211307244984694E-3</v>
+      </c>
+      <c r="AK44" s="49">
+        <f t="shared" si="20"/>
+        <v>8.4421920419319729E-4</v>
+      </c>
+      <c r="AL44" s="51">
+        <f>SUM(AH$36:AH44)</f>
+        <v>0.9850000000000001</v>
+      </c>
+      <c r="AM44" s="37">
+        <f>SUM($AI$36:AI44)</f>
+        <v>0.81818181818181834</v>
+      </c>
+      <c r="AN44" s="50">
+        <f>SUM($AJ$36:AJ44)</f>
+        <v>0.98327139519231144</v>
+      </c>
+      <c r="AO44" s="49">
+        <f>SUM($AK$36:AK44)</f>
+        <v>0.83385113407876266</v>
+      </c>
+      <c r="AP44" s="55">
+        <f t="shared" si="21"/>
+        <v>0.16681818181818175</v>
+      </c>
+      <c r="AQ44" s="56">
+        <f t="shared" si="22"/>
+        <v>1.7286048076886606E-3</v>
+      </c>
+      <c r="AR44" s="57">
+        <f t="shared" si="23"/>
+        <v>0.15114886592123744</v>
+      </c>
+    </row>
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>39</v>
       </c>
@@ -8169,8 +10202,78 @@
         <f t="shared" si="0"/>
         <v>4.1499999999999204E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA45" s="16">
+        <v>10</v>
+      </c>
+      <c r="AB45" s="19">
+        <f t="shared" si="24"/>
+        <v>0.62666363636363798</v>
+      </c>
+      <c r="AC45" s="26">
+        <f t="shared" si="15"/>
+        <v>0.69618181818182023</v>
+      </c>
+      <c r="AD45" s="32">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF45" s="19">
+        <f t="shared" si="16"/>
+        <v>0.75233299962995659</v>
+      </c>
+      <c r="AG45" s="26">
+        <f t="shared" si="14"/>
+        <v>2.8262571561854521E-2</v>
+      </c>
+      <c r="AH45" s="51">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AI45" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ45" s="50">
+        <f t="shared" si="19"/>
+        <v>3.7616649981497829E-3</v>
+      </c>
+      <c r="AK45" s="49">
+        <f t="shared" si="20"/>
+        <v>1.4131285780927261E-4</v>
+      </c>
+      <c r="AL45" s="51">
+        <f>SUM(AH$36:AH45)</f>
+        <v>0.9900000000000001</v>
+      </c>
+      <c r="AM45" s="37">
+        <f>SUM($AI$36:AI45)</f>
+        <v>0.90909090909090928</v>
+      </c>
+      <c r="AN45" s="50">
+        <f>SUM($AJ$36:AJ45)</f>
+        <v>0.98703306019046122</v>
+      </c>
+      <c r="AO45" s="49">
+        <f>SUM($AK$36:AK45)</f>
+        <v>0.83399244693657193</v>
+      </c>
+      <c r="AP45" s="55">
+        <f t="shared" si="21"/>
+        <v>8.0909090909090819E-2</v>
+      </c>
+      <c r="AQ45" s="56">
+        <f t="shared" si="22"/>
+        <v>2.9669398095388821E-3</v>
+      </c>
+      <c r="AR45" s="57">
+        <f t="shared" si="23"/>
+        <v>0.15600755306342817</v>
+      </c>
+    </row>
+    <row r="46" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>40</v>
       </c>
@@ -8181,8 +10284,78 @@
         <f t="shared" si="0"/>
         <v>3.1900000000000261E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA46" s="16">
+        <v>11</v>
+      </c>
+      <c r="AB46" s="19">
+        <f t="shared" si="24"/>
+        <v>0.69618181818182023</v>
+      </c>
+      <c r="AC46" s="26">
+        <f t="shared" si="15"/>
+        <v>0.76570000000000249</v>
+      </c>
+      <c r="AD46" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE46" s="37">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF46" s="19">
+        <f t="shared" si="16"/>
+        <v>0.44770861970830911</v>
+      </c>
+      <c r="AG46" s="26">
+        <f t="shared" si="14"/>
+        <v>3.6740728653228416E-3</v>
+      </c>
+      <c r="AH46" s="51">
+        <f t="shared" si="17"/>
+        <v>0.01</v>
+      </c>
+      <c r="AI46" s="37">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ46" s="50">
+        <f t="shared" si="19"/>
+        <v>2.2385430985415455E-3</v>
+      </c>
+      <c r="AK46" s="49">
+        <f t="shared" si="20"/>
+        <v>1.8370364326614208E-5</v>
+      </c>
+      <c r="AL46" s="51">
+        <f>SUM(AH$36:AH46)</f>
+        <v>1</v>
+      </c>
+      <c r="AM46" s="37">
+        <f>SUM($AI$36:AI46)</f>
+        <v>1.0000000000000002</v>
+      </c>
+      <c r="AN46" s="50">
+        <f>SUM($AJ$36:AJ46)</f>
+        <v>0.98927160328900277</v>
+      </c>
+      <c r="AO46" s="49">
+        <f>SUM($AK$36:AK46)</f>
+        <v>0.83401081730089854</v>
+      </c>
+      <c r="AP46" s="55">
+        <f t="shared" si="21"/>
+        <v>2.2204460492503131E-16</v>
+      </c>
+      <c r="AQ46" s="56">
+        <f t="shared" si="22"/>
+        <v>1.0728396710997234E-2</v>
+      </c>
+      <c r="AR46" s="57">
+        <f t="shared" si="23"/>
+        <v>0.16598918269910146</v>
+      </c>
+    </row>
+    <row r="47" spans="1:44" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>41</v>
       </c>
@@ -8196,8 +10369,78 @@
       <c r="N47" s="9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="AA47" s="27">
+        <v>12</v>
+      </c>
+      <c r="AB47" s="28">
+        <f t="shared" si="24"/>
+        <v>0.76570000000000249</v>
+      </c>
+      <c r="AC47" s="29">
+        <f t="shared" si="15"/>
+        <v>0.83521818181818475</v>
+      </c>
+      <c r="AD47" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="38">
+        <f t="shared" si="13"/>
+        <v>18.181818181818183</v>
+      </c>
+      <c r="AF47" s="28">
+        <f t="shared" si="16"/>
+        <v>0.26642857386254271</v>
+      </c>
+      <c r="AG47" s="29">
+        <f t="shared" si="14"/>
+        <v>3.7085391009217261E-4</v>
+      </c>
+      <c r="AH47" s="64">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="AI47" s="65">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="AJ47" s="66">
+        <f t="shared" si="19"/>
+        <v>1.3321428693127135E-3</v>
+      </c>
+      <c r="AK47" s="68">
+        <f t="shared" si="20"/>
+        <v>1.8542695504608631E-6</v>
+      </c>
+      <c r="AL47" s="64">
+        <f>SUM(AH$36:AH47)</f>
+        <v>1</v>
+      </c>
+      <c r="AM47" s="67">
+        <f>SUM($AI$36:AI47)</f>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="AN47" s="50">
+        <f>SUM($AJ$36:AJ47)</f>
+        <v>0.99060374615831548</v>
+      </c>
+      <c r="AO47" s="49">
+        <f>SUM($AK$36:AK47)</f>
+        <v>0.834012671570449</v>
+      </c>
+      <c r="AP47" s="59">
+        <f t="shared" si="21"/>
+        <v>9.090909090909105E-2</v>
+      </c>
+      <c r="AQ47" s="60">
+        <f t="shared" si="22"/>
+        <v>9.3962538416845209E-3</v>
+      </c>
+      <c r="AR47" s="61">
+        <f t="shared" si="23"/>
+        <v>0.165987328429551</v>
+      </c>
+    </row>
+    <row r="48" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42</v>
       </c>
@@ -8211,8 +10454,56 @@
       <c r="N48" s="9" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AD48" s="1">
+        <f t="shared" ref="AD48:AG48" si="25">SUM(AD36:AD47)</f>
+        <v>200</v>
+      </c>
+      <c r="AE48" s="12">
+        <f t="shared" si="25"/>
+        <v>218.18181818181822</v>
+      </c>
+      <c r="AF48" s="12">
+        <f t="shared" si="25"/>
+        <v>198.12074923166307</v>
+      </c>
+      <c r="AG48" s="12">
+        <f t="shared" si="25"/>
+        <v>166.8025343140898</v>
+      </c>
+      <c r="AH48" s="12">
+        <f>SUM(AH36:AH47)</f>
+        <v>1</v>
+      </c>
+      <c r="AI48" s="12">
+        <f>SUM(AI36:AI47)</f>
+        <v>1.0909090909090911</v>
+      </c>
+      <c r="AJ48" s="11">
+        <f>SUM(AJ36:AJ47)</f>
+        <v>0.99060374615831548</v>
+      </c>
+      <c r="AK48" s="11">
+        <f>SUM(AK36:AK47)</f>
+        <v>0.834012671570449</v>
+      </c>
+      <c r="AN48" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="58">
+        <f>+MAX(AP36:AP47)</f>
+        <v>0.53227272727272734</v>
+      </c>
+      <c r="AQ48" s="63">
+        <f>+MAX(AQ36:AQ47)</f>
+        <v>3.3940685245146929E-2</v>
+      </c>
+      <c r="AR48" s="63">
+        <f>+MAX(AR36:AR47)</f>
+        <v>0.32323539570682397</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43</v>
       </c>
@@ -8224,7 +10515,7 @@
         <v>1.099999999999568E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>44</v>
       </c>
@@ -8235,8 +10526,15 @@
         <f t="shared" si="0"/>
         <v>0.31840000000000401</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AL50" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM50" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO50" s="69"/>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45</v>
       </c>
@@ -8248,7 +10546,7 @@
         <v>0.22339999999999804</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>46</v>
       </c>
@@ -8260,7 +10558,7 @@
         <v>0.36769999999999925</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>47</v>
       </c>
@@ -8271,8 +10569,25 @@
         <f t="shared" si="0"/>
         <v>7.9599999999999227E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="AC53" s="80"/>
+      <c r="AD53" s="80"/>
+      <c r="AE53" s="80"/>
+      <c r="AF53" s="80"/>
+      <c r="AG53" s="80"/>
+      <c r="AH53" s="80"/>
+      <c r="AI53" s="80"/>
+      <c r="AJ53" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK53" s="80"/>
+      <c r="AL53" s="80"/>
+      <c r="AM53" s="80"/>
+      <c r="AN53" s="80"/>
+      <c r="AO53" s="80"/>
+      <c r="AP53" s="80"/>
+      <c r="AQ53" s="80"/>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>48</v>
       </c>
@@ -8284,7 +10599,7 @@
         <v>2.8100000000002012E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>49</v>
       </c>
@@ -8296,7 +10611,7 @@
         <v>5.2900000000001057E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>50</v>
       </c>
@@ -8308,7 +10623,7 @@
         <v>0.16089999999999804</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>51</v>
       </c>
@@ -8320,7 +10635,7 @@
         <v>7.4199999999997601E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>52</v>
       </c>
@@ -8332,7 +10647,7 @@
         <v>0.25919999999999987</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>53</v>
       </c>
@@ -8344,7 +10659,7 @@
         <v>1.3600000000003831E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>54</v>
       </c>
@@ -8356,7 +10671,7 @@
         <v>3.1999999999996476E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>55</v>
       </c>
@@ -8368,7 +10683,7 @@
         <v>6.7799999999998306E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>56</v>
       </c>
@@ -8380,7 +10695,7 @@
         <v>0.12610000000000099</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>57</v>
       </c>
@@ -8392,7 +10707,7 @@
         <v>3.9000000000015689E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>58</v>
       </c>
@@ -8508,7 +10823,7 @@
         <v>42.292999999999999</v>
       </c>
       <c r="C73" s="7">
-        <f t="shared" ref="C73:C136" si="12">B73-B72</f>
+        <f t="shared" ref="C73:C136" si="26">B73-B72</f>
         <v>5.1699999999996749E-2</v>
       </c>
     </row>
@@ -8520,7 +10835,7 @@
         <v>42.335099999999997</v>
       </c>
       <c r="C74" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>4.2099999999997806E-2</v>
       </c>
     </row>
@@ -8532,7 +10847,7 @@
         <v>42.418900000000001</v>
       </c>
       <c r="C75" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>8.3800000000003649E-2</v>
       </c>
     </row>
@@ -8544,7 +10859,7 @@
         <v>42.430500000000002</v>
       </c>
       <c r="C76" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.1600000000001387E-2</v>
       </c>
     </row>
@@ -8556,7 +10871,7 @@
         <v>42.576700000000002</v>
       </c>
       <c r="C77" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.14620000000000033</v>
       </c>
     </row>
@@ -8568,7 +10883,7 @@
         <v>42.685699999999997</v>
       </c>
       <c r="C78" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.10899999999999466</v>
       </c>
     </row>
@@ -8580,7 +10895,7 @@
         <v>42.738599999999998</v>
       </c>
       <c r="C79" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>5.2900000000001057E-2</v>
       </c>
     </row>
@@ -8592,7 +10907,7 @@
         <v>42.86</v>
       </c>
       <c r="C80" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.12140000000000128</v>
       </c>
     </row>
@@ -8604,7 +10919,7 @@
         <v>42.874299999999998</v>
       </c>
       <c r="C81" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.4299999999998647E-2</v>
       </c>
     </row>
@@ -8616,7 +10931,7 @@
         <v>43.005600000000001</v>
       </c>
       <c r="C82" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.13130000000000308</v>
       </c>
     </row>
@@ -8628,7 +10943,7 @@
         <v>43.042000000000002</v>
       </c>
       <c r="C83" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.6400000000000432E-2</v>
       </c>
     </row>
@@ -8640,7 +10955,7 @@
         <v>43.069000000000003</v>
       </c>
       <c r="C84" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.7000000000001023E-2</v>
       </c>
     </row>
@@ -8652,7 +10967,7 @@
         <v>43.198799999999999</v>
       </c>
       <c r="C85" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.12979999999999592</v>
       </c>
     </row>
@@ -8664,7 +10979,7 @@
         <v>43.273499999999999</v>
       </c>
       <c r="C86" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>7.4699999999999989E-2</v>
       </c>
     </row>
@@ -8676,7 +10991,7 @@
         <v>43.463999999999999</v>
       </c>
       <c r="C87" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.19050000000000011</v>
       </c>
     </row>
@@ -8688,7 +11003,7 @@
         <v>43.5276</v>
       </c>
       <c r="C88" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>6.3600000000000989E-2</v>
       </c>
     </row>
@@ -8700,7 +11015,7 @@
         <v>43.550199999999997</v>
       </c>
       <c r="C89" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.2599999999997067E-2</v>
       </c>
     </row>
@@ -8712,7 +11027,7 @@
         <v>43.639800000000001</v>
       </c>
       <c r="C90" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>8.9600000000004343E-2</v>
       </c>
     </row>
@@ -8724,7 +11039,7 @@
         <v>43.690399999999997</v>
       </c>
       <c r="C91" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>5.0599999999995759E-2</v>
       </c>
     </row>
@@ -8736,7 +11051,7 @@
         <v>43.845399999999998</v>
       </c>
       <c r="C92" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.15500000000000114</v>
       </c>
     </row>
@@ -8748,7 +11063,7 @@
         <v>43.860399999999998</v>
       </c>
       <c r="C93" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.5000000000000568E-2</v>
       </c>
     </row>
@@ -8760,7 +11075,7 @@
         <v>43.861600000000003</v>
       </c>
       <c r="C94" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.2000000000043087E-3</v>
       </c>
     </row>
@@ -8772,7 +11087,7 @@
         <v>44.180599999999998</v>
       </c>
       <c r="C95" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.31899999999999551</v>
       </c>
     </row>
@@ -8784,7 +11099,7 @@
         <v>44.551699999999997</v>
       </c>
       <c r="C96" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.37109999999999843</v>
       </c>
     </row>
@@ -8796,7 +11111,7 @@
         <v>44.630899999999997</v>
       </c>
       <c r="C97" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>7.9200000000000159E-2</v>
       </c>
     </row>
@@ -8808,7 +11123,7 @@
         <v>45.0961</v>
       </c>
       <c r="C98" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.46520000000000294</v>
       </c>
     </row>
@@ -8820,7 +11135,7 @@
         <v>45.1419</v>
       </c>
       <c r="C99" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>4.5799999999999841E-2</v>
       </c>
     </row>
@@ -8832,7 +11147,7 @@
         <v>45.238900000000001</v>
       </c>
       <c r="C100" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>9.7000000000001307E-2</v>
       </c>
     </row>
@@ -8844,7 +11159,7 @@
         <v>45.267499999999998</v>
       </c>
       <c r="C101" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.8599999999997294E-2</v>
       </c>
     </row>
@@ -8856,7 +11171,7 @@
         <v>45.268799999999999</v>
       </c>
       <c r="C102" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.300000000000523E-3</v>
       </c>
     </row>
@@ -8868,7 +11183,7 @@
         <v>45.705100000000002</v>
       </c>
       <c r="C103" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.4363000000000028</v>
       </c>
     </row>
@@ -8880,7 +11195,7 @@
         <v>45.724499999999999</v>
       </c>
       <c r="C104" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>1.9399999999997419E-2</v>
       </c>
     </row>
@@ -8892,7 +11207,7 @@
         <v>45.781500000000001</v>
       </c>
       <c r="C105" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>5.700000000000216E-2</v>
       </c>
     </row>
@@ -8904,7 +11219,7 @@
         <v>45.8262</v>
       </c>
       <c r="C106" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>4.4699999999998852E-2</v>
       </c>
     </row>
@@ -8916,7 +11231,7 @@
         <v>45.932000000000002</v>
       </c>
       <c r="C107" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.10580000000000211</v>
       </c>
     </row>
@@ -8928,7 +11243,7 @@
         <v>46.049700000000001</v>
       </c>
       <c r="C108" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.11769999999999925</v>
       </c>
     </row>
@@ -8940,7 +11255,7 @@
         <v>46.089399999999998</v>
       </c>
       <c r="C109" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.9699999999996294E-2</v>
       </c>
     </row>
@@ -8952,7 +11267,7 @@
         <v>46.117400000000004</v>
       </c>
       <c r="C110" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.8000000000005798E-2</v>
       </c>
     </row>
@@ -8964,7 +11279,7 @@
         <v>46.243299999999998</v>
       </c>
       <c r="C111" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.12589999999999435</v>
       </c>
     </row>
@@ -8976,7 +11291,7 @@
         <v>46.3</v>
       </c>
       <c r="C112" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>5.6699999999999307E-2</v>
       </c>
     </row>
@@ -8988,7 +11303,7 @@
         <v>46.761200000000002</v>
       </c>
       <c r="C113" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.46120000000000516</v>
       </c>
     </row>
@@ -9000,7 +11315,7 @@
         <v>46.920299999999997</v>
       </c>
       <c r="C114" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.15909999999999513</v>
       </c>
     </row>
@@ -9012,7 +11327,7 @@
         <v>47.090899999999998</v>
       </c>
       <c r="C115" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.17060000000000031</v>
       </c>
     </row>
@@ -9024,7 +11339,7 @@
         <v>47.375599999999999</v>
       </c>
       <c r="C116" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.28470000000000084</v>
       </c>
     </row>
@@ -9036,7 +11351,7 @@
         <v>47.442100000000003</v>
       </c>
       <c r="C117" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>6.6500000000004889E-2</v>
       </c>
     </row>
@@ -9048,7 +11363,7 @@
         <v>47.4452</v>
       </c>
       <c r="C118" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.0999999999963279E-3</v>
       </c>
     </row>
@@ -9060,7 +11375,7 @@
         <v>47.471699999999998</v>
       </c>
       <c r="C119" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.6499999999998636E-2</v>
       </c>
     </row>
@@ -9072,7 +11387,7 @@
         <v>47.6633</v>
       </c>
       <c r="C120" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.1916000000000011</v>
       </c>
     </row>
@@ -9084,7 +11399,7 @@
         <v>47.920699999999997</v>
       </c>
       <c r="C121" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.25739999999999696</v>
       </c>
     </row>
@@ -9096,7 +11411,7 @@
         <v>48.107999999999997</v>
       </c>
       <c r="C122" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.18730000000000047</v>
       </c>
     </row>
@@ -9108,7 +11423,7 @@
         <v>48.133899999999997</v>
       </c>
       <c r="C123" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.5900000000000034E-2</v>
       </c>
     </row>
@@ -9120,7 +11435,7 @@
         <v>48.261800000000001</v>
       </c>
       <c r="C124" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.1279000000000039</v>
       </c>
     </row>
@@ -9132,7 +11447,7 @@
         <v>48.264699999999998</v>
       </c>
       <c r="C125" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.899999999996794E-3</v>
       </c>
     </row>
@@ -9144,7 +11459,7 @@
         <v>48.427900000000001</v>
       </c>
       <c r="C126" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.16320000000000334</v>
       </c>
     </row>
@@ -9156,7 +11471,7 @@
         <v>48.7453</v>
       </c>
       <c r="C127" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.31739999999999924</v>
       </c>
     </row>
@@ -9168,7 +11483,7 @@
         <v>48.904899999999998</v>
       </c>
       <c r="C128" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.15959999999999752</v>
       </c>
     </row>
@@ -9180,7 +11495,7 @@
         <v>49.208100000000002</v>
       </c>
       <c r="C129" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.30320000000000391</v>
       </c>
     </row>
@@ -9192,7 +11507,7 @@
         <v>49.421300000000002</v>
       </c>
       <c r="C130" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.2132000000000005</v>
       </c>
     </row>
@@ -9204,7 +11519,7 @@
         <v>49.451599999999999</v>
       </c>
       <c r="C131" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>3.0299999999996885E-2</v>
       </c>
     </row>
@@ -9216,7 +11531,7 @@
         <v>49.472099999999998</v>
       </c>
       <c r="C132" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.0499999999998408E-2</v>
       </c>
     </row>
@@ -9228,7 +11543,7 @@
         <v>49.884599999999999</v>
       </c>
       <c r="C133" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.41250000000000142</v>
       </c>
     </row>
@@ -9240,7 +11555,7 @@
         <v>49.934699999999999</v>
       </c>
       <c r="C134" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>5.0100000000000477E-2</v>
       </c>
     </row>
@@ -9252,7 +11567,7 @@
         <v>50.108699999999999</v>
       </c>
       <c r="C135" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>0.17399999999999949</v>
       </c>
     </row>
@@ -9264,7 +11579,7 @@
         <v>50.137900000000002</v>
       </c>
       <c r="C136" s="7">
-        <f t="shared" si="12"/>
+        <f t="shared" si="26"/>
         <v>2.9200000000003001E-2</v>
       </c>
     </row>
@@ -9276,7 +11591,7 @@
         <v>50.2348</v>
       </c>
       <c r="C137" s="7">
-        <f t="shared" ref="C137:C200" si="13">B137-B136</f>
+        <f t="shared" ref="C137:C200" si="27">B137-B136</f>
         <v>9.6899999999997988E-2</v>
       </c>
     </row>
@@ -9288,7 +11603,7 @@
         <v>50.267400000000002</v>
       </c>
       <c r="C138" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.2600000000002183E-2</v>
       </c>
     </row>
@@ -9300,7 +11615,7 @@
         <v>50.349499999999999</v>
       </c>
       <c r="C139" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.2099999999996953E-2</v>
       </c>
     </row>
@@ -9312,7 +11627,7 @@
         <v>50.560200000000002</v>
       </c>
       <c r="C140" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.21070000000000277</v>
       </c>
     </row>
@@ -9324,7 +11639,7 @@
         <v>50.610999999999997</v>
       </c>
       <c r="C141" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>5.0799999999995293E-2</v>
       </c>
     </row>
@@ -9336,7 +11651,7 @@
         <v>50.625599999999999</v>
       </c>
       <c r="C142" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.4600000000001501E-2</v>
       </c>
     </row>
@@ -9348,7 +11663,7 @@
         <v>50.715600000000002</v>
       </c>
       <c r="C143" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.0000000000003411E-2</v>
       </c>
     </row>
@@ -9360,7 +11675,7 @@
         <v>50.982599999999998</v>
       </c>
       <c r="C144" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.26699999999999591</v>
       </c>
     </row>
@@ -9372,7 +11687,7 @@
         <v>51.112200000000001</v>
       </c>
       <c r="C145" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.12960000000000349</v>
       </c>
     </row>
@@ -9384,7 +11699,7 @@
         <v>51.202500000000001</v>
       </c>
       <c r="C146" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.0299999999999159E-2</v>
       </c>
     </row>
@@ -9396,7 +11711,7 @@
         <v>51.307499999999997</v>
       </c>
       <c r="C147" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.10499999999999687</v>
       </c>
     </row>
@@ -9408,7 +11723,7 @@
         <v>52.0732</v>
       </c>
       <c r="C148" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.76570000000000249</v>
       </c>
     </row>
@@ -9420,7 +11735,7 @@
         <v>52.091500000000003</v>
       </c>
       <c r="C149" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.8300000000003536E-2</v>
       </c>
     </row>
@@ -9432,7 +11747,7 @@
         <v>52.215699999999998</v>
       </c>
       <c r="C150" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.12419999999999476</v>
       </c>
     </row>
@@ -9444,7 +11759,7 @@
         <v>52.2607</v>
       </c>
       <c r="C151" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4.5000000000001705E-2</v>
       </c>
     </row>
@@ -9456,7 +11771,7 @@
         <v>52.417499999999997</v>
       </c>
       <c r="C152" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.15679999999999694</v>
       </c>
     </row>
@@ -9468,7 +11783,7 @@
         <v>52.546300000000002</v>
       </c>
       <c r="C153" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.12880000000000535</v>
       </c>
     </row>
@@ -9480,7 +11795,7 @@
         <v>52.813400000000001</v>
       </c>
       <c r="C154" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.26709999999999923</v>
       </c>
     </row>
@@ -9492,7 +11807,7 @@
         <v>52.844799999999999</v>
       </c>
       <c r="C155" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.1399999999997874E-2</v>
       </c>
     </row>
@@ -9504,7 +11819,7 @@
         <v>52.849400000000003</v>
       </c>
       <c r="C156" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4.6000000000034902E-3</v>
       </c>
     </row>
@@ -9516,7 +11831,7 @@
         <v>52.968400000000003</v>
       </c>
       <c r="C157" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.11899999999999977</v>
       </c>
     </row>
@@ -9528,7 +11843,7 @@
         <v>53.122900000000001</v>
       </c>
       <c r="C158" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.15449999999999875</v>
       </c>
     </row>
@@ -9540,7 +11855,7 @@
         <v>53.275500000000001</v>
       </c>
       <c r="C159" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.15259999999999962</v>
       </c>
     </row>
@@ -9552,7 +11867,7 @@
         <v>53.340699999999998</v>
       </c>
       <c r="C160" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6.519999999999726E-2</v>
       </c>
     </row>
@@ -9564,7 +11879,7 @@
         <v>53.405099999999997</v>
       </c>
       <c r="C161" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>6.4399999999999125E-2</v>
       </c>
     </row>
@@ -9576,7 +11891,7 @@
         <v>53.538899999999998</v>
       </c>
       <c r="C162" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.13380000000000081</v>
       </c>
     </row>
@@ -9588,7 +11903,7 @@
         <v>53.568399999999997</v>
       </c>
       <c r="C163" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.9499999999998749E-2</v>
       </c>
     </row>
@@ -9600,7 +11915,7 @@
         <v>53.99</v>
       </c>
       <c r="C164" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.42160000000000508</v>
       </c>
     </row>
@@ -9612,7 +11927,7 @@
         <v>54.096800000000002</v>
       </c>
       <c r="C165" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.10679999999999978</v>
       </c>
     </row>
@@ -9624,7 +11939,7 @@
         <v>54.104900000000001</v>
       </c>
       <c r="C166" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.0999999999988859E-3</v>
       </c>
     </row>
@@ -9636,7 +11951,7 @@
         <v>54.105899999999998</v>
       </c>
       <c r="C167" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.9999999999766942E-4</v>
       </c>
     </row>
@@ -9648,7 +11963,7 @@
         <v>54.107300000000002</v>
       </c>
       <c r="C168" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.4000000000038426E-3</v>
       </c>
     </row>
@@ -9660,7 +11975,7 @@
         <v>54.220999999999997</v>
       </c>
       <c r="C169" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.11369999999999436</v>
       </c>
     </row>
@@ -9672,7 +11987,7 @@
         <v>54.604900000000001</v>
       </c>
       <c r="C170" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.38390000000000413</v>
       </c>
     </row>
@@ -9684,7 +11999,7 @@
         <v>54.625999999999998</v>
       </c>
       <c r="C171" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.109999999999701E-2</v>
       </c>
     </row>
@@ -9696,7 +12011,7 @@
         <v>54.792200000000001</v>
       </c>
       <c r="C172" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.16620000000000346</v>
       </c>
     </row>
@@ -9708,7 +12023,7 @@
         <v>54.819800000000001</v>
       </c>
       <c r="C173" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.7599999999999625E-2</v>
       </c>
     </row>
@@ -9720,7 +12035,7 @@
         <v>54.861199999999997</v>
       </c>
       <c r="C174" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4.1399999999995885E-2</v>
       </c>
     </row>
@@ -9732,7 +12047,7 @@
         <v>54.871400000000001</v>
       </c>
       <c r="C175" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>1.020000000000465E-2</v>
       </c>
     </row>
@@ -9744,7 +12059,7 @@
         <v>54.9559</v>
       </c>
       <c r="C176" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.4499999999998465E-2</v>
       </c>
     </row>
@@ -9756,7 +12071,7 @@
         <v>55.008499999999998</v>
       </c>
       <c r="C177" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>5.2599999999998204E-2</v>
       </c>
     </row>
@@ -9768,7 +12083,7 @@
         <v>55.016599999999997</v>
       </c>
       <c r="C178" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.0999999999988859E-3</v>
       </c>
     </row>
@@ -9780,7 +12095,7 @@
         <v>55.051699999999997</v>
       </c>
       <c r="C179" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.5099999999999909E-2</v>
       </c>
     </row>
@@ -9792,7 +12107,7 @@
         <v>55.223799999999997</v>
       </c>
       <c r="C180" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.17210000000000036</v>
       </c>
     </row>
@@ -9804,7 +12119,7 @@
         <v>55.260399999999997</v>
       </c>
       <c r="C181" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.6599999999999966E-2</v>
       </c>
     </row>
@@ -9816,7 +12131,7 @@
         <v>55.346899999999998</v>
       </c>
       <c r="C182" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.6500000000000909E-2</v>
       </c>
     </row>
@@ -9828,7 +12143,7 @@
         <v>55.369599999999998</v>
       </c>
       <c r="C183" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.2700000000000387E-2</v>
       </c>
     </row>
@@ -9840,7 +12155,7 @@
         <v>55.731900000000003</v>
       </c>
       <c r="C184" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.36230000000000473</v>
       </c>
     </row>
@@ -9852,7 +12167,7 @@
         <v>55.835599999999999</v>
       </c>
       <c r="C185" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.10369999999999635</v>
       </c>
     </row>
@@ -9864,7 +12179,7 @@
         <v>55.863500000000002</v>
       </c>
       <c r="C186" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>2.7900000000002478E-2</v>
       </c>
     </row>
@@ -9876,7 +12191,7 @@
         <v>55.940199999999997</v>
       </c>
       <c r="C187" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>7.6699999999995327E-2</v>
       </c>
     </row>
@@ -9888,7 +12203,7 @@
         <v>56.198399999999999</v>
       </c>
       <c r="C188" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.25820000000000221</v>
       </c>
     </row>
@@ -9900,7 +12215,7 @@
         <v>56.326700000000002</v>
       </c>
       <c r="C189" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.12830000000000297</v>
       </c>
     </row>
@@ -9912,7 +12227,7 @@
         <v>56.416600000000003</v>
       </c>
       <c r="C190" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>8.9900000000000091E-2</v>
       </c>
     </row>
@@ -9924,7 +12239,7 @@
         <v>56.6723</v>
       </c>
       <c r="C191" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.25569999999999737</v>
       </c>
     </row>
@@ -9936,7 +12251,7 @@
         <v>56.928800000000003</v>
       </c>
       <c r="C192" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.25650000000000261</v>
       </c>
     </row>
@@ -9948,7 +12263,7 @@
         <v>57.087000000000003</v>
       </c>
       <c r="C193" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.15820000000000078</v>
       </c>
     </row>
@@ -9960,7 +12275,7 @@
         <v>57.125300000000003</v>
       </c>
       <c r="C194" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>3.8299999999999557E-2</v>
       </c>
     </row>
@@ -9972,7 +12287,7 @@
         <v>57.1755</v>
       </c>
       <c r="C195" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>5.0199999999996692E-2</v>
       </c>
     </row>
@@ -9984,7 +12299,7 @@
         <v>57.222799999999999</v>
       </c>
       <c r="C196" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>4.7299999999999898E-2</v>
       </c>
     </row>
@@ -9996,7 +12311,7 @@
         <v>57.322299999999998</v>
       </c>
       <c r="C197" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>9.9499999999999034E-2</v>
       </c>
     </row>
@@ -10008,7 +12323,7 @@
         <v>57.496899999999997</v>
       </c>
       <c r="C198" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.17459999999999809</v>
       </c>
     </row>
@@ -10020,7 +12335,7 @@
         <v>58.052900000000001</v>
       </c>
       <c r="C199" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.55600000000000449</v>
       </c>
       <c r="K199" s="41">
@@ -10035,7 +12350,7 @@
         <v>58.153799999999997</v>
       </c>
       <c r="C200" s="7">
-        <f t="shared" si="13"/>
+        <f t="shared" si="27"/>
         <v>0.10089999999999577</v>
       </c>
       <c r="K200" s="41">
@@ -10050,7 +12365,7 @@
         <v>58.780999999999999</v>
       </c>
       <c r="C201" s="7">
-        <f t="shared" ref="C201:C207" si="14">B201-B200</f>
+        <f t="shared" ref="C201:C207" si="28">B201-B200</f>
         <v>0.62720000000000198</v>
       </c>
       <c r="K201" s="41">
@@ -10065,7 +12380,7 @@
         <v>58.918300000000002</v>
       </c>
       <c r="C202" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.13730000000000331</v>
       </c>
       <c r="K202" s="41">
@@ -10080,7 +12395,7 @@
         <v>59.024999999999999</v>
       </c>
       <c r="C203" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.10669999999999646</v>
       </c>
       <c r="F203" s="1">
@@ -10099,7 +12414,7 @@
         <v>59.059100000000001</v>
       </c>
       <c r="C204" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>3.410000000000224E-2</v>
       </c>
       <c r="K204" s="41">
@@ -10114,7 +12429,7 @@
         <v>59.067100000000003</v>
       </c>
       <c r="C205" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>8.0000000000026716E-3</v>
       </c>
       <c r="K205" s="41">
@@ -10129,7 +12444,7 @@
         <v>59.266399999999997</v>
       </c>
       <c r="C206" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>0.19929999999999382</v>
       </c>
       <c r="K206" s="41">
@@ -10144,7 +12459,7 @@
         <v>59.3123</v>
       </c>
       <c r="C207" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="28"/>
         <v>4.590000000000316E-2</v>
       </c>
       <c r="K207" s="41">
@@ -11118,12 +13433,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="9">
+    <mergeCell ref="AI34:AK34"/>
+    <mergeCell ref="AM34:AO34"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="AN48:AO48"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="N10:P10"/>
     <mergeCell ref="U10:W10"/>
+    <mergeCell ref="AA31:AG31"/>
+    <mergeCell ref="AA34:AC34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>